--- a/data/Excel Workbooks/JapanDataWorkbook.xlsx
+++ b/data/Excel Workbooks/JapanDataWorkbook.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="21840" windowHeight="13620" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="21840" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Japan Workbook" sheetId="1" r:id="rId1"/>
-    <sheet name="Japan Indices Comparison" sheetId="11" r:id="rId2"/>
-    <sheet name="Labor Calculations" sheetId="3" r:id="rId3"/>
-    <sheet name="Exergy calcs" sheetId="13" r:id="rId4"/>
-    <sheet name="Useful work calcs" sheetId="14" r:id="rId5"/>
-    <sheet name="Capital Stock Comparison Graph" sheetId="6" r:id="rId6"/>
-    <sheet name="Capital Stock Comparison" sheetId="5" r:id="rId7"/>
-    <sheet name="GDP Comparison Graph" sheetId="8" r:id="rId8"/>
-    <sheet name="GDP Comparison" sheetId="7" r:id="rId9"/>
+    <sheet name="JPData" sheetId="15" r:id="rId2"/>
+    <sheet name="Japan Indices Comparison" sheetId="11" r:id="rId3"/>
+    <sheet name="Labor Calculations" sheetId="3" r:id="rId4"/>
+    <sheet name="Exergy calcs" sheetId="13" r:id="rId5"/>
+    <sheet name="Useful work calcs" sheetId="14" r:id="rId6"/>
+    <sheet name="Capital Stock Comparison Graph" sheetId="6" r:id="rId7"/>
+    <sheet name="Capital Stock Comparison" sheetId="5" r:id="rId8"/>
+    <sheet name="GDP Comparison Graph" sheetId="8" r:id="rId9"/>
+    <sheet name="GDP Comparison" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
   <si>
     <t>GDP [Millions of 1990$]</t>
   </si>
@@ -996,12 +997,39 @@
       <t>:</t>
     </r>
   </si>
+  <si>
+    <t>iYear</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>iGDP</t>
+  </si>
+  <si>
+    <t>iLabor</t>
+  </si>
+  <si>
+    <t>iCapStk</t>
+  </si>
+  <si>
+    <t>iQ</t>
+  </si>
+  <si>
+    <t>iX</t>
+  </si>
+  <si>
+    <t>iU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - The 'JPData' tab has the indexed data from this page formatted for direct exporting into R (a statistical analysis program).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1010,6 +1038,7 @@
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -1360,6 +1389,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -5803,7 +5833,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -6083,9 +6113,6 @@
     <xf numFmtId="166" fontId="24" fillId="0" borderId="36" xfId="868" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6121,6 +6148,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6162,9 +6207,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3605">
@@ -9865,7 +9907,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$A$8:$A$39</c:f>
+              <c:f>'Japan Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -9970,7 +10012,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$H$8:$H$39</c:f>
+              <c:f>'Japan Workbook'!$I$10:$I$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10095,7 +10137,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$A$8:$A$39</c:f>
+              <c:f>'Japan Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10200,7 +10242,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$J$8:$J$39</c:f>
+              <c:f>'Japan Workbook'!$K$10:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10325,7 +10367,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$A$8:$A$39</c:f>
+              <c:f>'Japan Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10430,7 +10472,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$I$8:$I$39</c:f>
+              <c:f>'Japan Workbook'!$J$10:$J$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10526,6 +10568,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.90674539813648802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10552,7 +10597,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$A$8:$A$39</c:f>
+              <c:f>'Japan Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10657,7 +10702,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$L$8:$L$39</c:f>
+              <c:f>'Japan Workbook'!$M$10:$M$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10775,7 +10820,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$A$8:$A$39</c:f>
+              <c:f>'Japan Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -10880,7 +10925,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$M$8:$M$28</c:f>
+              <c:f>'Japan Workbook'!$N$10:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -10969,7 +11014,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$A$8:$A$39</c:f>
+              <c:f>'Japan Workbook'!$A$10:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11074,7 +11119,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Japan Workbook'!$K$8:$K$39</c:f>
+              <c:f>'Japan Workbook'!$L$10:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -11187,11 +11232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155305472"/>
-        <c:axId val="168112128"/>
+        <c:axId val="78531584"/>
+        <c:axId val="211666048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155305472"/>
+        <c:axId val="78531584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015"/>
@@ -11215,19 +11260,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168112128"/>
+        <c:crossAx val="211666048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168112128"/>
+        <c:axId val="211666048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11264,7 +11308,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155305472"/>
+        <c:crossAx val="78531584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -11313,7 +11357,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12211,11 +12254,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171297024"/>
-        <c:axId val="181027200"/>
+        <c:axId val="236932480"/>
+        <c:axId val="236955520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171297024"/>
+        <c:axId val="236932480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011"/>
@@ -12239,20 +12282,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181027200"/>
+        <c:crossAx val="236955520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181027200"/>
+        <c:axId val="236955520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12279,21 +12321,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171297024"/>
+        <c:crossAx val="236932480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12338,7 +12378,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13341,11 +13380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184004992"/>
-        <c:axId val="184007680"/>
+        <c:axId val="236837888"/>
+        <c:axId val="236844544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184004992"/>
+        <c:axId val="236837888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011"/>
@@ -13369,20 +13408,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184007680"/>
+        <c:crossAx val="236844544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184007680"/>
+        <c:axId val="236844544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13409,21 +13447,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184004992"/>
+        <c:crossAx val="236837888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14216,10 +14252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14230,67 +14266,71 @@
     <col min="5" max="5" width="22.140625" style="58" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1"/>
-    <col min="14" max="33" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="131" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="58" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="15" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="119" customFormat="1">
-      <c r="A1" s="151" t="s">
+    <row r="1" spans="1:14" s="118" customFormat="1">
+      <c r="A1" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
       <c r="M1" s="120"/>
-    </row>
-    <row r="2" spans="1:13" s="119" customFormat="1">
-      <c r="B2" s="124" t="s">
+      <c r="N1" s="119"/>
+    </row>
+    <row r="2" spans="1:14" s="118" customFormat="1">
+      <c r="B2" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
       <c r="M2" s="120"/>
-    </row>
-    <row r="3" spans="1:13" s="119" customFormat="1">
-      <c r="B3" s="124" t="s">
+      <c r="N2" s="119"/>
+    </row>
+    <row r="3" spans="1:14" s="118" customFormat="1">
+      <c r="B3" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
       <c r="M3" s="120"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="119"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" s="108" t="s">
         <v>111</v>
       </c>
@@ -14299,1653 +14339,2829 @@
       <c r="E4" s="108"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="135"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="109"/>
-      <c r="B6" s="137" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" s="131" customFormat="1">
+      <c r="B5" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="119"/>
+    </row>
+    <row r="6" spans="1:14" s="131" customFormat="1">
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="119"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="135" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="135" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="135" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="A8" s="109"/>
+      <c r="B8" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C8" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D8" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E8" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="137" t="s">
+      <c r="F8" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="137" t="s">
+      <c r="G8" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="137" t="s">
+      <c r="H8" s="136"/>
+      <c r="I8" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="137" t="s">
+      <c r="J8" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="137" t="s">
+      <c r="K8" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="L8" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="137" t="s">
+      <c r="M8" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="N8" s="142" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="107" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="14">
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="14">
         <v>1980</v>
       </c>
-      <c r="B8" s="133">
+      <c r="B10" s="132">
         <v>2616360</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>125631.4117878245</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D10" s="122">
         <v>5488428</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E10" s="41">
         <v>16600413.049341671</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F10" s="111">
         <v>17339148.540692836</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G10" s="111">
         <v>3583930.8962938637</v>
       </c>
-      <c r="H8" s="4">
-        <f>B8/$B$8</f>
+      <c r="H10" s="138">
+        <f>A10-$A$10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f>B10/$B$10</f>
         <v>1</v>
       </c>
-      <c r="I8" s="11">
-        <f>C8/$C$8</f>
+      <c r="J10" s="11">
+        <f>C10/$C$10</f>
         <v>1</v>
       </c>
-      <c r="J8" s="11">
-        <f>D8/$D$8</f>
+      <c r="K10" s="11">
+        <f>D10/$D$10</f>
         <v>1</v>
       </c>
-      <c r="K8" s="25">
-        <f>E8/$E$8</f>
+      <c r="L10" s="25">
+        <f>E10/$E$10</f>
         <v>1</v>
       </c>
-      <c r="L8" s="11">
-        <f>F8/$F$8</f>
+      <c r="M10" s="11">
+        <f>F10/$F$10</f>
         <v>1</v>
       </c>
-      <c r="M8" s="25">
-        <f>G8/$G$8</f>
+      <c r="N10" s="25">
+        <f>G10/$G$10</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="14">
+    <row r="11" spans="1:14">
+      <c r="A11" s="14">
         <v>1981</v>
       </c>
-      <c r="B9" s="133">
+      <c r="B11" s="132">
         <v>2693109</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="2">
         <v>126007.25840532818</v>
       </c>
-      <c r="D9" s="123">
+      <c r="D11" s="122">
         <v>5782738</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E11" s="41">
         <v>16601855.649123752</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F11" s="111">
         <v>17336329.821735129</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G11" s="111">
         <v>3449324.4337516697</v>
       </c>
-      <c r="H9" s="125">
-        <f t="shared" ref="H9:H39" si="0">B9/$B$8</f>
+      <c r="H11" s="138">
+        <f t="shared" ref="H11:H41" si="0">A11-$A$10</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="124">
+        <f t="shared" ref="I11:I41" si="1">B11/$B$10</f>
         <v>1.0293342659267073</v>
       </c>
-      <c r="I9" s="25">
-        <f t="shared" ref="I9:I38" si="1">C9/$C$8</f>
+      <c r="J11" s="25">
+        <f t="shared" ref="J11:J40" si="2">C11/$C$10</f>
         <v>1.0029916611789609</v>
       </c>
-      <c r="J9" s="126">
-        <f t="shared" ref="J9:J39" si="2">D9/$D$8</f>
+      <c r="K11" s="125">
+        <f t="shared" ref="K11:K41" si="3">D11/$D$10</f>
         <v>1.0536237334260374</v>
       </c>
-      <c r="K9" s="25">
-        <f t="shared" ref="K9:K39" si="3">E9/$E$8</f>
+      <c r="L11" s="25">
+        <f t="shared" ref="L11:L41" si="4">E11/$E$10</f>
         <v>1.0000869014390059</v>
       </c>
-      <c r="L9" s="25">
-        <f t="shared" ref="L9:L39" si="4">F9/$F$8</f>
+      <c r="M11" s="25">
+        <f t="shared" ref="M11:M41" si="5">F11/$F$10</f>
         <v>0.99983743613758813</v>
       </c>
-      <c r="M9" s="25">
-        <f t="shared" ref="M9:M39" si="5">G9/$G$8</f>
+      <c r="N11" s="25">
+        <f t="shared" ref="N11:N30" si="6">G11/$G$10</f>
         <v>0.96244166909540851</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="14">
+    <row r="12" spans="1:14">
+      <c r="A12" s="14">
         <v>1982</v>
       </c>
-      <c r="B10" s="133">
+      <c r="B12" s="132">
         <v>2767556</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C12" s="2">
         <v>126725.86741779902</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D12" s="122">
         <v>6056132</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E12" s="41">
         <v>16152308.377228709</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F12" s="111">
         <v>16836822.63595451</v>
       </c>
-      <c r="G10" s="111">
+      <c r="G12" s="111">
         <v>3288610.6898509972</v>
       </c>
-      <c r="H10" s="125">
+      <c r="H12" s="138">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="124">
+        <f t="shared" si="1"/>
         <v>1.0577886835145012</v>
       </c>
-      <c r="I10" s="25">
-        <f t="shared" si="1"/>
+      <c r="J12" s="25">
+        <f t="shared" si="2"/>
         <v>1.0087116399823868</v>
       </c>
-      <c r="J10" s="126">
-        <f t="shared" si="2"/>
+      <c r="K12" s="125">
+        <f t="shared" si="3"/>
         <v>1.1034365395701646</v>
-      </c>
-      <c r="K10" s="25">
-        <f t="shared" si="3"/>
-        <v>0.97300641431143586</v>
-      </c>
-      <c r="L10" s="25">
-        <f t="shared" si="4"/>
-        <v>0.97102937877489026</v>
-      </c>
-      <c r="M10" s="25">
-        <f t="shared" si="5"/>
-        <v>0.91759880003594474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="14">
-        <v>1983</v>
-      </c>
-      <c r="B11" s="133">
-        <v>2812164</v>
-      </c>
-      <c r="C11" s="2">
-        <v>128425.4484278684</v>
-      </c>
-      <c r="D11" s="123">
-        <v>6301191</v>
-      </c>
-      <c r="E11" s="41">
-        <v>15849221.847650301</v>
-      </c>
-      <c r="F11" s="111">
-        <v>16489380.207141019</v>
-      </c>
-      <c r="G11" s="111">
-        <v>3261876.1088955603</v>
-      </c>
-      <c r="H11" s="125">
-        <f t="shared" si="0"/>
-        <v>1.0748383250011466</v>
-      </c>
-      <c r="I11" s="25">
-        <f t="shared" si="1"/>
-        <v>1.0222399525746209</v>
-      </c>
-      <c r="J11" s="126">
-        <f t="shared" si="2"/>
-        <v>1.1480866652527828</v>
-      </c>
-      <c r="K11" s="25">
-        <f t="shared" si="3"/>
-        <v>0.95474864393683501</v>
-      </c>
-      <c r="L11" s="25">
-        <f t="shared" si="4"/>
-        <v>0.95099134588082479</v>
-      </c>
-      <c r="M11" s="25">
-        <f t="shared" si="5"/>
-        <v>0.91013923071693714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="14">
-        <v>1984</v>
-      </c>
-      <c r="B12" s="133">
-        <v>2899873</v>
-      </c>
-      <c r="C12" s="2">
-        <v>129636.60493544178</v>
-      </c>
-      <c r="D12" s="123">
-        <v>6557973</v>
-      </c>
-      <c r="E12" s="41">
-        <v>17252909.424572758</v>
-      </c>
-      <c r="F12" s="111">
-        <v>17975733.551929452</v>
-      </c>
-      <c r="G12" s="111">
-        <v>3536963.5115154418</v>
-      </c>
-      <c r="H12" s="125">
-        <f t="shared" si="0"/>
-        <v>1.1083616169028727</v>
-      </c>
-      <c r="I12" s="25">
-        <f t="shared" si="1"/>
-        <v>1.0318805073557682</v>
-      </c>
-      <c r="J12" s="126">
-        <f t="shared" si="2"/>
-        <v>1.1948727395166703</v>
-      </c>
-      <c r="K12" s="25">
-        <f t="shared" si="3"/>
-        <v>1.0393060325241101</v>
       </c>
       <c r="L12" s="25">
         <f t="shared" si="4"/>
-        <v>1.0367137411472442</v>
+        <v>0.97300641431143586</v>
       </c>
       <c r="M12" s="25">
         <f t="shared" si="5"/>
-        <v>0.98689500826397325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.97102937877489026</v>
+      </c>
+      <c r="N12" s="25">
+        <f t="shared" si="6"/>
+        <v>0.91759880003594474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="14">
-        <v>1985</v>
-      </c>
-      <c r="B13" s="133">
-        <v>3047257</v>
+        <v>1983</v>
+      </c>
+      <c r="B13" s="132">
+        <v>2812164</v>
       </c>
       <c r="C13" s="2">
-        <v>129273.31541174983</v>
-      </c>
-      <c r="D13" s="123">
-        <v>6854423</v>
+        <v>128425.4484278684</v>
+      </c>
+      <c r="D13" s="122">
+        <v>6301191</v>
       </c>
       <c r="E13" s="41">
-        <v>17329264.628835082</v>
+        <v>15849221.847650301</v>
       </c>
       <c r="F13" s="111">
-        <v>18027327.392141871</v>
+        <v>16489380.207141019</v>
       </c>
       <c r="G13" s="111">
-        <v>3566186.3751202468</v>
-      </c>
-      <c r="H13" s="125">
+        <v>3261876.1088955603</v>
+      </c>
+      <c r="H13" s="138">
         <f t="shared" si="0"/>
-        <v>1.1646933143756975</v>
-      </c>
-      <c r="I13" s="25">
+        <v>3</v>
+      </c>
+      <c r="I13" s="124">
         <f t="shared" si="1"/>
-        <v>1.0289887980410191</v>
-      </c>
-      <c r="J13" s="126">
+        <v>1.0748383250011466</v>
+      </c>
+      <c r="J13" s="25">
         <f t="shared" si="2"/>
-        <v>1.248886384225137</v>
-      </c>
-      <c r="K13" s="25">
+        <v>1.0222399525746209</v>
+      </c>
+      <c r="K13" s="125">
         <f t="shared" si="3"/>
-        <v>1.0439056291748303</v>
+        <v>1.1480866652527828</v>
       </c>
       <c r="L13" s="25">
         <f t="shared" si="4"/>
-        <v>1.0396893105698912</v>
+        <v>0.95474864393683501</v>
       </c>
       <c r="M13" s="25">
         <f t="shared" si="5"/>
-        <v>0.99504886626246991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.95099134588082479</v>
+      </c>
+      <c r="N13" s="25">
+        <f t="shared" si="6"/>
+        <v>0.91013923071693714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="14">
-        <v>1986</v>
-      </c>
-      <c r="B14" s="133">
-        <v>3137416</v>
+        <v>1984</v>
+      </c>
+      <c r="B14" s="132">
+        <v>2899873</v>
       </c>
       <c r="C14" s="2">
-        <v>129804.90711380767</v>
-      </c>
-      <c r="D14" s="123">
-        <v>7172168</v>
+        <v>129636.60493544178</v>
+      </c>
+      <c r="D14" s="122">
+        <v>6557973</v>
       </c>
       <c r="E14" s="41">
-        <v>17370615.357950415</v>
+        <v>17252909.424572758</v>
       </c>
       <c r="F14" s="111">
-        <v>18058269.098953895</v>
+        <v>17975733.551929452</v>
       </c>
       <c r="G14" s="111">
-        <v>3544990.3302193996</v>
-      </c>
-      <c r="H14" s="125">
+        <v>3536963.5115154418</v>
+      </c>
+      <c r="H14" s="138">
         <f t="shared" si="0"/>
-        <v>1.1991530217554158</v>
-      </c>
-      <c r="I14" s="25">
+        <v>4</v>
+      </c>
+      <c r="I14" s="124">
         <f t="shared" si="1"/>
-        <v>1.0332201578139684</v>
-      </c>
-      <c r="J14" s="126">
+        <v>1.1083616169028727</v>
+      </c>
+      <c r="J14" s="25">
         <f t="shared" si="2"/>
-        <v>1.3067800105968412</v>
-      </c>
-      <c r="K14" s="25">
+        <v>1.0318805073557682</v>
+      </c>
+      <c r="K14" s="125">
         <f t="shared" si="3"/>
-        <v>1.0463965749719275</v>
+        <v>1.1948727395166703</v>
       </c>
       <c r="L14" s="25">
         <f t="shared" si="4"/>
-        <v>1.0414738103531078</v>
+        <v>1.0393060325241101</v>
       </c>
       <c r="M14" s="25">
         <f t="shared" si="5"/>
-        <v>0.98913467720185888</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.0367137411472442</v>
+      </c>
+      <c r="N14" s="25">
+        <f t="shared" si="6"/>
+        <v>0.98689500826397325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="14">
-        <v>1987</v>
-      </c>
-      <c r="B15" s="133">
-        <v>3256480</v>
+        <v>1985</v>
+      </c>
+      <c r="B15" s="132">
+        <v>3047257</v>
       </c>
       <c r="C15" s="2">
-        <v>130652.95137241807</v>
-      </c>
-      <c r="D15" s="123">
-        <v>7531071</v>
+        <v>129273.31541174983</v>
+      </c>
+      <c r="D15" s="122">
+        <v>6854423</v>
       </c>
       <c r="E15" s="41">
-        <v>17907517.512221523</v>
+        <v>17329264.628835082</v>
       </c>
       <c r="F15" s="111">
-        <v>18611178.473676097</v>
+        <v>18027327.392141871</v>
       </c>
       <c r="G15" s="111">
-        <v>3644053.7418996794</v>
-      </c>
-      <c r="H15" s="125">
+        <v>3566186.3751202468</v>
+      </c>
+      <c r="H15" s="138">
         <f t="shared" si="0"/>
-        <v>1.2446605207234478</v>
-      </c>
-      <c r="I15" s="25">
+        <v>5</v>
+      </c>
+      <c r="I15" s="124">
         <f t="shared" si="1"/>
-        <v>1.0399704143504676</v>
-      </c>
-      <c r="J15" s="126">
+        <v>1.1646933143756975</v>
+      </c>
+      <c r="J15" s="25">
         <f t="shared" si="2"/>
-        <v>1.372172687698554</v>
-      </c>
-      <c r="K15" s="25">
+        <v>1.0289887980410191</v>
+      </c>
+      <c r="K15" s="125">
         <f t="shared" si="3"/>
-        <v>1.0787392734743844</v>
+        <v>1.248886384225137</v>
       </c>
       <c r="L15" s="25">
         <f t="shared" si="4"/>
-        <v>1.0733617299602667</v>
+        <v>1.0439056291748303</v>
       </c>
       <c r="M15" s="25">
         <f t="shared" si="5"/>
-        <v>1.0167756710007965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.0396893105698912</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" si="6"/>
+        <v>0.99504886626246991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="14">
-        <v>1988</v>
-      </c>
-      <c r="B16" s="133">
-        <v>3476774</v>
+        <v>1986</v>
+      </c>
+      <c r="B16" s="132">
+        <v>3137416</v>
       </c>
       <c r="C16" s="2">
-        <v>132307.45671908237</v>
-      </c>
-      <c r="D16" s="123">
-        <v>7979483</v>
+        <v>129804.90711380767</v>
+      </c>
+      <c r="D16" s="122">
+        <v>7172168</v>
       </c>
       <c r="E16" s="41">
-        <v>18909838.557483438</v>
+        <v>17370615.357950415</v>
       </c>
       <c r="F16" s="111">
-        <v>19682491.845493108</v>
+        <v>18058269.098953895</v>
       </c>
       <c r="G16" s="111">
-        <v>3850729.9360142215</v>
-      </c>
-      <c r="H16" s="125">
+        <v>3544990.3302193996</v>
+      </c>
+      <c r="H16" s="138">
         <f t="shared" si="0"/>
-        <v>1.3288591784005259</v>
-      </c>
-      <c r="I16" s="25">
+        <v>6</v>
+      </c>
+      <c r="I16" s="124">
         <f t="shared" si="1"/>
-        <v>1.0531399340041874</v>
-      </c>
-      <c r="J16" s="126">
+        <v>1.1991530217554158</v>
+      </c>
+      <c r="J16" s="25">
         <f t="shared" si="2"/>
-        <v>1.4538740418932343</v>
-      </c>
-      <c r="K16" s="25">
+        <v>1.0332201578139684</v>
+      </c>
+      <c r="K16" s="125">
         <f t="shared" si="3"/>
-        <v>1.1391185569465907</v>
+        <v>1.3067800105968412</v>
       </c>
       <c r="L16" s="25">
         <f t="shared" si="4"/>
-        <v>1.1351475419511365</v>
+        <v>1.0463965749719275</v>
       </c>
       <c r="M16" s="25">
         <f t="shared" si="5"/>
-        <v>1.0744431317010756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.0414738103531078</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="6"/>
+        <v>0.98913467720185888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="14">
-        <v>1989</v>
-      </c>
-      <c r="B17" s="133">
-        <v>3660728</v>
+        <v>1987</v>
+      </c>
+      <c r="B17" s="132">
+        <v>3256480</v>
       </c>
       <c r="C17" s="2">
-        <v>132588.15689777787</v>
-      </c>
-      <c r="D17" s="123">
-        <v>8486149</v>
+        <v>130652.95137241807</v>
+      </c>
+      <c r="D17" s="122">
+        <v>7531071</v>
       </c>
       <c r="E17" s="41">
-        <v>19545543.233901855</v>
+        <v>17907517.512221523</v>
       </c>
       <c r="F17" s="111">
-        <v>20351320.88879855</v>
+        <v>18611178.473676097</v>
       </c>
       <c r="G17" s="111">
-        <v>3945384.5089491578</v>
-      </c>
-      <c r="H17" s="125">
+        <v>3644053.7418996794</v>
+      </c>
+      <c r="H17" s="138">
         <f t="shared" si="0"/>
-        <v>1.3991683101713832</v>
-      </c>
-      <c r="I17" s="25">
+        <v>7</v>
+      </c>
+      <c r="I17" s="124">
         <f t="shared" si="1"/>
-        <v>1.0553742492498805</v>
-      </c>
-      <c r="J17" s="126">
+        <v>1.2446605207234478</v>
+      </c>
+      <c r="J17" s="25">
         <f t="shared" si="2"/>
-        <v>1.546189364240544</v>
-      </c>
-      <c r="K17" s="25">
+        <v>1.0399704143504676</v>
+      </c>
+      <c r="K17" s="125">
         <f t="shared" si="3"/>
-        <v>1.177413066518666</v>
+        <v>1.372172687698554</v>
       </c>
       <c r="L17" s="25">
         <f t="shared" si="4"/>
-        <v>1.173720891832521</v>
+        <v>1.0787392734743844</v>
       </c>
       <c r="M17" s="25">
         <f t="shared" si="5"/>
-        <v>1.1008539570417144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.0733617299602667</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" si="6"/>
+        <v>1.0167756710007965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="14">
-        <v>1990</v>
-      </c>
-      <c r="B18" s="133">
-        <v>3851139</v>
+        <v>1988</v>
+      </c>
+      <c r="B18" s="132">
+        <v>3476774</v>
       </c>
       <c r="C18" s="2">
-        <v>133007.33554219612</v>
-      </c>
-      <c r="D18" s="123">
-        <v>9041041</v>
+        <v>132307.45671908237</v>
+      </c>
+      <c r="D18" s="122">
+        <v>7979483</v>
       </c>
       <c r="E18" s="41">
-        <v>20587276.564714774</v>
+        <v>18909838.557483438</v>
       </c>
       <c r="F18" s="111">
-        <v>21450226.998310868</v>
+        <v>19682491.845493108</v>
       </c>
       <c r="G18" s="111">
-        <v>4129620.7242516936</v>
-      </c>
-      <c r="H18" s="125">
+        <v>3850729.9360142215</v>
+      </c>
+      <c r="H18" s="138">
         <f t="shared" si="0"/>
-        <v>1.471945374489749</v>
-      </c>
-      <c r="I18" s="25">
+        <v>8</v>
+      </c>
+      <c r="I18" s="124">
         <f t="shared" si="1"/>
-        <v>1.05871082438227</v>
-      </c>
-      <c r="J18" s="126">
+        <v>1.3288591784005259</v>
+      </c>
+      <c r="J18" s="25">
         <f t="shared" si="2"/>
-        <v>1.6472915377590815</v>
-      </c>
-      <c r="K18" s="25">
+        <v>1.0531399340041874</v>
+      </c>
+      <c r="K18" s="125">
         <f t="shared" si="3"/>
-        <v>1.2401665249848233</v>
+        <v>1.4538740418932343</v>
       </c>
       <c r="L18" s="25">
         <f t="shared" si="4"/>
-        <v>1.2370980586486031</v>
+        <v>1.1391185569465907</v>
       </c>
       <c r="M18" s="25">
         <f t="shared" si="5"/>
-        <v>1.1522601422148309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.1351475419511365</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" si="6"/>
+        <v>1.0744431317010756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="14">
-        <v>1991</v>
-      </c>
-      <c r="B19" s="133">
-        <v>3979164</v>
+        <v>1989</v>
+      </c>
+      <c r="B19" s="132">
+        <v>3660728</v>
       </c>
       <c r="C19" s="2">
-        <v>132657.69677492764</v>
-      </c>
-      <c r="D19" s="123">
-        <v>9586242</v>
+        <v>132588.15689777787</v>
+      </c>
+      <c r="D19" s="122">
+        <v>8486149</v>
       </c>
       <c r="E19" s="41">
-        <v>21161603.226108298</v>
+        <v>19545543.233901855</v>
       </c>
       <c r="F19" s="111">
-        <v>22038098.07590748</v>
+        <v>20351320.88879855</v>
       </c>
       <c r="G19" s="111">
-        <v>4217846.0444469936</v>
-      </c>
-      <c r="H19" s="125">
+        <v>3945384.5089491578</v>
+      </c>
+      <c r="H19" s="138">
         <f t="shared" si="0"/>
-        <v>1.5208778608448379</v>
-      </c>
-      <c r="I19" s="25">
+        <v>9</v>
+      </c>
+      <c r="I19" s="124">
         <f t="shared" si="1"/>
-        <v>1.055927772259454</v>
-      </c>
-      <c r="J19" s="126">
+        <v>1.3991683101713832</v>
+      </c>
+      <c r="J19" s="25">
         <f t="shared" si="2"/>
-        <v>1.7466279962131233</v>
-      </c>
-      <c r="K19" s="25">
+        <v>1.0553742492498805</v>
+      </c>
+      <c r="K19" s="125">
         <f t="shared" si="3"/>
-        <v>1.2747636557722588</v>
+        <v>1.546189364240544</v>
       </c>
       <c r="L19" s="25">
         <f t="shared" si="4"/>
-        <v>1.2710023231063965</v>
+        <v>1.177413066518666</v>
       </c>
       <c r="M19" s="25">
         <f t="shared" si="5"/>
-        <v>1.1768770566443287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.173720891832521</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1008539570417144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="14">
-        <v>1992</v>
-      </c>
-      <c r="B20" s="133">
-        <v>4011755</v>
+        <v>1990</v>
+      </c>
+      <c r="B20" s="132">
+        <v>3851139</v>
       </c>
       <c r="C20" s="2">
-        <v>131298.73018437202</v>
-      </c>
-      <c r="D20" s="123">
-        <v>10067018</v>
-      </c>
-      <c r="E20" s="112">
-        <v>21220145.827398036</v>
+        <v>133007.33554219612</v>
+      </c>
+      <c r="D20" s="122">
+        <v>9041041</v>
+      </c>
+      <c r="E20" s="41">
+        <v>20587276.564714774</v>
       </c>
       <c r="F20" s="111">
-        <v>22099587.767333101</v>
+        <v>21450226.998310868</v>
       </c>
       <c r="G20" s="111">
-        <v>4123197.0723397951</v>
-      </c>
-      <c r="H20" s="125">
+        <v>4129620.7242516936</v>
+      </c>
+      <c r="H20" s="138">
         <f t="shared" si="0"/>
-        <v>1.533334479964531</v>
-      </c>
-      <c r="I20" s="25">
+        <v>10</v>
+      </c>
+      <c r="I20" s="124">
         <f t="shared" si="1"/>
-        <v>1.0451106798522563</v>
-      </c>
-      <c r="J20" s="126">
+        <v>1.471945374489749</v>
+      </c>
+      <c r="J20" s="25">
         <f t="shared" si="2"/>
-        <v>1.8342261208491757</v>
-      </c>
-      <c r="K20" s="25">
+        <v>1.05871082438227</v>
+      </c>
+      <c r="K20" s="125">
         <f t="shared" si="3"/>
-        <v>1.2782902307505879</v>
+        <v>1.6472915377590815</v>
       </c>
       <c r="L20" s="25">
         <f t="shared" si="4"/>
-        <v>1.2745486155486876</v>
+        <v>1.2401665249848233</v>
       </c>
       <c r="M20" s="25">
         <f t="shared" si="5"/>
-        <v>1.1504677940647756</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.2370980586486031</v>
+      </c>
+      <c r="N20" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1522601422148309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="14">
-        <v>1993</v>
-      </c>
-      <c r="B21" s="133">
-        <v>4018618</v>
+        <v>1991</v>
+      </c>
+      <c r="B21" s="132">
+        <v>3979164</v>
       </c>
       <c r="C21" s="2">
-        <v>128147.11465600236</v>
-      </c>
-      <c r="D21" s="123">
-        <v>10483176</v>
-      </c>
-      <c r="E21" s="112">
-        <v>21469803.36070364</v>
+        <v>132657.69677492764</v>
+      </c>
+      <c r="D21" s="122">
+        <v>9586242</v>
+      </c>
+      <c r="E21" s="41">
+        <v>21161603.226108298</v>
       </c>
       <c r="F21" s="111">
-        <v>22334951.369474635</v>
+        <v>22038098.07590748</v>
       </c>
       <c r="G21" s="111">
-        <v>4157040.6385811218</v>
-      </c>
-      <c r="H21" s="125">
+        <v>4217846.0444469936</v>
+      </c>
+      <c r="H21" s="138">
         <f t="shared" si="0"/>
-        <v>1.5359575899341069</v>
-      </c>
-      <c r="I21" s="25">
+        <v>11</v>
+      </c>
+      <c r="I21" s="124">
         <f t="shared" si="1"/>
-        <v>1.0200244734368389</v>
-      </c>
-      <c r="J21" s="126">
+        <v>1.5208778608448379</v>
+      </c>
+      <c r="J21" s="25">
         <f t="shared" si="2"/>
-        <v>1.9100507467712067</v>
-      </c>
-      <c r="K21" s="25">
+        <v>1.055927772259454</v>
+      </c>
+      <c r="K21" s="125">
         <f t="shared" si="3"/>
-        <v>1.2933294669770325</v>
+        <v>1.7466279962131233</v>
       </c>
       <c r="L21" s="25">
         <f t="shared" si="4"/>
-        <v>1.288122730885964</v>
+        <v>1.2747636557722588</v>
       </c>
       <c r="M21" s="25">
         <f t="shared" si="5"/>
-        <v>1.1599109354702988</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.2710023231063965</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1768770566443287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="14">
-        <v>1994</v>
-      </c>
-      <c r="B22" s="133">
-        <v>4053321</v>
+        <v>1992</v>
+      </c>
+      <c r="B22" s="132">
+        <v>4011755</v>
       </c>
       <c r="C22" s="2">
-        <v>127682.71419189055</v>
-      </c>
-      <c r="D22" s="123">
-        <v>10853446</v>
+        <v>131298.73018437202</v>
+      </c>
+      <c r="D22" s="122">
+        <v>10067018</v>
       </c>
       <c r="E22" s="112">
-        <v>22300688.837187301</v>
+        <v>21220145.827398036</v>
       </c>
       <c r="F22" s="111">
-        <v>23231037.807299688</v>
+        <v>22099587.767333101</v>
       </c>
       <c r="G22" s="111">
-        <v>4303678.0977312485</v>
-      </c>
-      <c r="H22" s="125">
+        <v>4123197.0723397951</v>
+      </c>
+      <c r="H22" s="138">
         <f t="shared" si="0"/>
-        <v>1.5492214374168691</v>
-      </c>
-      <c r="I22" s="25">
+        <v>12</v>
+      </c>
+      <c r="I22" s="124">
         <f t="shared" si="1"/>
-        <v>1.0163279419921702</v>
-      </c>
-      <c r="J22" s="126">
+        <v>1.533334479964531</v>
+      </c>
+      <c r="J22" s="25">
         <f t="shared" si="2"/>
-        <v>1.9775145087081401</v>
-      </c>
-      <c r="K22" s="25">
+        <v>1.0451106798522563</v>
+      </c>
+      <c r="K22" s="125">
         <f t="shared" si="3"/>
-        <v>1.343381563513065</v>
+        <v>1.8342261208491757</v>
       </c>
       <c r="L22" s="25">
         <f t="shared" si="4"/>
-        <v>1.3398026871261479</v>
+        <v>1.2782902307505879</v>
       </c>
       <c r="M22" s="25">
         <f t="shared" si="5"/>
-        <v>1.2008261939932141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.2745486155486876</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1504677940647756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="14">
-        <v>1995</v>
-      </c>
-      <c r="B23" s="133">
-        <v>4131414</v>
+        <v>1993</v>
+      </c>
+      <c r="B23" s="132">
+        <v>4018618</v>
       </c>
       <c r="C23" s="2">
-        <v>128238.44657629356</v>
-      </c>
-      <c r="D23" s="123">
-        <v>11205740</v>
+        <v>128147.11465600236</v>
+      </c>
+      <c r="D23" s="122">
+        <v>10483176</v>
       </c>
       <c r="E23" s="112">
-        <v>22967649.376621131</v>
+        <v>21469803.36070364</v>
       </c>
       <c r="F23" s="111">
-        <v>23913397.763300706</v>
+        <v>22334951.369474635</v>
       </c>
       <c r="G23" s="111">
-        <v>4435134.7875297172</v>
-      </c>
-      <c r="H23" s="125">
+        <v>4157040.6385811218</v>
+      </c>
+      <c r="H23" s="138">
         <f t="shared" si="0"/>
-        <v>1.5790693941200753</v>
-      </c>
-      <c r="I23" s="25">
+        <v>13</v>
+      </c>
+      <c r="I23" s="124">
         <f t="shared" si="1"/>
-        <v>1.0207514565932923</v>
-      </c>
-      <c r="J23" s="126">
+        <v>1.5359575899341069</v>
+      </c>
+      <c r="J23" s="25">
         <f t="shared" si="2"/>
-        <v>2.041703015872669</v>
-      </c>
-      <c r="K23" s="25">
+        <v>1.0200244734368389</v>
+      </c>
+      <c r="K23" s="125">
         <f t="shared" si="3"/>
-        <v>1.3835589095496614</v>
+        <v>1.9100507467712067</v>
       </c>
       <c r="L23" s="25">
         <f t="shared" si="4"/>
-        <v>1.3791564047784077</v>
+        <v>1.2933294669770325</v>
       </c>
       <c r="M23" s="25">
         <f t="shared" si="5"/>
-        <v>1.2375056651109211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.288122730885964</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1599109354702988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="14">
-        <v>1996</v>
-      </c>
-      <c r="B24" s="133">
-        <v>4241484</v>
+        <v>1994</v>
+      </c>
+      <c r="B24" s="132">
+        <v>4053321</v>
       </c>
       <c r="C24" s="2">
-        <v>128428.37928305629</v>
-      </c>
-      <c r="D24" s="123">
-        <v>11586454</v>
+        <v>127682.71419189055</v>
+      </c>
+      <c r="D24" s="122">
+        <v>10853446</v>
       </c>
       <c r="E24" s="112">
-        <v>23336674.355598751</v>
+        <v>22300688.837187301</v>
       </c>
       <c r="F24" s="111">
-        <v>24297113.707103867</v>
+        <v>23231037.807299688</v>
       </c>
       <c r="G24" s="111">
-        <v>4458640.9711955301</v>
-      </c>
-      <c r="H24" s="125">
+        <v>4303678.0977312485</v>
+      </c>
+      <c r="H24" s="138">
         <f t="shared" si="0"/>
-        <v>1.6211392927578774</v>
-      </c>
-      <c r="I24" s="25">
+        <v>14</v>
+      </c>
+      <c r="I24" s="124">
         <f t="shared" si="1"/>
-        <v>1.0222632815744801</v>
-      </c>
-      <c r="J24" s="126">
+        <v>1.5492214374168691</v>
+      </c>
+      <c r="J24" s="25">
         <f t="shared" si="2"/>
-        <v>2.1110696906290838</v>
-      </c>
-      <c r="K24" s="25">
+        <v>1.0163279419921702</v>
+      </c>
+      <c r="K24" s="125">
         <f t="shared" si="3"/>
-        <v>1.4057887768355393</v>
+        <v>1.9775145087081401</v>
       </c>
       <c r="L24" s="25">
         <f t="shared" si="4"/>
-        <v>1.4012864386092285</v>
+        <v>1.343381563513065</v>
       </c>
       <c r="M24" s="25">
         <f t="shared" si="5"/>
-        <v>1.2440644365677369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.3398026871261479</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2008261939932141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="14">
-        <v>1997</v>
-      </c>
-      <c r="B25" s="133">
-        <v>4309545</v>
+        <v>1995</v>
+      </c>
+      <c r="B25" s="132">
+        <v>4131414</v>
       </c>
       <c r="C25" s="2">
-        <v>127354.8241027109</v>
-      </c>
-      <c r="D25" s="123">
-        <v>11939414</v>
+        <v>128238.44657629356</v>
+      </c>
+      <c r="D25" s="122">
+        <v>11205740</v>
       </c>
       <c r="E25" s="112">
-        <v>23769210.018456813</v>
+        <v>22967649.376621131</v>
       </c>
       <c r="F25" s="111">
-        <v>24734988.85291006</v>
+        <v>23913397.763300706</v>
       </c>
       <c r="G25" s="111">
-        <v>4585959.7052242756</v>
-      </c>
-      <c r="H25" s="125">
+        <v>4435134.7875297172</v>
+      </c>
+      <c r="H25" s="138">
         <f t="shared" si="0"/>
-        <v>1.647152914736504</v>
-      </c>
-      <c r="I25" s="25">
+        <v>15</v>
+      </c>
+      <c r="I25" s="124">
         <f t="shared" si="1"/>
-        <v>1.013718004839403</v>
-      </c>
-      <c r="J25" s="126">
+        <v>1.5790693941200753</v>
+      </c>
+      <c r="J25" s="25">
         <f t="shared" si="2"/>
-        <v>2.1753795440151533</v>
-      </c>
-      <c r="K25" s="25">
+        <v>1.0207514565932923</v>
+      </c>
+      <c r="K25" s="125">
         <f t="shared" si="3"/>
-        <v>1.4318444937368253</v>
+        <v>2.041703015872669</v>
       </c>
       <c r="L25" s="25">
         <f t="shared" si="4"/>
-        <v>1.4265399938676402</v>
+        <v>1.3835589095496614</v>
       </c>
       <c r="M25" s="25">
         <f t="shared" si="5"/>
-        <v>1.2795893218718608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1.3791564047784077</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2375056651109211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="14">
-        <v>1998</v>
-      </c>
-      <c r="B26" s="133">
-        <v>4218791</v>
+        <v>1996</v>
+      </c>
+      <c r="B26" s="132">
+        <v>4241484</v>
       </c>
       <c r="C26" s="2">
-        <v>124363.54583727948</v>
-      </c>
-      <c r="D26" s="123">
-        <v>12182446</v>
+        <v>128428.37928305629</v>
+      </c>
+      <c r="D26" s="122">
+        <v>11586454</v>
       </c>
       <c r="E26" s="112">
-        <v>23408869.5319377</v>
+        <v>23336674.355598751</v>
       </c>
       <c r="F26" s="111">
-        <v>24336929.863037623</v>
+        <v>24297113.707103867</v>
       </c>
       <c r="G26" s="111">
-        <v>4466600.7018372733</v>
-      </c>
-      <c r="H26" s="125">
+        <v>4458640.9711955301</v>
+      </c>
+      <c r="H26" s="138">
         <f t="shared" si="0"/>
-        <v>1.6124657921692733</v>
-      </c>
-      <c r="I26" s="25">
+        <v>16</v>
+      </c>
+      <c r="I26" s="124">
         <f t="shared" si="1"/>
-        <v>0.9899080498061561</v>
-      </c>
-      <c r="J26" s="126">
+        <v>1.6211392927578774</v>
+      </c>
+      <c r="J26" s="25">
         <f t="shared" si="2"/>
-        <v>2.2196603471886669</v>
-      </c>
-      <c r="K26" s="25">
+        <v>1.0222632815744801</v>
+      </c>
+      <c r="K26" s="125">
         <f t="shared" si="3"/>
-        <v>1.4101377756299887</v>
+        <v>2.1110696906290838</v>
       </c>
       <c r="L26" s="25">
         <f t="shared" si="4"/>
-        <v>1.4035827541313151</v>
+        <v>1.4057887768355393</v>
       </c>
       <c r="M26" s="25">
         <f t="shared" si="5"/>
-        <v>1.2462853863773369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1.4012864386092285</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2440644365677369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="14">
-        <v>1999</v>
-      </c>
-      <c r="B27" s="133">
-        <v>4215415</v>
+        <v>1997</v>
+      </c>
+      <c r="B27" s="132">
+        <v>4309545</v>
       </c>
       <c r="C27" s="2">
-        <v>121479.27375025388</v>
-      </c>
-      <c r="D27" s="123">
-        <v>12405380</v>
+        <v>127354.8241027109</v>
+      </c>
+      <c r="D27" s="122">
+        <v>11939414</v>
       </c>
       <c r="E27" s="112">
-        <v>23844854.990459912</v>
+        <v>23769210.018456813</v>
       </c>
       <c r="F27" s="111">
-        <v>24825123.001163121</v>
+        <v>24734988.85291006</v>
       </c>
       <c r="G27" s="111">
-        <v>4520018.6533071268</v>
-      </c>
-      <c r="H27" s="125">
+        <v>4585959.7052242756</v>
+      </c>
+      <c r="H27" s="138">
         <f t="shared" si="0"/>
-        <v>1.6111754498616397</v>
-      </c>
-      <c r="I27" s="25">
+        <v>17</v>
+      </c>
+      <c r="I27" s="124">
         <f t="shared" si="1"/>
-        <v>0.96694984177537502</v>
-      </c>
-      <c r="J27" s="126">
+        <v>1.647152914736504</v>
+      </c>
+      <c r="J27" s="25">
         <f t="shared" si="2"/>
-        <v>2.2602792639349554</v>
-      </c>
-      <c r="K27" s="25">
+        <v>1.013718004839403</v>
+      </c>
+      <c r="K27" s="125">
         <f t="shared" si="3"/>
-        <v>1.4364013063762613</v>
+        <v>2.1753795440151533</v>
       </c>
       <c r="L27" s="25">
         <f t="shared" si="4"/>
-        <v>1.4317382968893559</v>
+        <v>1.4318444937368253</v>
       </c>
       <c r="M27" s="25">
         <f t="shared" si="5"/>
-        <v>1.2611902361123284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1.4265399938676402</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2795893218718608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="14">
-        <v>2000</v>
-      </c>
-      <c r="B28" s="133">
-        <v>4309586</v>
+        <v>1998</v>
+      </c>
+      <c r="B28" s="132">
+        <v>4218791</v>
       </c>
       <c r="C28" s="2">
-        <v>121654.61813209456</v>
-      </c>
-      <c r="D28" s="123">
-        <v>12619849</v>
+        <v>124363.54583727948</v>
+      </c>
+      <c r="D28" s="122">
+        <v>12182446</v>
       </c>
       <c r="E28" s="112">
-        <v>24065861.838096164</v>
+        <v>23408869.5319377</v>
       </c>
       <c r="F28" s="111">
-        <v>25061621.74017977</v>
+        <v>24336929.863037623</v>
       </c>
       <c r="G28" s="111">
-        <v>4563006.0134673249</v>
-      </c>
-      <c r="H28" s="125">
+        <v>4466600.7018372733</v>
+      </c>
+      <c r="H28" s="138">
         <f t="shared" si="0"/>
-        <v>1.6471685853628706</v>
-      </c>
-      <c r="I28" s="25">
+        <v>18</v>
+      </c>
+      <c r="I28" s="124">
         <f t="shared" si="1"/>
-        <v>0.96834554671369732</v>
-      </c>
-      <c r="J28" s="126">
+        <v>1.6124657921692733</v>
+      </c>
+      <c r="J28" s="25">
         <f t="shared" si="2"/>
-        <v>2.2993558446972431</v>
-      </c>
-      <c r="K28" s="25">
+        <v>0.9899080498061561</v>
+      </c>
+      <c r="K28" s="125">
         <f t="shared" si="3"/>
-        <v>1.4497146406276049</v>
+        <v>2.2196603471886669</v>
       </c>
       <c r="L28" s="25">
         <f t="shared" si="4"/>
-        <v>1.4453778789289016</v>
+        <v>1.4101377756299887</v>
       </c>
       <c r="M28" s="25">
         <f t="shared" si="5"/>
-        <v>1.2731847084958923</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1.4035827541313151</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2462853863773369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="14">
-        <v>2001</v>
-      </c>
-      <c r="B29" s="133">
-        <v>4324855</v>
-      </c>
-      <c r="C29" s="10">
-        <v>119517.9984</v>
-      </c>
-      <c r="D29" s="123">
-        <v>12795228</v>
+        <v>1999</v>
+      </c>
+      <c r="B29" s="132">
+        <v>4215415</v>
+      </c>
+      <c r="C29" s="2">
+        <v>121479.27375025388</v>
+      </c>
+      <c r="D29" s="122">
+        <v>12405380</v>
       </c>
       <c r="E29" s="112">
-        <v>23838748.85250511</v>
-      </c>
-      <c r="F29" s="112">
-        <v>24823479.829496801</v>
-      </c>
-      <c r="G29" s="112"/>
-      <c r="H29" s="125">
+        <v>23844854.990459912</v>
+      </c>
+      <c r="F29" s="111">
+        <v>24825123.001163121</v>
+      </c>
+      <c r="G29" s="111">
+        <v>4520018.6533071268</v>
+      </c>
+      <c r="H29" s="138">
         <f t="shared" si="0"/>
-        <v>1.6530045559479583</v>
-      </c>
-      <c r="I29" s="25">
+        <v>19</v>
+      </c>
+      <c r="I29" s="124">
         <f t="shared" si="1"/>
-        <v>0.95133849647292601</v>
-      </c>
-      <c r="J29" s="126">
+        <v>1.6111754498616397</v>
+      </c>
+      <c r="J29" s="25">
         <f t="shared" si="2"/>
-        <v>2.3313101675015142</v>
-      </c>
-      <c r="K29" s="25">
+        <v>0.96694984177537502</v>
+      </c>
+      <c r="K29" s="125">
         <f t="shared" si="3"/>
-        <v>1.4360334758929683</v>
+        <v>2.2602792639349554</v>
       </c>
       <c r="L29" s="25">
         <f t="shared" si="4"/>
-        <v>1.4316435303174873</v>
+        <v>1.4364013063762613</v>
       </c>
       <c r="M29" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1.4317382968893559</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2611902361123284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="14">
-        <v>2002</v>
-      </c>
-      <c r="B30" s="133">
-        <v>4337027</v>
-      </c>
-      <c r="C30" s="10">
-        <v>117284.625</v>
-      </c>
-      <c r="D30" s="123">
-        <v>12907273</v>
+        <v>2000</v>
+      </c>
+      <c r="B30" s="132">
+        <v>4309586</v>
+      </c>
+      <c r="C30" s="2">
+        <v>121654.61813209456</v>
+      </c>
+      <c r="D30" s="122">
+        <v>12619849</v>
       </c>
       <c r="E30" s="112">
-        <v>23675873.514749009</v>
-      </c>
-      <c r="F30" s="112">
-        <v>24668681.713789433</v>
-      </c>
-      <c r="G30" s="112"/>
-      <c r="H30" s="125">
+        <v>24065861.838096164</v>
+      </c>
+      <c r="F30" s="111">
+        <v>25061621.74017977</v>
+      </c>
+      <c r="G30" s="111">
+        <v>4563006.0134673249</v>
+      </c>
+      <c r="H30" s="138">
         <f t="shared" si="0"/>
-        <v>1.6576568209267837</v>
-      </c>
-      <c r="I30" s="25">
+        <v>20</v>
+      </c>
+      <c r="I30" s="124">
         <f t="shared" si="1"/>
-        <v>0.93356130708838037</v>
-      </c>
-      <c r="J30" s="126">
+        <v>1.6471685853628706</v>
+      </c>
+      <c r="J30" s="25">
         <f t="shared" si="2"/>
-        <v>2.3517249383612211</v>
-      </c>
-      <c r="K30" s="25">
+        <v>0.96834554671369732</v>
+      </c>
+      <c r="K30" s="125">
         <f t="shared" si="3"/>
-        <v>1.4262219526933959</v>
+        <v>2.2993558446972431</v>
       </c>
       <c r="L30" s="25">
         <f t="shared" si="4"/>
-        <v>1.4227158649627512</v>
+        <v>1.4497146406276049</v>
       </c>
       <c r="M30" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1.4453778789289016</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2731847084958923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="14">
-        <v>2003</v>
-      </c>
-      <c r="B31" s="133">
-        <v>4411735</v>
+        <v>2001</v>
+      </c>
+      <c r="B31" s="132">
+        <v>4324855</v>
       </c>
       <c r="C31" s="10">
-        <v>117543.87999999999</v>
-      </c>
-      <c r="D31" s="123">
-        <v>13014487</v>
+        <v>119517.9984</v>
+      </c>
+      <c r="D31" s="122">
+        <v>12795228</v>
       </c>
       <c r="E31" s="112">
-        <v>23623930.931776315</v>
+        <v>23838748.85250511</v>
       </c>
       <c r="F31" s="112">
-        <v>24644409.461589146</v>
+        <v>24823479.829496801</v>
       </c>
       <c r="G31" s="112"/>
-      <c r="H31" s="125">
+      <c r="H31" s="138">
         <f t="shared" si="0"/>
-        <v>1.6862109954287636</v>
-      </c>
-      <c r="I31" s="25">
+        <v>21</v>
+      </c>
+      <c r="I31" s="124">
         <f t="shared" si="1"/>
-        <v>0.93562492315629375</v>
-      </c>
-      <c r="J31" s="126">
+        <v>1.6530045559479583</v>
+      </c>
+      <c r="J31" s="25">
         <f t="shared" si="2"/>
-        <v>2.3712594936109208</v>
-      </c>
-      <c r="K31" s="25">
+        <v>0.95133849647292601</v>
+      </c>
+      <c r="K31" s="125">
         <f t="shared" si="3"/>
-        <v>1.4230929592871291</v>
+        <v>2.3313101675015142</v>
       </c>
       <c r="L31" s="25">
         <f t="shared" si="4"/>
-        <v>1.4213160123608011</v>
+        <v>1.4360334758929683</v>
       </c>
       <c r="M31" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1.4316435303174873</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="14">
-        <v>2004</v>
-      </c>
-      <c r="B32" s="133">
-        <v>4514834</v>
+        <v>2002</v>
+      </c>
+      <c r="B32" s="132">
+        <v>4337027</v>
       </c>
       <c r="C32" s="10">
-        <v>118679.9786</v>
-      </c>
-      <c r="D32" s="123">
-        <v>13117272</v>
+        <v>117284.625</v>
+      </c>
+      <c r="D32" s="122">
+        <v>12907273</v>
       </c>
       <c r="E32" s="112">
-        <v>24177588.038132999</v>
+        <v>23675873.514749009</v>
       </c>
       <c r="F32" s="112">
-        <v>25212317.718757614</v>
+        <v>24668681.713789433</v>
       </c>
       <c r="G32" s="112"/>
-      <c r="H32" s="125">
+      <c r="H32" s="138">
         <f t="shared" si="0"/>
-        <v>1.7256165053738781</v>
-      </c>
-      <c r="I32" s="25">
+        <v>22</v>
+      </c>
+      <c r="I32" s="124">
         <f t="shared" si="1"/>
-        <v>0.94466803254933895</v>
-      </c>
-      <c r="J32" s="126">
+        <v>1.6576568209267837</v>
+      </c>
+      <c r="J32" s="25">
         <f t="shared" si="2"/>
-        <v>2.3899870782672199</v>
-      </c>
-      <c r="K32" s="25">
+        <v>0.93356130708838037</v>
+      </c>
+      <c r="K32" s="125">
         <f t="shared" si="3"/>
-        <v>1.4564449671384423</v>
+        <v>2.3517249383612211</v>
       </c>
       <c r="L32" s="25">
         <f t="shared" si="4"/>
-        <v>1.4540689618978362</v>
+        <v>1.4262219526933959</v>
       </c>
       <c r="M32" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
+        <v>1.4227158649627512</v>
+      </c>
+      <c r="N32" s="125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
       <c r="A33" s="14">
-        <v>2005</v>
-      </c>
-      <c r="B33" s="133">
-        <v>4572932</v>
+        <v>2003</v>
+      </c>
+      <c r="B33" s="132">
+        <v>4411735</v>
       </c>
       <c r="C33" s="10">
-        <v>118830.31960000002</v>
-      </c>
-      <c r="D33" s="123">
-        <v>13221339</v>
+        <v>117543.87999999999</v>
+      </c>
+      <c r="D33" s="122">
+        <v>13014487</v>
       </c>
       <c r="E33" s="112">
-        <v>24112572.562589429</v>
+        <v>23623930.931776315</v>
       </c>
       <c r="F33" s="112">
-        <v>25131682.298761744</v>
+        <v>24644409.461589146</v>
       </c>
       <c r="G33" s="112"/>
-      <c r="H33" s="125">
+      <c r="H33" s="138">
         <f t="shared" si="0"/>
-        <v>1.7478221651454693</v>
-      </c>
-      <c r="I33" s="25">
+        <v>23</v>
+      </c>
+      <c r="I33" s="124">
         <f t="shared" si="1"/>
-        <v>0.94586471575030406</v>
-      </c>
-      <c r="J33" s="126">
+        <v>1.6862109954287636</v>
+      </c>
+      <c r="J33" s="25">
         <f t="shared" si="2"/>
-        <v>2.408948245289908</v>
-      </c>
-      <c r="K33" s="25">
+        <v>0.93562492315629375</v>
+      </c>
+      <c r="K33" s="125">
         <f t="shared" si="3"/>
-        <v>1.4525284696783898</v>
+        <v>2.3712594936109208</v>
       </c>
       <c r="L33" s="25">
         <f t="shared" si="4"/>
-        <v>1.4494184786398707</v>
+        <v>1.4230929592871291</v>
       </c>
       <c r="M33" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
+        <v>1.4213160123608011</v>
+      </c>
+      <c r="N33" s="125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
       <c r="A34" s="14">
-        <v>2006</v>
-      </c>
-      <c r="B34" s="133">
-        <v>4649778</v>
+        <v>2004</v>
+      </c>
+      <c r="B34" s="132">
+        <v>4514834</v>
       </c>
       <c r="C34" s="10">
-        <v>119945.5785</v>
-      </c>
-      <c r="D34" s="123">
-        <v>13333656</v>
+        <v>118679.9786</v>
+      </c>
+      <c r="D34" s="122">
+        <v>13117272</v>
       </c>
       <c r="E34" s="112">
-        <v>24306452.559864059</v>
+        <v>24177588.038132999</v>
       </c>
       <c r="F34" s="112">
-        <v>25318989.322861388</v>
+        <v>25212317.718757614</v>
       </c>
       <c r="G34" s="112"/>
-      <c r="H34" s="125">
+      <c r="H34" s="138">
         <f t="shared" si="0"/>
-        <v>1.7771935054808972</v>
-      </c>
-      <c r="I34" s="25">
+        <v>24</v>
+      </c>
+      <c r="I34" s="124">
         <f t="shared" si="1"/>
-        <v>0.95474194545049651</v>
-      </c>
-      <c r="J34" s="126">
+        <v>1.7256165053738781</v>
+      </c>
+      <c r="J34" s="25">
         <f t="shared" si="2"/>
-        <v>2.4294125749668209</v>
-      </c>
-      <c r="K34" s="25">
+        <v>0.94466803254933895</v>
+      </c>
+      <c r="K34" s="125">
         <f t="shared" si="3"/>
-        <v>1.464207696978238</v>
+        <v>2.3899870782672199</v>
       </c>
       <c r="L34" s="25">
         <f t="shared" si="4"/>
-        <v>1.4602210289300455</v>
+        <v>1.4564449671384423</v>
       </c>
       <c r="M34" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
+        <v>1.4540689618978362</v>
+      </c>
+      <c r="N34" s="125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" s="14">
-        <v>2007</v>
-      </c>
-      <c r="B35" s="133">
-        <v>4750480</v>
+        <v>2005</v>
+      </c>
+      <c r="B35" s="132">
+        <v>4572932</v>
       </c>
       <c r="C35" s="10">
-        <v>119869.30520000002</v>
-      </c>
-      <c r="D35" s="123">
-        <v>13440535</v>
+        <v>118830.31960000002</v>
+      </c>
+      <c r="D35" s="122">
+        <v>13221339</v>
       </c>
       <c r="E35" s="112">
-        <v>23964368.519525819</v>
+        <v>24112572.562589429</v>
       </c>
       <c r="F35" s="112">
-        <v>24980806.477880117</v>
+        <v>25131682.298761744</v>
       </c>
       <c r="G35" s="112"/>
-      <c r="H35" s="125">
+      <c r="H35" s="138">
         <f t="shared" si="0"/>
-        <v>1.8156828570991759</v>
-      </c>
-      <c r="I35" s="25">
+        <v>25</v>
+      </c>
+      <c r="I35" s="124">
         <f t="shared" si="1"/>
-        <v>0.95413482579057574</v>
-      </c>
-      <c r="J35" s="126">
+        <v>1.7478221651454693</v>
+      </c>
+      <c r="J35" s="25">
         <f t="shared" si="2"/>
-        <v>2.4488860927026828</v>
-      </c>
-      <c r="K35" s="25">
+        <v>0.94586471575030406</v>
+      </c>
+      <c r="K35" s="125">
         <f t="shared" si="3"/>
-        <v>1.4436007374211801</v>
+        <v>2.408948245289908</v>
       </c>
       <c r="L35" s="25">
         <f t="shared" si="4"/>
-        <v>1.4407170236331532</v>
+        <v>1.4525284696783898</v>
       </c>
       <c r="M35" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
+        <v>1.4494184786398707</v>
+      </c>
+      <c r="N35" s="125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
       <c r="A36" s="14">
-        <v>2008</v>
-      </c>
-      <c r="B36" s="133">
-        <v>4699456</v>
+        <v>2006</v>
+      </c>
+      <c r="B36" s="132">
+        <v>4649778</v>
       </c>
       <c r="C36" s="10">
-        <v>118103.6274</v>
-      </c>
-      <c r="D36" s="123">
-        <v>13494170</v>
+        <v>119945.5785</v>
+      </c>
+      <c r="D36" s="122">
+        <v>13333656</v>
       </c>
       <c r="E36" s="112">
-        <v>23183396.994805366</v>
+        <v>24306452.559864059</v>
       </c>
       <c r="F36" s="112">
-        <v>24147781.249228511</v>
+        <v>25318989.322861388</v>
       </c>
       <c r="G36" s="112"/>
-      <c r="H36" s="125">
+      <c r="H36" s="138">
         <f t="shared" si="0"/>
-        <v>1.796180953691388</v>
-      </c>
-      <c r="I36" s="25">
+        <v>26</v>
+      </c>
+      <c r="I36" s="124">
         <f t="shared" si="1"/>
-        <v>0.94008039644943275</v>
-      </c>
-      <c r="J36" s="126">
+        <v>1.7771935054808972</v>
+      </c>
+      <c r="J36" s="25">
         <f t="shared" si="2"/>
-        <v>2.4586584719704803</v>
-      </c>
-      <c r="K36" s="25">
+        <v>0.95474194545049651</v>
+      </c>
+      <c r="K36" s="125">
         <f t="shared" si="3"/>
-        <v>1.3965554306327792</v>
+        <v>2.4294125749668209</v>
       </c>
       <c r="L36" s="25">
         <f t="shared" si="4"/>
-        <v>1.3926739939136374</v>
+        <v>1.464207696978238</v>
       </c>
       <c r="M36" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
+        <v>1.4602210289300455</v>
+      </c>
+      <c r="N36" s="125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
       <c r="A37" s="14">
-        <v>2009</v>
-      </c>
-      <c r="B37" s="133">
-        <v>4439679</v>
+        <v>2007</v>
+      </c>
+      <c r="B37" s="132">
+        <v>4750480</v>
       </c>
       <c r="C37" s="10">
-        <v>113134.496</v>
-      </c>
-      <c r="D37" s="123">
-        <v>13440882</v>
+        <v>119869.30520000002</v>
+      </c>
+      <c r="D37" s="122">
+        <v>13440535</v>
       </c>
       <c r="E37" s="112">
-        <v>21953886.272209413</v>
+        <v>23964368.519525819</v>
       </c>
       <c r="F37" s="112">
-        <v>22810455.276669472</v>
+        <v>24980806.477880117</v>
       </c>
       <c r="G37" s="112"/>
-      <c r="H37" s="125">
+      <c r="H37" s="138">
         <f t="shared" si="0"/>
-        <v>1.6968914828234647</v>
-      </c>
-      <c r="I37" s="25">
+        <v>27</v>
+      </c>
+      <c r="I37" s="124">
         <f t="shared" si="1"/>
-        <v>0.90052714038643289</v>
-      </c>
-      <c r="J37" s="126">
+        <v>1.8156828570991759</v>
+      </c>
+      <c r="J37" s="25">
         <f t="shared" si="2"/>
-        <v>2.448949316634927</v>
-      </c>
-      <c r="K37" s="25">
+        <v>0.95413482579057574</v>
+      </c>
+      <c r="K37" s="125">
         <f t="shared" si="3"/>
-        <v>1.3224903625563731</v>
+        <v>2.4488860927026828</v>
       </c>
       <c r="L37" s="25">
         <f t="shared" si="4"/>
-        <v>1.3155464481509087</v>
+        <v>1.4436007374211801</v>
       </c>
       <c r="M37" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
+        <v>1.4407170236331532</v>
+      </c>
+      <c r="N37" s="125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
       <c r="A38" s="14">
-        <v>2010</v>
-      </c>
-      <c r="B38" s="133">
-        <v>4637890</v>
+        <v>2008</v>
+      </c>
+      <c r="B38" s="132">
+        <v>4699456</v>
       </c>
       <c r="C38" s="10">
-        <v>113915.70450000001</v>
-      </c>
-      <c r="D38" s="123">
-        <v>13390068</v>
+        <v>118103.6274</v>
+      </c>
+      <c r="D38" s="122">
+        <v>13494170</v>
       </c>
       <c r="E38" s="112">
-        <v>23029022.923974004</v>
+        <v>23183396.994805366</v>
       </c>
       <c r="F38" s="112">
-        <v>23954121.529538389</v>
+        <v>24147781.249228511</v>
       </c>
       <c r="G38" s="112"/>
-      <c r="H38" s="125">
+      <c r="H38" s="138">
         <f t="shared" si="0"/>
-        <v>1.7726497882554388</v>
-      </c>
-      <c r="I38" s="25">
+        <v>28</v>
+      </c>
+      <c r="I38" s="124">
         <f t="shared" si="1"/>
-        <v>0.90674539813648802</v>
-      </c>
-      <c r="J38" s="126">
+        <v>1.796180953691388</v>
+      </c>
+      <c r="J38" s="25">
         <f t="shared" si="2"/>
-        <v>2.4396909278941075</v>
-      </c>
-      <c r="K38" s="25">
+        <v>0.94008039644943275</v>
+      </c>
+      <c r="K38" s="125">
         <f t="shared" si="3"/>
-        <v>1.387256019204129</v>
+        <v>2.4586584719704803</v>
       </c>
       <c r="L38" s="25">
         <f t="shared" si="4"/>
-        <v>1.3815050648721896</v>
+        <v>1.3965554306327792</v>
       </c>
       <c r="M38" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
+        <v>1.3926739939136374</v>
+      </c>
+      <c r="N38" s="125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
       <c r="A39" s="14">
-        <v>2011</v>
-      </c>
-      <c r="B39" s="133">
-        <v>4604175</v>
-      </c>
-      <c r="C39" s="115">
-        <v>110424.40993170399</v>
-      </c>
-      <c r="D39" s="123">
-        <v>13347801</v>
-      </c>
-      <c r="E39" s="113">
-        <v>21882458.771419834</v>
+        <v>2009</v>
+      </c>
+      <c r="B39" s="132">
+        <v>4439679</v>
+      </c>
+      <c r="C39" s="10">
+        <v>113134.496</v>
+      </c>
+      <c r="D39" s="122">
+        <v>13440882</v>
+      </c>
+      <c r="E39" s="112">
+        <v>21953886.272209413</v>
       </c>
       <c r="F39" s="112">
-        <v>22810742.640794449</v>
+        <v>22810455.276669472</v>
       </c>
       <c r="G39" s="112"/>
-      <c r="H39" s="125">
+      <c r="H39" s="138">
         <f t="shared" si="0"/>
-        <v>1.7597635646470668</v>
-      </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="126">
+        <v>29</v>
+      </c>
+      <c r="I39" s="124">
+        <f t="shared" si="1"/>
+        <v>1.6968914828234647</v>
+      </c>
+      <c r="J39" s="25">
         <f t="shared" si="2"/>
-        <v>2.4319898156630644</v>
-      </c>
-      <c r="K39" s="25">
+        <v>0.90052714038643289</v>
+      </c>
+      <c r="K39" s="125">
         <f t="shared" si="3"/>
-        <v>1.3181876081262711</v>
+        <v>2.448949316634927</v>
       </c>
       <c r="L39" s="25">
         <f t="shared" si="4"/>
-        <v>1.3155630212902587</v>
+        <v>1.3224903625563731</v>
       </c>
       <c r="M39" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34">
-      <c r="B43" s="132"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="133"/>
-      <c r="N43" s="133"/>
-      <c r="O43" s="133"/>
-      <c r="P43" s="133"/>
-      <c r="Q43" s="133"/>
-      <c r="R43" s="133"/>
-      <c r="S43" s="133"/>
-      <c r="T43" s="133"/>
-      <c r="U43" s="133"/>
-      <c r="V43" s="133"/>
-      <c r="W43" s="133"/>
-      <c r="X43" s="133"/>
-      <c r="Y43" s="133"/>
-      <c r="Z43" s="133"/>
-      <c r="AA43" s="133"/>
-      <c r="AB43" s="133"/>
-      <c r="AC43" s="133"/>
-      <c r="AD43" s="133"/>
-      <c r="AE43" s="133"/>
-      <c r="AF43" s="133"/>
-      <c r="AG43" s="133"/>
-      <c r="AH43" s="133"/>
-    </row>
-    <row r="44" spans="1:34">
-      <c r="A44" s="123"/>
-      <c r="B44" s="123"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="123"/>
-      <c r="L44" s="123"/>
-      <c r="M44" s="123"/>
-      <c r="N44" s="123"/>
-      <c r="O44" s="123"/>
-      <c r="P44" s="123"/>
-      <c r="Q44" s="123"/>
-      <c r="R44" s="123"/>
-      <c r="S44" s="123"/>
-      <c r="T44" s="123"/>
-      <c r="U44" s="123"/>
-      <c r="V44" s="123"/>
-      <c r="W44" s="123"/>
-      <c r="X44" s="123"/>
-      <c r="Y44" s="123"/>
-      <c r="Z44" s="123"/>
-      <c r="AA44" s="123"/>
-      <c r="AB44" s="123"/>
-      <c r="AC44" s="123"/>
-      <c r="AD44" s="123"/>
-      <c r="AE44" s="123"/>
-      <c r="AF44" s="123"/>
-      <c r="AG44" s="123"/>
+        <v>1.3155464481509087</v>
+      </c>
+      <c r="N39" s="125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" s="14">
+        <v>2010</v>
+      </c>
+      <c r="B40" s="132">
+        <v>4637890</v>
+      </c>
+      <c r="C40" s="10">
+        <v>113915.70450000001</v>
+      </c>
+      <c r="D40" s="122">
+        <v>13390068</v>
+      </c>
+      <c r="E40" s="112">
+        <v>23029022.923974004</v>
+      </c>
+      <c r="F40" s="112">
+        <v>23954121.529538389</v>
+      </c>
+      <c r="G40" s="112"/>
+      <c r="H40" s="138">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I40" s="124">
+        <f t="shared" si="1"/>
+        <v>1.7726497882554388</v>
+      </c>
+      <c r="J40" s="25">
+        <f t="shared" si="2"/>
+        <v>0.90674539813648802</v>
+      </c>
+      <c r="K40" s="125">
+        <f t="shared" si="3"/>
+        <v>2.4396909278941075</v>
+      </c>
+      <c r="L40" s="25">
+        <f t="shared" si="4"/>
+        <v>1.387256019204129</v>
+      </c>
+      <c r="M40" s="25">
+        <f t="shared" si="5"/>
+        <v>1.3815050648721896</v>
+      </c>
+      <c r="N40" s="125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="14">
+        <v>2011</v>
+      </c>
+      <c r="B41" s="132">
+        <v>4604175</v>
+      </c>
+      <c r="C41" s="139">
+        <v>110424.40993170399</v>
+      </c>
+      <c r="D41" s="122">
+        <v>13347801</v>
+      </c>
+      <c r="E41" s="113">
+        <v>21882458.771419834</v>
+      </c>
+      <c r="F41" s="112">
+        <v>22810742.640794449</v>
+      </c>
+      <c r="G41" s="112"/>
+      <c r="H41" s="138">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I41" s="124">
+        <f t="shared" si="1"/>
+        <v>1.7597635646470668</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="125">
+        <f t="shared" si="3"/>
+        <v>2.4319898156630644</v>
+      </c>
+      <c r="L41" s="25">
+        <f t="shared" si="4"/>
+        <v>1.3181876081262711</v>
+      </c>
+      <c r="M41" s="25">
+        <f t="shared" si="5"/>
+        <v>1.3155630212902587</v>
+      </c>
+      <c r="N41" s="125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="B45" s="131"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="132"/>
+      <c r="P45" s="132"/>
+      <c r="Q45" s="132"/>
+      <c r="R45" s="132"/>
+      <c r="S45" s="132"/>
+      <c r="T45" s="132"/>
+      <c r="U45" s="132"/>
+      <c r="V45" s="132"/>
+      <c r="W45" s="132"/>
+      <c r="X45" s="132"/>
+      <c r="Y45" s="132"/>
+      <c r="Z45" s="132"/>
+      <c r="AA45" s="132"/>
+      <c r="AB45" s="132"/>
+      <c r="AC45" s="132"/>
+      <c r="AD45" s="132"/>
+      <c r="AE45" s="132"/>
+      <c r="AF45" s="132"/>
+      <c r="AG45" s="132"/>
+      <c r="AH45" s="132"/>
+      <c r="AI45" s="132"/>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" s="122"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="122"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="122"/>
+      <c r="U46" s="122"/>
+      <c r="V46" s="122"/>
+      <c r="W46" s="122"/>
+      <c r="X46" s="122"/>
+      <c r="Y46" s="122"/>
+      <c r="Z46" s="122"/>
+      <c r="AA46" s="122"/>
+      <c r="AB46" s="122"/>
+      <c r="AC46" s="122"/>
+      <c r="AD46" s="122"/>
+      <c r="AE46" s="122"/>
+      <c r="AF46" s="122"/>
+      <c r="AG46" s="122"/>
+      <c r="AH46" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="39" t="str">
+        <f>'Japan Workbook'!H7</f>
+        <v>iYear</v>
+      </c>
+      <c r="B1" s="39" t="str">
+        <f>'Japan Workbook'!I7</f>
+        <v>iGDP</v>
+      </c>
+      <c r="C1" s="39" t="str">
+        <f>'Japan Workbook'!J7</f>
+        <v>iLabor</v>
+      </c>
+      <c r="D1" s="39" t="str">
+        <f>'Japan Workbook'!K7</f>
+        <v>iCapStk</v>
+      </c>
+      <c r="E1" s="39" t="str">
+        <f>'Japan Workbook'!L7</f>
+        <v>iQ</v>
+      </c>
+      <c r="F1" s="39" t="str">
+        <f>'Japan Workbook'!M7</f>
+        <v>iX</v>
+      </c>
+      <c r="G1" s="39" t="str">
+        <f>'Japan Workbook'!N7</f>
+        <v>iU</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="140">
+        <f>'Japan Workbook'!H10</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="141">
+        <f>'Japan Workbook'!I10</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="141">
+        <f>'Japan Workbook'!J10</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="141">
+        <f>'Japan Workbook'!K10</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="141">
+        <f>'Japan Workbook'!L10</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="141">
+        <f>'Japan Workbook'!M10</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="141">
+        <f>'Japan Workbook'!N10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="140">
+        <f>'Japan Workbook'!H11</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="141">
+        <f>'Japan Workbook'!I11</f>
+        <v>1.0293342659267073</v>
+      </c>
+      <c r="C3" s="141">
+        <f>'Japan Workbook'!J11</f>
+        <v>1.0029916611789609</v>
+      </c>
+      <c r="D3" s="141">
+        <f>'Japan Workbook'!K11</f>
+        <v>1.0536237334260374</v>
+      </c>
+      <c r="E3" s="141">
+        <f>'Japan Workbook'!L11</f>
+        <v>1.0000869014390059</v>
+      </c>
+      <c r="F3" s="141">
+        <f>'Japan Workbook'!M11</f>
+        <v>0.99983743613758813</v>
+      </c>
+      <c r="G3" s="141">
+        <f>'Japan Workbook'!N11</f>
+        <v>0.96244166909540851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="140">
+        <f>'Japan Workbook'!H12</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="141">
+        <f>'Japan Workbook'!I12</f>
+        <v>1.0577886835145012</v>
+      </c>
+      <c r="C4" s="141">
+        <f>'Japan Workbook'!J12</f>
+        <v>1.0087116399823868</v>
+      </c>
+      <c r="D4" s="141">
+        <f>'Japan Workbook'!K12</f>
+        <v>1.1034365395701646</v>
+      </c>
+      <c r="E4" s="141">
+        <f>'Japan Workbook'!L12</f>
+        <v>0.97300641431143586</v>
+      </c>
+      <c r="F4" s="141">
+        <f>'Japan Workbook'!M12</f>
+        <v>0.97102937877489026</v>
+      </c>
+      <c r="G4" s="141">
+        <f>'Japan Workbook'!N12</f>
+        <v>0.91759880003594474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="140">
+        <f>'Japan Workbook'!H13</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="141">
+        <f>'Japan Workbook'!I13</f>
+        <v>1.0748383250011466</v>
+      </c>
+      <c r="C5" s="141">
+        <f>'Japan Workbook'!J13</f>
+        <v>1.0222399525746209</v>
+      </c>
+      <c r="D5" s="141">
+        <f>'Japan Workbook'!K13</f>
+        <v>1.1480866652527828</v>
+      </c>
+      <c r="E5" s="141">
+        <f>'Japan Workbook'!L13</f>
+        <v>0.95474864393683501</v>
+      </c>
+      <c r="F5" s="141">
+        <f>'Japan Workbook'!M13</f>
+        <v>0.95099134588082479</v>
+      </c>
+      <c r="G5" s="141">
+        <f>'Japan Workbook'!N13</f>
+        <v>0.91013923071693714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="140">
+        <f>'Japan Workbook'!H14</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="141">
+        <f>'Japan Workbook'!I14</f>
+        <v>1.1083616169028727</v>
+      </c>
+      <c r="C6" s="141">
+        <f>'Japan Workbook'!J14</f>
+        <v>1.0318805073557682</v>
+      </c>
+      <c r="D6" s="141">
+        <f>'Japan Workbook'!K14</f>
+        <v>1.1948727395166703</v>
+      </c>
+      <c r="E6" s="141">
+        <f>'Japan Workbook'!L14</f>
+        <v>1.0393060325241101</v>
+      </c>
+      <c r="F6" s="141">
+        <f>'Japan Workbook'!M14</f>
+        <v>1.0367137411472442</v>
+      </c>
+      <c r="G6" s="141">
+        <f>'Japan Workbook'!N14</f>
+        <v>0.98689500826397325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="140">
+        <f>'Japan Workbook'!H15</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="141">
+        <f>'Japan Workbook'!I15</f>
+        <v>1.1646933143756975</v>
+      </c>
+      <c r="C7" s="141">
+        <f>'Japan Workbook'!J15</f>
+        <v>1.0289887980410191</v>
+      </c>
+      <c r="D7" s="141">
+        <f>'Japan Workbook'!K15</f>
+        <v>1.248886384225137</v>
+      </c>
+      <c r="E7" s="141">
+        <f>'Japan Workbook'!L15</f>
+        <v>1.0439056291748303</v>
+      </c>
+      <c r="F7" s="141">
+        <f>'Japan Workbook'!M15</f>
+        <v>1.0396893105698912</v>
+      </c>
+      <c r="G7" s="141">
+        <f>'Japan Workbook'!N15</f>
+        <v>0.99504886626246991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="140">
+        <f>'Japan Workbook'!H16</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="141">
+        <f>'Japan Workbook'!I16</f>
+        <v>1.1991530217554158</v>
+      </c>
+      <c r="C8" s="141">
+        <f>'Japan Workbook'!J16</f>
+        <v>1.0332201578139684</v>
+      </c>
+      <c r="D8" s="141">
+        <f>'Japan Workbook'!K16</f>
+        <v>1.3067800105968412</v>
+      </c>
+      <c r="E8" s="141">
+        <f>'Japan Workbook'!L16</f>
+        <v>1.0463965749719275</v>
+      </c>
+      <c r="F8" s="141">
+        <f>'Japan Workbook'!M16</f>
+        <v>1.0414738103531078</v>
+      </c>
+      <c r="G8" s="141">
+        <f>'Japan Workbook'!N16</f>
+        <v>0.98913467720185888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="140">
+        <f>'Japan Workbook'!H17</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="141">
+        <f>'Japan Workbook'!I17</f>
+        <v>1.2446605207234478</v>
+      </c>
+      <c r="C9" s="141">
+        <f>'Japan Workbook'!J17</f>
+        <v>1.0399704143504676</v>
+      </c>
+      <c r="D9" s="141">
+        <f>'Japan Workbook'!K17</f>
+        <v>1.372172687698554</v>
+      </c>
+      <c r="E9" s="141">
+        <f>'Japan Workbook'!L17</f>
+        <v>1.0787392734743844</v>
+      </c>
+      <c r="F9" s="141">
+        <f>'Japan Workbook'!M17</f>
+        <v>1.0733617299602667</v>
+      </c>
+      <c r="G9" s="141">
+        <f>'Japan Workbook'!N17</f>
+        <v>1.0167756710007965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="140">
+        <f>'Japan Workbook'!H18</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="141">
+        <f>'Japan Workbook'!I18</f>
+        <v>1.3288591784005259</v>
+      </c>
+      <c r="C10" s="141">
+        <f>'Japan Workbook'!J18</f>
+        <v>1.0531399340041874</v>
+      </c>
+      <c r="D10" s="141">
+        <f>'Japan Workbook'!K18</f>
+        <v>1.4538740418932343</v>
+      </c>
+      <c r="E10" s="141">
+        <f>'Japan Workbook'!L18</f>
+        <v>1.1391185569465907</v>
+      </c>
+      <c r="F10" s="141">
+        <f>'Japan Workbook'!M18</f>
+        <v>1.1351475419511365</v>
+      </c>
+      <c r="G10" s="141">
+        <f>'Japan Workbook'!N18</f>
+        <v>1.0744431317010756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="140">
+        <f>'Japan Workbook'!H19</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="141">
+        <f>'Japan Workbook'!I19</f>
+        <v>1.3991683101713832</v>
+      </c>
+      <c r="C11" s="141">
+        <f>'Japan Workbook'!J19</f>
+        <v>1.0553742492498805</v>
+      </c>
+      <c r="D11" s="141">
+        <f>'Japan Workbook'!K19</f>
+        <v>1.546189364240544</v>
+      </c>
+      <c r="E11" s="141">
+        <f>'Japan Workbook'!L19</f>
+        <v>1.177413066518666</v>
+      </c>
+      <c r="F11" s="141">
+        <f>'Japan Workbook'!M19</f>
+        <v>1.173720891832521</v>
+      </c>
+      <c r="G11" s="141">
+        <f>'Japan Workbook'!N19</f>
+        <v>1.1008539570417144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="140">
+        <f>'Japan Workbook'!H20</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="141">
+        <f>'Japan Workbook'!I20</f>
+        <v>1.471945374489749</v>
+      </c>
+      <c r="C12" s="141">
+        <f>'Japan Workbook'!J20</f>
+        <v>1.05871082438227</v>
+      </c>
+      <c r="D12" s="141">
+        <f>'Japan Workbook'!K20</f>
+        <v>1.6472915377590815</v>
+      </c>
+      <c r="E12" s="141">
+        <f>'Japan Workbook'!L20</f>
+        <v>1.2401665249848233</v>
+      </c>
+      <c r="F12" s="141">
+        <f>'Japan Workbook'!M20</f>
+        <v>1.2370980586486031</v>
+      </c>
+      <c r="G12" s="141">
+        <f>'Japan Workbook'!N20</f>
+        <v>1.1522601422148309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="140">
+        <f>'Japan Workbook'!H21</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="141">
+        <f>'Japan Workbook'!I21</f>
+        <v>1.5208778608448379</v>
+      </c>
+      <c r="C13" s="141">
+        <f>'Japan Workbook'!J21</f>
+        <v>1.055927772259454</v>
+      </c>
+      <c r="D13" s="141">
+        <f>'Japan Workbook'!K21</f>
+        <v>1.7466279962131233</v>
+      </c>
+      <c r="E13" s="141">
+        <f>'Japan Workbook'!L21</f>
+        <v>1.2747636557722588</v>
+      </c>
+      <c r="F13" s="141">
+        <f>'Japan Workbook'!M21</f>
+        <v>1.2710023231063965</v>
+      </c>
+      <c r="G13" s="141">
+        <f>'Japan Workbook'!N21</f>
+        <v>1.1768770566443287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="140">
+        <f>'Japan Workbook'!H22</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="141">
+        <f>'Japan Workbook'!I22</f>
+        <v>1.533334479964531</v>
+      </c>
+      <c r="C14" s="141">
+        <f>'Japan Workbook'!J22</f>
+        <v>1.0451106798522563</v>
+      </c>
+      <c r="D14" s="141">
+        <f>'Japan Workbook'!K22</f>
+        <v>1.8342261208491757</v>
+      </c>
+      <c r="E14" s="141">
+        <f>'Japan Workbook'!L22</f>
+        <v>1.2782902307505879</v>
+      </c>
+      <c r="F14" s="141">
+        <f>'Japan Workbook'!M22</f>
+        <v>1.2745486155486876</v>
+      </c>
+      <c r="G14" s="141">
+        <f>'Japan Workbook'!N22</f>
+        <v>1.1504677940647756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="140">
+        <f>'Japan Workbook'!H23</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="141">
+        <f>'Japan Workbook'!I23</f>
+        <v>1.5359575899341069</v>
+      </c>
+      <c r="C15" s="141">
+        <f>'Japan Workbook'!J23</f>
+        <v>1.0200244734368389</v>
+      </c>
+      <c r="D15" s="141">
+        <f>'Japan Workbook'!K23</f>
+        <v>1.9100507467712067</v>
+      </c>
+      <c r="E15" s="141">
+        <f>'Japan Workbook'!L23</f>
+        <v>1.2933294669770325</v>
+      </c>
+      <c r="F15" s="141">
+        <f>'Japan Workbook'!M23</f>
+        <v>1.288122730885964</v>
+      </c>
+      <c r="G15" s="141">
+        <f>'Japan Workbook'!N23</f>
+        <v>1.1599109354702988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="140">
+        <f>'Japan Workbook'!H24</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="141">
+        <f>'Japan Workbook'!I24</f>
+        <v>1.5492214374168691</v>
+      </c>
+      <c r="C16" s="141">
+        <f>'Japan Workbook'!J24</f>
+        <v>1.0163279419921702</v>
+      </c>
+      <c r="D16" s="141">
+        <f>'Japan Workbook'!K24</f>
+        <v>1.9775145087081401</v>
+      </c>
+      <c r="E16" s="141">
+        <f>'Japan Workbook'!L24</f>
+        <v>1.343381563513065</v>
+      </c>
+      <c r="F16" s="141">
+        <f>'Japan Workbook'!M24</f>
+        <v>1.3398026871261479</v>
+      </c>
+      <c r="G16" s="141">
+        <f>'Japan Workbook'!N24</f>
+        <v>1.2008261939932141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="140">
+        <f>'Japan Workbook'!H25</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="141">
+        <f>'Japan Workbook'!I25</f>
+        <v>1.5790693941200753</v>
+      </c>
+      <c r="C17" s="141">
+        <f>'Japan Workbook'!J25</f>
+        <v>1.0207514565932923</v>
+      </c>
+      <c r="D17" s="141">
+        <f>'Japan Workbook'!K25</f>
+        <v>2.041703015872669</v>
+      </c>
+      <c r="E17" s="141">
+        <f>'Japan Workbook'!L25</f>
+        <v>1.3835589095496614</v>
+      </c>
+      <c r="F17" s="141">
+        <f>'Japan Workbook'!M25</f>
+        <v>1.3791564047784077</v>
+      </c>
+      <c r="G17" s="141">
+        <f>'Japan Workbook'!N25</f>
+        <v>1.2375056651109211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="140">
+        <f>'Japan Workbook'!H26</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="141">
+        <f>'Japan Workbook'!I26</f>
+        <v>1.6211392927578774</v>
+      </c>
+      <c r="C18" s="141">
+        <f>'Japan Workbook'!J26</f>
+        <v>1.0222632815744801</v>
+      </c>
+      <c r="D18" s="141">
+        <f>'Japan Workbook'!K26</f>
+        <v>2.1110696906290838</v>
+      </c>
+      <c r="E18" s="141">
+        <f>'Japan Workbook'!L26</f>
+        <v>1.4057887768355393</v>
+      </c>
+      <c r="F18" s="141">
+        <f>'Japan Workbook'!M26</f>
+        <v>1.4012864386092285</v>
+      </c>
+      <c r="G18" s="141">
+        <f>'Japan Workbook'!N26</f>
+        <v>1.2440644365677369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="140">
+        <f>'Japan Workbook'!H27</f>
+        <v>17</v>
+      </c>
+      <c r="B19" s="141">
+        <f>'Japan Workbook'!I27</f>
+        <v>1.647152914736504</v>
+      </c>
+      <c r="C19" s="141">
+        <f>'Japan Workbook'!J27</f>
+        <v>1.013718004839403</v>
+      </c>
+      <c r="D19" s="141">
+        <f>'Japan Workbook'!K27</f>
+        <v>2.1753795440151533</v>
+      </c>
+      <c r="E19" s="141">
+        <f>'Japan Workbook'!L27</f>
+        <v>1.4318444937368253</v>
+      </c>
+      <c r="F19" s="141">
+        <f>'Japan Workbook'!M27</f>
+        <v>1.4265399938676402</v>
+      </c>
+      <c r="G19" s="141">
+        <f>'Japan Workbook'!N27</f>
+        <v>1.2795893218718608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="140">
+        <f>'Japan Workbook'!H28</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="141">
+        <f>'Japan Workbook'!I28</f>
+        <v>1.6124657921692733</v>
+      </c>
+      <c r="C20" s="141">
+        <f>'Japan Workbook'!J28</f>
+        <v>0.9899080498061561</v>
+      </c>
+      <c r="D20" s="141">
+        <f>'Japan Workbook'!K28</f>
+        <v>2.2196603471886669</v>
+      </c>
+      <c r="E20" s="141">
+        <f>'Japan Workbook'!L28</f>
+        <v>1.4101377756299887</v>
+      </c>
+      <c r="F20" s="141">
+        <f>'Japan Workbook'!M28</f>
+        <v>1.4035827541313151</v>
+      </c>
+      <c r="G20" s="141">
+        <f>'Japan Workbook'!N28</f>
+        <v>1.2462853863773369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="140">
+        <f>'Japan Workbook'!H29</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="141">
+        <f>'Japan Workbook'!I29</f>
+        <v>1.6111754498616397</v>
+      </c>
+      <c r="C21" s="141">
+        <f>'Japan Workbook'!J29</f>
+        <v>0.96694984177537502</v>
+      </c>
+      <c r="D21" s="141">
+        <f>'Japan Workbook'!K29</f>
+        <v>2.2602792639349554</v>
+      </c>
+      <c r="E21" s="141">
+        <f>'Japan Workbook'!L29</f>
+        <v>1.4364013063762613</v>
+      </c>
+      <c r="F21" s="141">
+        <f>'Japan Workbook'!M29</f>
+        <v>1.4317382968893559</v>
+      </c>
+      <c r="G21" s="141">
+        <f>'Japan Workbook'!N29</f>
+        <v>1.2611902361123284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="140">
+        <f>'Japan Workbook'!H30</f>
+        <v>20</v>
+      </c>
+      <c r="B22" s="141">
+        <f>'Japan Workbook'!I30</f>
+        <v>1.6471685853628706</v>
+      </c>
+      <c r="C22" s="141">
+        <f>'Japan Workbook'!J30</f>
+        <v>0.96834554671369732</v>
+      </c>
+      <c r="D22" s="141">
+        <f>'Japan Workbook'!K30</f>
+        <v>2.2993558446972431</v>
+      </c>
+      <c r="E22" s="141">
+        <f>'Japan Workbook'!L30</f>
+        <v>1.4497146406276049</v>
+      </c>
+      <c r="F22" s="141">
+        <f>'Japan Workbook'!M30</f>
+        <v>1.4453778789289016</v>
+      </c>
+      <c r="G22" s="141">
+        <f>'Japan Workbook'!N30</f>
+        <v>1.2731847084958923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="140">
+        <f>'Japan Workbook'!H31</f>
+        <v>21</v>
+      </c>
+      <c r="B23" s="141">
+        <f>'Japan Workbook'!I31</f>
+        <v>1.6530045559479583</v>
+      </c>
+      <c r="C23" s="141">
+        <f>'Japan Workbook'!J31</f>
+        <v>0.95133849647292601</v>
+      </c>
+      <c r="D23" s="141">
+        <f>'Japan Workbook'!K31</f>
+        <v>2.3313101675015142</v>
+      </c>
+      <c r="E23" s="141">
+        <f>'Japan Workbook'!L31</f>
+        <v>1.4360334758929683</v>
+      </c>
+      <c r="F23" s="141">
+        <f>'Japan Workbook'!M31</f>
+        <v>1.4316435303174873</v>
+      </c>
+      <c r="G23" s="141" t="str">
+        <f>'Japan Workbook'!N31</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="140">
+        <f>'Japan Workbook'!H32</f>
+        <v>22</v>
+      </c>
+      <c r="B24" s="141">
+        <f>'Japan Workbook'!I32</f>
+        <v>1.6576568209267837</v>
+      </c>
+      <c r="C24" s="141">
+        <f>'Japan Workbook'!J32</f>
+        <v>0.93356130708838037</v>
+      </c>
+      <c r="D24" s="141">
+        <f>'Japan Workbook'!K32</f>
+        <v>2.3517249383612211</v>
+      </c>
+      <c r="E24" s="141">
+        <f>'Japan Workbook'!L32</f>
+        <v>1.4262219526933959</v>
+      </c>
+      <c r="F24" s="141">
+        <f>'Japan Workbook'!M32</f>
+        <v>1.4227158649627512</v>
+      </c>
+      <c r="G24" s="141" t="str">
+        <f>'Japan Workbook'!N32</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="140">
+        <f>'Japan Workbook'!H33</f>
+        <v>23</v>
+      </c>
+      <c r="B25" s="141">
+        <f>'Japan Workbook'!I33</f>
+        <v>1.6862109954287636</v>
+      </c>
+      <c r="C25" s="141">
+        <f>'Japan Workbook'!J33</f>
+        <v>0.93562492315629375</v>
+      </c>
+      <c r="D25" s="141">
+        <f>'Japan Workbook'!K33</f>
+        <v>2.3712594936109208</v>
+      </c>
+      <c r="E25" s="141">
+        <f>'Japan Workbook'!L33</f>
+        <v>1.4230929592871291</v>
+      </c>
+      <c r="F25" s="141">
+        <f>'Japan Workbook'!M33</f>
+        <v>1.4213160123608011</v>
+      </c>
+      <c r="G25" s="141" t="str">
+        <f>'Japan Workbook'!N33</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="140">
+        <f>'Japan Workbook'!H34</f>
+        <v>24</v>
+      </c>
+      <c r="B26" s="141">
+        <f>'Japan Workbook'!I34</f>
+        <v>1.7256165053738781</v>
+      </c>
+      <c r="C26" s="141">
+        <f>'Japan Workbook'!J34</f>
+        <v>0.94466803254933895</v>
+      </c>
+      <c r="D26" s="141">
+        <f>'Japan Workbook'!K34</f>
+        <v>2.3899870782672199</v>
+      </c>
+      <c r="E26" s="141">
+        <f>'Japan Workbook'!L34</f>
+        <v>1.4564449671384423</v>
+      </c>
+      <c r="F26" s="141">
+        <f>'Japan Workbook'!M34</f>
+        <v>1.4540689618978362</v>
+      </c>
+      <c r="G26" s="141" t="str">
+        <f>'Japan Workbook'!N34</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="140">
+        <f>'Japan Workbook'!H35</f>
+        <v>25</v>
+      </c>
+      <c r="B27" s="141">
+        <f>'Japan Workbook'!I35</f>
+        <v>1.7478221651454693</v>
+      </c>
+      <c r="C27" s="141">
+        <f>'Japan Workbook'!J35</f>
+        <v>0.94586471575030406</v>
+      </c>
+      <c r="D27" s="141">
+        <f>'Japan Workbook'!K35</f>
+        <v>2.408948245289908</v>
+      </c>
+      <c r="E27" s="141">
+        <f>'Japan Workbook'!L35</f>
+        <v>1.4525284696783898</v>
+      </c>
+      <c r="F27" s="141">
+        <f>'Japan Workbook'!M35</f>
+        <v>1.4494184786398707</v>
+      </c>
+      <c r="G27" s="141" t="str">
+        <f>'Japan Workbook'!N35</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="140">
+        <f>'Japan Workbook'!H36</f>
+        <v>26</v>
+      </c>
+      <c r="B28" s="141">
+        <f>'Japan Workbook'!I36</f>
+        <v>1.7771935054808972</v>
+      </c>
+      <c r="C28" s="141">
+        <f>'Japan Workbook'!J36</f>
+        <v>0.95474194545049651</v>
+      </c>
+      <c r="D28" s="141">
+        <f>'Japan Workbook'!K36</f>
+        <v>2.4294125749668209</v>
+      </c>
+      <c r="E28" s="141">
+        <f>'Japan Workbook'!L36</f>
+        <v>1.464207696978238</v>
+      </c>
+      <c r="F28" s="141">
+        <f>'Japan Workbook'!M36</f>
+        <v>1.4602210289300455</v>
+      </c>
+      <c r="G28" s="141" t="str">
+        <f>'Japan Workbook'!N36</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="140">
+        <f>'Japan Workbook'!H37</f>
+        <v>27</v>
+      </c>
+      <c r="B29" s="141">
+        <f>'Japan Workbook'!I37</f>
+        <v>1.8156828570991759</v>
+      </c>
+      <c r="C29" s="141">
+        <f>'Japan Workbook'!J37</f>
+        <v>0.95413482579057574</v>
+      </c>
+      <c r="D29" s="141">
+        <f>'Japan Workbook'!K37</f>
+        <v>2.4488860927026828</v>
+      </c>
+      <c r="E29" s="141">
+        <f>'Japan Workbook'!L37</f>
+        <v>1.4436007374211801</v>
+      </c>
+      <c r="F29" s="141">
+        <f>'Japan Workbook'!M37</f>
+        <v>1.4407170236331532</v>
+      </c>
+      <c r="G29" s="141" t="str">
+        <f>'Japan Workbook'!N37</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="140">
+        <f>'Japan Workbook'!H38</f>
+        <v>28</v>
+      </c>
+      <c r="B30" s="141">
+        <f>'Japan Workbook'!I38</f>
+        <v>1.796180953691388</v>
+      </c>
+      <c r="C30" s="141">
+        <f>'Japan Workbook'!J38</f>
+        <v>0.94008039644943275</v>
+      </c>
+      <c r="D30" s="141">
+        <f>'Japan Workbook'!K38</f>
+        <v>2.4586584719704803</v>
+      </c>
+      <c r="E30" s="141">
+        <f>'Japan Workbook'!L38</f>
+        <v>1.3965554306327792</v>
+      </c>
+      <c r="F30" s="141">
+        <f>'Japan Workbook'!M38</f>
+        <v>1.3926739939136374</v>
+      </c>
+      <c r="G30" s="141" t="str">
+        <f>'Japan Workbook'!N38</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="140">
+        <f>'Japan Workbook'!H39</f>
+        <v>29</v>
+      </c>
+      <c r="B31" s="141">
+        <f>'Japan Workbook'!I39</f>
+        <v>1.6968914828234647</v>
+      </c>
+      <c r="C31" s="141">
+        <f>'Japan Workbook'!J39</f>
+        <v>0.90052714038643289</v>
+      </c>
+      <c r="D31" s="141">
+        <f>'Japan Workbook'!K39</f>
+        <v>2.448949316634927</v>
+      </c>
+      <c r="E31" s="141">
+        <f>'Japan Workbook'!L39</f>
+        <v>1.3224903625563731</v>
+      </c>
+      <c r="F31" s="141">
+        <f>'Japan Workbook'!M39</f>
+        <v>1.3155464481509087</v>
+      </c>
+      <c r="G31" s="141" t="str">
+        <f>'Japan Workbook'!N39</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="140">
+        <f>'Japan Workbook'!H40</f>
+        <v>30</v>
+      </c>
+      <c r="B32" s="141">
+        <f>'Japan Workbook'!I40</f>
+        <v>1.7726497882554388</v>
+      </c>
+      <c r="C32" s="141">
+        <f>'Japan Workbook'!J40</f>
+        <v>0.90674539813648802</v>
+      </c>
+      <c r="D32" s="141">
+        <f>'Japan Workbook'!K40</f>
+        <v>2.4396909278941075</v>
+      </c>
+      <c r="E32" s="141">
+        <f>'Japan Workbook'!L40</f>
+        <v>1.387256019204129</v>
+      </c>
+      <c r="F32" s="141">
+        <f>'Japan Workbook'!M40</f>
+        <v>1.3815050648721896</v>
+      </c>
+      <c r="G32" s="141" t="str">
+        <f>'Japan Workbook'!N40</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="140">
+        <f>'Japan Workbook'!H41</f>
+        <v>31</v>
+      </c>
+      <c r="B33" s="141">
+        <f>'Japan Workbook'!I41</f>
+        <v>1.7597635646470668</v>
+      </c>
+      <c r="C33" s="141" t="str">
+        <f>'Japan Workbook'!J41</f>
+        <v>NA</v>
+      </c>
+      <c r="D33" s="141">
+        <f>'Japan Workbook'!K41</f>
+        <v>2.4319898156630644</v>
+      </c>
+      <c r="E33" s="141">
+        <f>'Japan Workbook'!L41</f>
+        <v>1.3181876081262711</v>
+      </c>
+      <c r="F33" s="141">
+        <f>'Japan Workbook'!M41</f>
+        <v>1.3155630212902587</v>
+      </c>
+      <c r="G33" s="141" t="str">
+        <f>'Japan Workbook'!N41</f>
+        <v>NA</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -15961,12 +17177,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
@@ -15979,40 +17195,40 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="143" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="129">
+      <c r="A5" s="128">
         <v>1980</v>
       </c>
-      <c r="B5" s="122">
+      <c r="B5" s="121">
         <v>58.786001436049467</v>
       </c>
       <c r="C5" s="114">
         <v>2137.0974163720425</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <f>C5*B5</f>
         <v>125631.4117878245</v>
       </c>
@@ -16020,16 +17236,16 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="129">
+      <c r="A6" s="128">
         <v>1981</v>
       </c>
-      <c r="B6" s="122">
+      <c r="B6" s="121">
         <v>59.233953953768463</v>
       </c>
       <c r="C6" s="114">
         <v>2127.2808920315474</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="116">
         <f t="shared" ref="D6:D35" si="0">C6*B6</f>
         <v>126007.25840532818</v>
       </c>
@@ -16037,16 +17253,16 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="129">
+      <c r="A7" s="128">
         <v>1982</v>
       </c>
-      <c r="B7" s="122">
+      <c r="B7" s="121">
         <v>59.717983184323892</v>
       </c>
       <c r="C7" s="114">
         <v>2122.072124014142</v>
       </c>
-      <c r="D7" s="117">
+      <c r="D7" s="116">
         <f t="shared" si="0"/>
         <v>126725.86741779902</v>
       </c>
@@ -16054,16 +17270,16 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="129">
+      <c r="A8" s="128">
         <v>1983</v>
       </c>
-      <c r="B8" s="122">
+      <c r="B8" s="121">
         <v>60.621905267058871</v>
       </c>
       <c r="C8" s="114">
         <v>2118.4660538482458</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <f t="shared" si="0"/>
         <v>128425.4484278684</v>
       </c>
@@ -16071,16 +17287,16 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="129">
+      <c r="A9" s="128">
         <v>1984</v>
       </c>
-      <c r="B9" s="122">
+      <c r="B9" s="121">
         <v>60.828344234956212</v>
       </c>
       <c r="C9" s="114">
         <v>2131.1874680446017</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="116">
         <f t="shared" si="0"/>
         <v>129636.60493544178</v>
       </c>
@@ -16088,16 +17304,16 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="129">
+      <c r="A10" s="128">
         <v>1985</v>
       </c>
-      <c r="B10" s="122">
+      <c r="B10" s="121">
         <v>61.158045305044688</v>
       </c>
       <c r="C10" s="114">
         <v>2113.7581289094369</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="116">
         <f t="shared" si="0"/>
         <v>129273.31541174983</v>
       </c>
@@ -16105,412 +17321,412 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="129">
+      <c r="A11" s="128">
         <v>1986</v>
       </c>
-      <c r="B11" s="122">
+      <c r="B11" s="121">
         <v>61.470710149627081</v>
       </c>
       <c r="C11" s="114">
         <v>2111.6545879793312</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="116">
         <f t="shared" si="0"/>
         <v>129804.90711380767</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="129">
+      <c r="A12" s="128">
         <v>1987</v>
       </c>
-      <c r="B12" s="122">
+      <c r="B12" s="121">
         <v>61.714227961272975</v>
       </c>
       <c r="C12" s="114">
         <v>2117.063693228175</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="116">
         <f t="shared" si="0"/>
         <v>130652.95137241807</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="129">
+      <c r="A13" s="128">
         <v>1988</v>
       </c>
-      <c r="B13" s="122">
+      <c r="B13" s="121">
         <v>62.43075156344095</v>
       </c>
       <c r="C13" s="114">
         <v>2119.2674027740004</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="116">
         <f t="shared" si="0"/>
         <v>132307.45671908237</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="129">
+      <c r="A14" s="128">
         <v>1989</v>
       </c>
-      <c r="B14" s="122">
+      <c r="B14" s="121">
         <v>63.350707740769899</v>
       </c>
       <c r="C14" s="114">
         <v>2092.9230568398152</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="116">
         <f t="shared" si="0"/>
         <v>132588.15689777787</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="129">
+      <c r="A15" s="128">
         <v>1990</v>
       </c>
-      <c r="B15" s="122">
+      <c r="B15" s="121">
         <v>64.407955853059704</v>
       </c>
       <c r="C15" s="114">
         <v>2065.0761816698396</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="116">
         <f t="shared" si="0"/>
         <v>133007.33554219612</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="129">
+      <c r="A16" s="128">
         <v>1991</v>
       </c>
-      <c r="B16" s="122">
+      <c r="B16" s="121">
         <v>65.717740955204519</v>
       </c>
       <c r="C16" s="114">
         <v>2018.5979439760674</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="116">
         <f t="shared" si="0"/>
         <v>132657.69677492764</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="129">
+      <c r="A17" s="128">
         <v>1992</v>
       </c>
-      <c r="B17" s="122">
+      <c r="B17" s="121">
         <v>66.45931783017555</v>
       </c>
       <c r="C17" s="114">
         <v>1975.625607832472</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="116">
         <f t="shared" si="0"/>
         <v>131298.73018437202</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="129">
+      <c r="A18" s="128">
         <v>1993</v>
       </c>
-      <c r="B18" s="122">
+      <c r="B18" s="121">
         <v>66.71085268911844</v>
       </c>
       <c r="C18" s="114">
         <v>1920.9335436497145</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="116">
         <f t="shared" si="0"/>
         <v>128147.11465600236</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="129">
+      <c r="A19" s="128">
         <v>1994</v>
       </c>
-      <c r="B19" s="122">
+      <c r="B19" s="121">
         <v>66.786012507527658</v>
       </c>
       <c r="C19" s="114">
         <v>1911.8181996192548</v>
       </c>
-      <c r="D19" s="117">
+      <c r="D19" s="116">
         <f t="shared" si="0"/>
         <v>127682.71419189055</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="129">
+      <c r="A20" s="128">
         <v>1995</v>
       </c>
-      <c r="B20" s="122">
+      <c r="B20" s="121">
         <v>66.999466391809875</v>
       </c>
       <c r="C20" s="114">
         <v>1914.0219091650802</v>
       </c>
-      <c r="D20" s="117">
+      <c r="D20" s="116">
         <f t="shared" si="0"/>
         <v>128238.44657629356</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="129">
+      <c r="A21" s="128">
         <v>1996</v>
       </c>
-      <c r="B21" s="122">
+      <c r="B21" s="121">
         <v>67.049572937416016</v>
       </c>
       <c r="C21" s="114">
         <v>1915.424269785151</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D21" s="116">
         <f t="shared" si="0"/>
         <v>128428.37928305629</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="129">
+      <c r="A22" s="128">
         <v>1997</v>
       </c>
-      <c r="B22" s="122">
+      <c r="B22" s="121">
         <v>67.516565942465363</v>
       </c>
       <c r="C22" s="114">
         <v>1886.275202610824</v>
       </c>
-      <c r="D22" s="117">
+      <c r="D22" s="116">
         <f t="shared" si="0"/>
         <v>127354.8241027109</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="129">
+      <c r="A23" s="128">
         <v>1998</v>
       </c>
-      <c r="B23" s="122">
+      <c r="B23" s="121">
         <v>66.720873998239668</v>
       </c>
       <c r="C23" s="114">
         <v>1863.937601305412</v>
       </c>
-      <c r="D23" s="117">
+      <c r="D23" s="116">
         <f t="shared" si="0"/>
         <v>124363.54583727948</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="129">
+      <c r="A24" s="128">
         <v>1999</v>
       </c>
-      <c r="B24" s="122">
+      <c r="B24" s="121">
         <v>65.802922082734966</v>
       </c>
       <c r="C24" s="114">
         <v>1846.1075877073702</v>
       </c>
-      <c r="D24" s="117">
+      <c r="D24" s="116">
         <f t="shared" si="0"/>
         <v>121479.27375025388</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="129">
+      <c r="A25" s="128">
         <v>2000</v>
       </c>
-      <c r="B25" s="122">
+      <c r="B25" s="121">
         <v>65.394052670588763</v>
       </c>
       <c r="C25" s="114">
         <v>1860.3315311395161</v>
       </c>
-      <c r="D25" s="117">
+      <c r="D25" s="116">
         <f t="shared" si="0"/>
         <v>121654.61813209456</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="129">
+      <c r="A26" s="128">
         <v>2001</v>
       </c>
-      <c r="B26" s="122">
+      <c r="B26" s="121">
         <v>64.899000000000001</v>
       </c>
       <c r="C26" s="114">
         <v>1841.6</v>
       </c>
-      <c r="D26" s="117">
+      <c r="D26" s="116">
         <f t="shared" si="0"/>
         <v>119517.9984</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="129">
+      <c r="A27" s="128">
         <v>2002</v>
       </c>
-      <c r="B27" s="122">
+      <c r="B27" s="121">
         <v>64.125</v>
       </c>
       <c r="C27" s="114">
         <v>1829</v>
       </c>
-      <c r="D27" s="117">
+      <c r="D27" s="116">
         <f t="shared" si="0"/>
         <v>117284.625</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="129">
+      <c r="A28" s="128">
         <v>2003</v>
       </c>
-      <c r="B28" s="122">
+      <c r="B28" s="121">
         <v>64.143999999999991</v>
       </c>
       <c r="C28" s="114">
         <v>1832.5</v>
       </c>
-      <c r="D28" s="117">
+      <c r="D28" s="116">
         <f t="shared" si="0"/>
         <v>117543.87999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="129">
+      <c r="A29" s="128">
         <v>2004</v>
       </c>
-      <c r="B29" s="122">
+      <c r="B29" s="121">
         <v>64.507000000000005</v>
       </c>
       <c r="C29" s="114">
         <v>1839.8</v>
       </c>
-      <c r="D29" s="117">
+      <c r="D29" s="116">
         <f t="shared" si="0"/>
         <v>118679.9786</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="129">
+      <c r="A30" s="128">
         <v>2005</v>
       </c>
-      <c r="B30" s="122">
+      <c r="B30" s="121">
         <v>64.963000000000008</v>
       </c>
       <c r="C30" s="114">
         <v>1829.2</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D30" s="116">
         <f t="shared" si="0"/>
         <v>118830.31960000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="129">
+      <c r="A31" s="128">
         <v>2006</v>
       </c>
-      <c r="B31" s="122">
+      <c r="B31" s="121">
         <v>65.241</v>
       </c>
       <c r="C31" s="114">
         <v>1838.5</v>
       </c>
-      <c r="D31" s="117">
+      <c r="D31" s="116">
         <f t="shared" si="0"/>
         <v>119945.5785</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="129">
+      <c r="A32" s="128">
         <v>2007</v>
       </c>
-      <c r="B32" s="122">
+      <c r="B32" s="121">
         <v>65.531000000000006</v>
       </c>
       <c r="C32" s="114">
         <v>1829.2</v>
       </c>
-      <c r="D32" s="117">
+      <c r="D32" s="116">
         <f t="shared" si="0"/>
         <v>119869.30520000002</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="129">
+      <c r="A33" s="128">
         <v>2008</v>
       </c>
-      <c r="B33" s="122">
+      <c r="B33" s="121">
         <v>65.228999999999999</v>
       </c>
       <c r="C33" s="114">
         <v>1810.6</v>
       </c>
-      <c r="D33" s="117">
+      <c r="D33" s="116">
         <f t="shared" si="0"/>
         <v>118103.6274</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="129">
+      <c r="A34" s="128">
         <v>2009</v>
       </c>
-      <c r="B34" s="122">
+      <c r="B34" s="121">
         <v>64.207999999999998</v>
       </c>
       <c r="C34" s="114">
         <v>1762</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="116">
         <f t="shared" si="0"/>
         <v>113134.496</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="129">
+      <c r="A35" s="128">
         <v>2010</v>
       </c>
-      <c r="B35" s="122">
+      <c r="B35" s="121">
         <v>63.914999999999999</v>
       </c>
       <c r="C35" s="114">
         <v>1782.3</v>
       </c>
-      <c r="D35" s="117">
+      <c r="D35" s="116">
         <f t="shared" si="0"/>
         <v>113915.70449999999</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="129">
+      <c r="A36" s="128">
         <v>2011</v>
       </c>
-      <c r="B36" s="122">
+      <c r="B36" s="121">
         <v>63.955859836982576</v>
       </c>
       <c r="C36" s="114">
         <v>1726.5722048482398</v>
       </c>
-      <c r="D36" s="117">
+      <c r="D36" s="116">
         <f>C36*B36</f>
         <v>110424.40993170399</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="127"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="127"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="126"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="127"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="127"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16523,7 +17739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG67"/>
   <sheetViews>
@@ -16857,140 +18073,140 @@
       <c r="AG27" s="58"/>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="139" t="s">
+      <c r="B28" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="139" t="s">
+      <c r="E28" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="139" t="s">
+      <c r="F28" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="139" t="s">
+      <c r="G28" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="139" t="s">
+      <c r="H28" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="139" t="s">
+      <c r="I28" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="139" t="s">
+      <c r="J28" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="139" t="s">
+      <c r="K28" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="143" t="s">
+      <c r="L28" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="145" t="s">
+      <c r="M28" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="N28" s="139" t="s">
+      <c r="N28" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="139" t="s">
+      <c r="O28" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="P28" s="143" t="s">
+      <c r="P28" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="145" t="s">
+      <c r="Q28" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="R28" s="139" t="s">
+      <c r="R28" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="S28" s="139" t="s">
+      <c r="S28" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="T28" s="139" t="s">
+      <c r="T28" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="U28" s="139" t="s">
+      <c r="U28" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="V28" s="139" t="s">
+      <c r="V28" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="W28" s="139" t="s">
+      <c r="W28" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="X28" s="141" t="s">
+      <c r="X28" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="Y28" s="143" t="s">
+      <c r="Y28" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="Z28" s="145" t="s">
+      <c r="Z28" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="AA28" s="139" t="s">
+      <c r="AA28" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="AB28" s="139" t="s">
+      <c r="AB28" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="AC28" s="139" t="s">
+      <c r="AC28" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="AD28" s="139" t="s">
+      <c r="AD28" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="AE28" s="139" t="s">
+      <c r="AE28" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="AF28" s="139" t="s">
+      <c r="AF28" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="AG28" s="141" t="s">
+      <c r="AG28" s="146" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="144"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="140"/>
-      <c r="S29" s="140"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="140"/>
-      <c r="V29" s="140"/>
-      <c r="W29" s="140"/>
-      <c r="X29" s="142"/>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="146"/>
-      <c r="AA29" s="140"/>
-      <c r="AB29" s="140"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="140"/>
-      <c r="AE29" s="140"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="142"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="147"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="40">
@@ -20794,7 +22010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA105"/>
   <sheetViews>
@@ -27784,7 +29000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H119"/>
   <sheetViews>
@@ -27813,7 +29029,7 @@
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="135" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="8"/>
@@ -27836,59 +29052,59 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8"/>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="42.75" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="149" t="s">
+      <c r="E6" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="147"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="152"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="147"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="152"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8">
@@ -29269,7 +30485,7 @@
         <v>0.60705708557233617</v>
       </c>
       <c r="F88" s="8"/>
-      <c r="G88" s="116"/>
+      <c r="G88" s="115"/>
       <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8">
@@ -29291,7 +30507,7 @@
         <v>0.63960975290345434</v>
       </c>
       <c r="F89" s="8"/>
-      <c r="G89" s="116"/>
+      <c r="G89" s="115"/>
       <c r="H89" s="108"/>
     </row>
     <row r="90" spans="1:8">
@@ -29313,7 +30529,7 @@
         <v>0.66984896982548803</v>
       </c>
       <c r="F90" s="8"/>
-      <c r="G90" s="116"/>
+      <c r="G90" s="115"/>
       <c r="H90" s="108"/>
     </row>
     <row r="91" spans="1:8">
@@ -29335,7 +30551,7 @@
         <v>0.6969541449928166</v>
       </c>
       <c r="F91" s="8"/>
-      <c r="G91" s="116"/>
+      <c r="G91" s="115"/>
       <c r="H91" s="108"/>
     </row>
     <row r="92" spans="1:8">
@@ -29357,7 +30573,7 @@
         <v>0.72535596288082316</v>
       </c>
       <c r="F92" s="8"/>
-      <c r="G92" s="116"/>
+      <c r="G92" s="115"/>
       <c r="H92" s="108"/>
     </row>
     <row r="93" spans="1:8">
@@ -29379,7 +30595,7 @@
         <v>0.75814532861868456</v>
       </c>
       <c r="F93" s="8"/>
-      <c r="G93" s="116"/>
+      <c r="G93" s="115"/>
       <c r="H93" s="108"/>
     </row>
     <row r="94" spans="1:8">
@@ -29401,7 +30617,7 @@
         <v>0.79329006471710506</v>
       </c>
       <c r="F94" s="8"/>
-      <c r="G94" s="116"/>
+      <c r="G94" s="115"/>
       <c r="H94" s="108"/>
     </row>
     <row r="95" spans="1:8">
@@ -29423,7 +30639,7 @@
         <v>0.83298715269624368</v>
       </c>
       <c r="F95" s="8"/>
-      <c r="G95" s="116"/>
+      <c r="G95" s="115"/>
       <c r="H95" s="108"/>
     </row>
     <row r="96" spans="1:8">
@@ -29445,7 +30661,7 @@
         <v>0.88258453866097941</v>
       </c>
       <c r="F96" s="8"/>
-      <c r="G96" s="116"/>
+      <c r="G96" s="115"/>
       <c r="H96" s="108"/>
     </row>
     <row r="97" spans="1:8">
@@ -29467,7 +30683,7 @@
         <v>0.93862520919880799</v>
       </c>
       <c r="F97" s="8"/>
-      <c r="G97" s="116"/>
+      <c r="G97" s="115"/>
       <c r="H97" s="108"/>
     </row>
     <row r="98" spans="1:8">
@@ -29489,7 +30705,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="8"/>
-      <c r="G98" s="116"/>
+      <c r="G98" s="115"/>
       <c r="H98" s="108"/>
     </row>
     <row r="99" spans="1:8">
@@ -29511,7 +30727,7 @@
         <v>1.0603029009601881</v>
       </c>
       <c r="F99" s="8"/>
-      <c r="G99" s="116"/>
+      <c r="G99" s="115"/>
       <c r="H99" s="108"/>
     </row>
     <row r="100" spans="1:8">
@@ -29528,7 +30744,7 @@
         <v>1.1134799632033523</v>
       </c>
       <c r="F100" s="8"/>
-      <c r="G100" s="116"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="108"/>
     </row>
     <row r="101" spans="1:8">
@@ -29545,7 +30761,7 @@
         <v>1.1595098396301931</v>
       </c>
       <c r="F101" s="8"/>
-      <c r="G101" s="116"/>
+      <c r="G101" s="115"/>
       <c r="H101" s="108"/>
     </row>
     <row r="102" spans="1:8">
@@ -29562,7 +30778,7 @@
         <v>1.2004641943333738</v>
       </c>
       <c r="F102" s="8"/>
-      <c r="G102" s="116"/>
+      <c r="G102" s="115"/>
       <c r="H102" s="108"/>
     </row>
     <row r="103" spans="1:8">
@@ -29579,7 +30795,7 @@
         <v>1.2394302824199117</v>
       </c>
       <c r="F103" s="8"/>
-      <c r="G103" s="116"/>
+      <c r="G103" s="115"/>
       <c r="H103" s="108"/>
     </row>
     <row r="104" spans="1:8">
@@ -29596,7 +30812,7 @@
         <v>1.2815398138333849</v>
       </c>
       <c r="F104" s="8"/>
-      <c r="G104" s="116"/>
+      <c r="G104" s="115"/>
       <c r="H104" s="108"/>
     </row>
     <row r="105" spans="1:8">
@@ -29613,7 +30829,7 @@
         <v>1.3205795660035167</v>
       </c>
       <c r="F105" s="8"/>
-      <c r="G105" s="116"/>
+      <c r="G105" s="115"/>
       <c r="H105" s="108"/>
     </row>
     <row r="106" spans="1:8">
@@ -29630,7 +30846,7 @@
         <v>1.347460541324832</v>
       </c>
       <c r="F106" s="8"/>
-      <c r="G106" s="116"/>
+      <c r="G106" s="115"/>
       <c r="H106" s="108"/>
     </row>
     <row r="107" spans="1:8">
@@ -29647,7 +30863,7 @@
         <v>1.3721185425439393</v>
       </c>
       <c r="F107" s="8"/>
-      <c r="G107" s="116"/>
+      <c r="G107" s="115"/>
       <c r="H107" s="108"/>
     </row>
     <row r="108" spans="1:8">
@@ -29664,7 +30880,7 @@
         <v>1.3958402577756257</v>
       </c>
       <c r="F108" s="8"/>
-      <c r="G108" s="116"/>
+      <c r="G108" s="115"/>
       <c r="H108" s="108"/>
     </row>
     <row r="109" spans="1:8">
@@ -29681,7 +30897,7 @@
         <v>1.4152383558486241</v>
       </c>
       <c r="F109" s="8"/>
-      <c r="G109" s="116"/>
+      <c r="G109" s="115"/>
       <c r="H109" s="108"/>
     </row>
     <row r="110" spans="1:8">
@@ -29698,7 +30914,7 @@
         <v>1.4276312871493448</v>
       </c>
       <c r="F110" s="8"/>
-      <c r="G110" s="116"/>
+      <c r="G110" s="115"/>
       <c r="H110" s="108"/>
     </row>
     <row r="111" spans="1:8">
@@ -29715,7 +30931,7 @@
         <v>1.4394898773271794</v>
       </c>
       <c r="F111" s="8"/>
-      <c r="G111" s="116"/>
+      <c r="G111" s="115"/>
       <c r="H111" s="108"/>
     </row>
     <row r="112" spans="1:8">
@@ -29732,7 +30948,7 @@
         <v>1.4508585902884414</v>
       </c>
       <c r="F112" s="8"/>
-      <c r="G112" s="116"/>
+      <c r="G112" s="115"/>
       <c r="H112" s="108"/>
     </row>
     <row r="113" spans="1:8">
@@ -29749,7 +30965,7 @@
         <v>1.4623691010802848</v>
       </c>
       <c r="F113" s="8"/>
-      <c r="G113" s="116"/>
+      <c r="G113" s="115"/>
       <c r="H113" s="108"/>
     </row>
     <row r="114" spans="1:8">
@@ -29766,7 +30982,7 @@
         <v>1.4747921174121432</v>
       </c>
       <c r="F114" s="8"/>
-      <c r="G114" s="116"/>
+      <c r="G114" s="115"/>
       <c r="H114" s="108"/>
     </row>
     <row r="115" spans="1:8">
@@ -29783,7 +30999,7 @@
         <v>1.4866136543347166</v>
       </c>
       <c r="F115" s="8"/>
-      <c r="G115" s="116"/>
+      <c r="G115" s="115"/>
       <c r="H115" s="108"/>
     </row>
     <row r="116" spans="1:8">
@@ -29800,7 +31016,7 @@
         <v>1.4925460464121334</v>
       </c>
       <c r="F116" s="8"/>
-      <c r="G116" s="116"/>
+      <c r="G116" s="115"/>
       <c r="H116" s="108"/>
     </row>
     <row r="117" spans="1:8">
@@ -29817,7 +31033,7 @@
         <v>1.4866520348707633</v>
       </c>
       <c r="F117" s="8"/>
-      <c r="G117" s="116"/>
+      <c r="G117" s="115"/>
       <c r="H117" s="108"/>
     </row>
     <row r="118" spans="1:8">
@@ -29834,7 +31050,7 @@
         <v>1.4810316643846655</v>
       </c>
       <c r="F118" s="8"/>
-      <c r="G118" s="116"/>
+      <c r="G118" s="115"/>
       <c r="H118" s="108"/>
     </row>
     <row r="119" spans="1:8">
@@ -29851,7 +31067,7 @@
         <v>1.4763566496380229</v>
       </c>
       <c r="F119" s="8"/>
-      <c r="G119" s="116"/>
+      <c r="G119" s="115"/>
       <c r="H119" s="108"/>
     </row>
   </sheetData>
@@ -29872,11 +31088,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -29897,7 +31113,7 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:58">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="134" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="8"/>
@@ -29907,36 +31123,36 @@
     </row>
     <row r="3" spans="1:58">
       <c r="A3" s="8"/>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="148"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="1:58" ht="30" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
     </row>
     <row r="5" spans="1:58" ht="15" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="154" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1"/>
@@ -29997,10 +31213,10 @@
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
     </row>
     <row r="7" spans="1:58" ht="15" customHeight="1">
       <c r="A7" s="14">
@@ -31121,7 +32337,7 @@
         <v>0.65720656932136745</v>
       </c>
       <c r="E86" s="8"/>
-      <c r="F86" s="131"/>
+      <c r="F86" s="130"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="14">
@@ -31130,7 +32346,7 @@
       <c r="B87" s="18">
         <v>1568457</v>
       </c>
-      <c r="C87" s="133">
+      <c r="C87" s="132">
         <v>2616360</v>
       </c>
       <c r="D87" s="8">
@@ -31141,7 +32357,7 @@
         <f>C87/$C$97</f>
         <v>0.67937303743126387</v>
       </c>
-      <c r="F87" s="134"/>
+      <c r="F87" s="133"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="14">
@@ -31150,7 +32366,7 @@
       <c r="B88" s="18">
         <v>1618185</v>
       </c>
-      <c r="C88" s="133">
+      <c r="C88" s="132">
         <v>2693109</v>
       </c>
       <c r="D88" s="8">
@@ -31161,7 +32377,7 @@
         <f t="shared" ref="E88:E118" si="2">C88/$C$97</f>
         <v>0.69930194677470747</v>
       </c>
-      <c r="F88" s="134"/>
+      <c r="F88" s="133"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="14">
@@ -31170,7 +32386,7 @@
       <c r="B89" s="18">
         <v>1667653</v>
       </c>
-      <c r="C89" s="133">
+      <c r="C89" s="132">
         <v>2767556</v>
       </c>
       <c r="D89" s="8">
@@ -31181,7 +32397,7 @@
         <f t="shared" si="2"/>
         <v>0.71863311087966442</v>
       </c>
-      <c r="F89" s="134"/>
+      <c r="F89" s="133"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="14">
@@ -31190,7 +32406,7 @@
       <c r="B90" s="18">
         <v>1706380</v>
       </c>
-      <c r="C90" s="133">
+      <c r="C90" s="132">
         <v>2812164</v>
       </c>
       <c r="D90" s="8">
@@ -31201,7 +32417,7 @@
         <f t="shared" si="2"/>
         <v>0.73021617760356095</v>
       </c>
-      <c r="F90" s="134"/>
+      <c r="F90" s="133"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="14">
@@ -31210,7 +32426,7 @@
       <c r="B91" s="18">
         <v>1773223</v>
       </c>
-      <c r="C91" s="133">
+      <c r="C91" s="132">
         <v>2899873</v>
       </c>
       <c r="D91" s="8">
@@ -31221,7 +32437,7 @@
         <f t="shared" si="2"/>
         <v>0.75299099824753146</v>
       </c>
-      <c r="F91" s="134"/>
+      <c r="F91" s="133"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="14">
@@ -31230,7 +32446,7 @@
       <c r="B92" s="18">
         <v>1851315</v>
       </c>
-      <c r="C92" s="133">
+      <c r="C92" s="132">
         <v>3047257</v>
       </c>
       <c r="D92" s="8">
@@ -31241,7 +32457,7 @@
         <f t="shared" si="2"/>
         <v>0.79126123466330356</v>
       </c>
-      <c r="F92" s="134"/>
+      <c r="F92" s="133"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="14">
@@ -31250,7 +32466,7 @@
       <c r="B93" s="18">
         <v>1904918</v>
       </c>
-      <c r="C93" s="133">
+      <c r="C93" s="132">
         <v>3137416</v>
       </c>
       <c r="D93" s="8">
@@ -31261,7 +32477,7 @@
         <f t="shared" si="2"/>
         <v>0.81467223073485528</v>
       </c>
-      <c r="F93" s="134"/>
+      <c r="F93" s="133"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="14">
@@ -31270,7 +32486,7 @@
       <c r="B94" s="18">
         <v>1984142</v>
       </c>
-      <c r="C94" s="133">
+      <c r="C94" s="132">
         <v>3256480</v>
       </c>
       <c r="D94" s="8">
@@ -31281,7 +32497,7 @@
         <f t="shared" si="2"/>
         <v>0.84558879853466729</v>
       </c>
-      <c r="F94" s="134"/>
+      <c r="F94" s="133"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="14">
@@ -31290,7 +32506,7 @@
       <c r="B95" s="18">
         <v>2107060</v>
       </c>
-      <c r="C95" s="133">
+      <c r="C95" s="132">
         <v>3476774</v>
       </c>
       <c r="D95" s="8">
@@ -31301,7 +32517,7 @@
         <f t="shared" si="2"/>
         <v>0.90279109634837906</v>
       </c>
-      <c r="F95" s="134"/>
+      <c r="F95" s="133"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="14">
@@ -31310,7 +32526,7 @@
       <c r="B96" s="18">
         <v>2208858</v>
       </c>
-      <c r="C96" s="133">
+      <c r="C96" s="132">
         <v>3660728</v>
       </c>
       <c r="D96" s="8">
@@ -31321,7 +32537,7 @@
         <f t="shared" si="2"/>
         <v>0.9505572247587013</v>
       </c>
-      <c r="F96" s="134"/>
+      <c r="F96" s="133"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="14">
@@ -31330,7 +32546,7 @@
       <c r="B97" s="18">
         <v>2321153</v>
       </c>
-      <c r="C97" s="133">
+      <c r="C97" s="132">
         <v>3851139</v>
       </c>
       <c r="D97" s="8">
@@ -31341,7 +32557,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F97" s="134"/>
+      <c r="F97" s="133"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="14">
@@ -31350,7 +32566,7 @@
       <c r="B98" s="17">
         <v>2398927.7694869144</v>
       </c>
-      <c r="C98" s="133">
+      <c r="C98" s="132">
         <v>3979164</v>
       </c>
       <c r="D98" s="8">
@@ -31361,7 +32577,7 @@
         <f t="shared" si="2"/>
         <v>1.0332434118841205</v>
       </c>
-      <c r="F98" s="134"/>
+      <c r="F98" s="133"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="14">
@@ -31370,7 +32586,7 @@
       <c r="B99" s="17">
         <v>2422244.7903669062</v>
       </c>
-      <c r="C99" s="133">
+      <c r="C99" s="132">
         <v>4011755</v>
       </c>
       <c r="D99" s="8">
@@ -31381,7 +32597,7 @@
         <f t="shared" si="2"/>
         <v>1.0417061030515906</v>
       </c>
-      <c r="F99" s="134"/>
+      <c r="F99" s="133"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="14">
@@ -31390,7 +32606,7 @@
       <c r="B100" s="17">
         <v>2428241.9917259626</v>
       </c>
-      <c r="C100" s="133">
+      <c r="C100" s="132">
         <v>4018618</v>
       </c>
       <c r="D100" s="8">
@@ -31401,7 +32617,7 @@
         <f t="shared" si="2"/>
         <v>1.0434881732391379</v>
       </c>
-      <c r="F100" s="134"/>
+      <c r="F100" s="133"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="14">
@@ -31410,7 +32626,7 @@
       <c r="B101" s="17">
         <v>2454919.4393224693</v>
       </c>
-      <c r="C101" s="133">
+      <c r="C101" s="132">
         <v>4053321</v>
       </c>
       <c r="D101" s="8">
@@ -31421,7 +32637,7 @@
         <f t="shared" si="2"/>
         <v>1.0524992735915271</v>
       </c>
-      <c r="F101" s="134"/>
+      <c r="F101" s="133"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="14">
@@ -31430,7 +32646,7 @@
       <c r="B102" s="17">
         <v>2504246.4577470971</v>
       </c>
-      <c r="C102" s="133">
+      <c r="C102" s="132">
         <v>4131414</v>
       </c>
       <c r="D102" s="8">
@@ -31441,7 +32657,7 @@
         <f t="shared" si="2"/>
         <v>1.0727771705981011</v>
       </c>
-      <c r="F102" s="134"/>
+      <c r="F102" s="133"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="14">
@@ -31450,7 +32666,7 @@
       <c r="B103" s="17">
         <v>2590265.1744998498</v>
       </c>
-      <c r="C103" s="133">
+      <c r="C103" s="132">
         <v>4241484</v>
       </c>
       <c r="D103" s="8">
@@ -31461,7 +32677,7 @@
         <f t="shared" si="2"/>
         <v>1.10135832542009</v>
       </c>
-      <c r="F103" s="134"/>
+      <c r="F103" s="133"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="14">
@@ -31470,7 +32686,7 @@
       <c r="B104" s="17">
         <v>2636147.5234052306</v>
       </c>
-      <c r="C104" s="133">
+      <c r="C104" s="132">
         <v>4309545</v>
       </c>
       <c r="D104" s="8">
@@ -31481,7 +32697,7 @@
         <f t="shared" si="2"/>
         <v>1.1190312787982983</v>
       </c>
-      <c r="F104" s="134"/>
+      <c r="F104" s="133"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="14">
@@ -31490,7 +32706,7 @@
       <c r="B105" s="17">
         <v>2558595</v>
       </c>
-      <c r="C105" s="133">
+      <c r="C105" s="132">
         <v>4218791</v>
       </c>
       <c r="D105" s="8">
@@ -31501,7 +32717,7 @@
         <f t="shared" si="2"/>
         <v>1.0954657829800483</v>
       </c>
-      <c r="F105" s="134"/>
+      <c r="F105" s="133"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="14">
@@ -31510,7 +32726,7 @@
       <c r="B106" s="17">
         <v>2554893</v>
       </c>
-      <c r="C106" s="133">
+      <c r="C106" s="132">
         <v>4215415</v>
       </c>
       <c r="D106" s="8">
@@ -31521,7 +32737,7 @@
         <f t="shared" si="2"/>
         <v>1.0945891592071852</v>
       </c>
-      <c r="F106" s="134"/>
+      <c r="F106" s="133"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="14">
@@ -31530,7 +32746,7 @@
       <c r="B107" s="17">
         <v>2628056</v>
       </c>
-      <c r="C107" s="133">
+      <c r="C107" s="132">
         <v>4309586</v>
       </c>
       <c r="D107" s="8">
@@ -31541,7 +32757,7 @@
         <f t="shared" si="2"/>
         <v>1.1190419249993313</v>
       </c>
-      <c r="F107" s="134"/>
+      <c r="F107" s="133"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="14">
@@ -31550,7 +32766,7 @@
       <c r="B108" s="17">
         <v>2632907</v>
       </c>
-      <c r="C108" s="133">
+      <c r="C108" s="132">
         <v>4324855</v>
       </c>
       <c r="D108" s="8">
@@ -31561,7 +32777,7 @@
         <f t="shared" si="2"/>
         <v>1.123006726062082</v>
       </c>
-      <c r="F108" s="134"/>
+      <c r="F108" s="133"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="14">
@@ -31570,7 +32786,7 @@
       <c r="B109" s="17">
         <v>2639801</v>
       </c>
-      <c r="C109" s="133">
+      <c r="C109" s="132">
         <v>4337027</v>
       </c>
       <c r="D109" s="8">
@@ -31581,7 +32797,7 @@
         <f t="shared" si="2"/>
         <v>1.1261673494516817</v>
       </c>
-      <c r="F109" s="134"/>
+      <c r="F109" s="133"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="14">
@@ -31590,7 +32806,7 @@
       <c r="B110" s="18">
         <v>2686224</v>
       </c>
-      <c r="C110" s="133">
+      <c r="C110" s="132">
         <v>4411735</v>
       </c>
       <c r="D110" s="8">
@@ -31601,7 +32817,7 @@
         <f t="shared" si="2"/>
         <v>1.1455662857144342</v>
       </c>
-      <c r="F110" s="134"/>
+      <c r="F110" s="133"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="14">
@@ -31610,7 +32826,7 @@
       <c r="B111" s="17">
         <v>2750543</v>
       </c>
-      <c r="C111" s="133">
+      <c r="C111" s="132">
         <v>4514834</v>
       </c>
       <c r="D111" s="8">
@@ -31621,7 +32837,7 @@
         <f t="shared" si="2"/>
         <v>1.1723373266973744</v>
       </c>
-      <c r="F111" s="134"/>
+      <c r="F111" s="133"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="14">
@@ -31630,7 +32846,7 @@
       <c r="B112" s="17">
         <v>2802803</v>
       </c>
-      <c r="C112" s="133">
+      <c r="C112" s="132">
         <v>4572932</v>
       </c>
       <c r="D112" s="8">
@@ -31641,7 +32857,7 @@
         <f t="shared" si="2"/>
         <v>1.1874232532245654</v>
       </c>
-      <c r="F112" s="134"/>
+      <c r="F112" s="133"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="14">
@@ -31650,7 +32866,7 @@
       <c r="B113" s="17">
         <v>2858859</v>
       </c>
-      <c r="C113" s="133">
+      <c r="C113" s="132">
         <v>4649778</v>
       </c>
       <c r="D113" s="8">
@@ -31661,7 +32877,7 @@
         <f t="shared" si="2"/>
         <v>1.2073773499216724</v>
       </c>
-      <c r="F113" s="134"/>
+      <c r="F113" s="133"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="14">
@@ -31670,7 +32886,7 @@
       <c r="B114" s="17">
         <v>2924613</v>
       </c>
-      <c r="C114" s="133">
+      <c r="C114" s="132">
         <v>4750480</v>
       </c>
       <c r="D114" s="8">
@@ -31681,7 +32897,7 @@
         <f t="shared" si="2"/>
         <v>1.2335259776393426</v>
       </c>
-      <c r="F114" s="134"/>
+      <c r="F114" s="133"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="14">
@@ -31690,7 +32906,7 @@
       <c r="B115" s="17">
         <v>2904141</v>
       </c>
-      <c r="C115" s="133">
+      <c r="C115" s="132">
         <v>4699456</v>
       </c>
       <c r="D115" s="8">
@@ -31701,14 +32917,14 @@
         <f t="shared" si="2"/>
         <v>1.2202769102855024</v>
       </c>
-      <c r="F115" s="134"/>
+      <c r="F115" s="133"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="14">
         <v>2009</v>
       </c>
       <c r="B116" s="10"/>
-      <c r="C116" s="133">
+      <c r="C116" s="132">
         <v>4439679</v>
       </c>
       <c r="D116" s="8"/>
@@ -31716,14 +32932,14 @@
         <f t="shared" si="2"/>
         <v>1.1528223208770185</v>
       </c>
-      <c r="F116" s="134"/>
+      <c r="F116" s="133"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="14">
         <v>2010</v>
       </c>
       <c r="B117" s="10"/>
-      <c r="C117" s="133">
+      <c r="C117" s="132">
         <v>4637890</v>
       </c>
       <c r="D117" s="8"/>
@@ -31731,14 +32947,14 @@
         <f t="shared" si="2"/>
         <v>1.2042904709489841</v>
       </c>
-      <c r="F117" s="134"/>
+      <c r="F117" s="133"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="14">
         <v>2011</v>
       </c>
       <c r="B118" s="10"/>
-      <c r="C118" s="133">
+      <c r="C118" s="132">
         <v>4604175</v>
       </c>
       <c r="D118" s="8"/>
@@ -31746,7 +32962,7 @@
         <f t="shared" si="2"/>
         <v>1.1955359180751461</v>
       </c>
-      <c r="F118" s="134"/>
+      <c r="F118" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/data/Excel Workbooks/JapanDataWorkbook.xlsx
+++ b/data/Excel Workbooks/JapanDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="21840" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="21840" windowHeight="13620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Japan Workbook" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,17 @@
     <sheet name="GDP Comparison Graph" sheetId="8" r:id="rId9"/>
     <sheet name="GDP Comparison" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
   <si>
     <t>GDP [Millions of 1990$]</t>
   </si>
@@ -1024,6 +1029,12 @@
   <si>
     <t xml:space="preserve"> - The 'JPData' tab has the indexed data from this page formatted for direct exporting into R (a statistical analysis program).</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
 </sst>
 </file>
 
@@ -1040,7 +1051,7 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,18 +1884,18 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1893,25 +1904,25 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1920,18 +1931,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1940,7 +1951,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1951,11 +1962,11 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1964,7 +1975,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
@@ -1983,7 +1994,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1994,7 +2005,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2007,7 +2018,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2152,7 +2163,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2217,7 +2228,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3605">
+  <cellStyleXfs count="3607">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -5832,6 +5843,8 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6172,28 +6185,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6209,7 +6222,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3605">
+  <cellStyles count="3607">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="42"/>
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="54"/>
@@ -6526,7 +6539,6 @@
     <cellStyle name="Explanatory Text 7" xfId="328"/>
     <cellStyle name="Explanatory Text 8" xfId="329"/>
     <cellStyle name="Explanatory Text 9" xfId="330"/>
-    <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="44"/>
     <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
@@ -8273,6 +8285,8 @@
     <cellStyle name="Followed Hyperlink" xfId="3602" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3603" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3606" builtinId="9" hidden="1"/>
+    <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="44"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="331"/>
     <cellStyle name="Good 11" xfId="332"/>
@@ -8882,6 +8896,7 @@
     <cellStyle name="Hyperlink" xfId="3113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3605" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="898" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="1133" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="1337" hidden="1"/>
@@ -9865,8 +9880,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31851262570512873"/>
-          <c:y val="3.0467791396409032E-2"/>
+          <c:x val="0.318512625705129"/>
+          <c:y val="0.030467791396409"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9878,10 +9893,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0562236683324689E-2"/>
-          <c:y val="0.10724465384441684"/>
-          <c:w val="0.87199254719542696"/>
-          <c:h val="0.82196197712355601"/>
+          <c:x val="0.0705622366833247"/>
+          <c:y val="0.107244653844417"/>
+          <c:w val="0.871992547195427"/>
+          <c:h val="0.821961977123556"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9912,100 +9927,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10017,100 +10032,100 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0293342659267073</c:v>
+                  <c:v>1.029334265926707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0577886835145012</c:v>
+                  <c:v>1.057788683514501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0748383250011466</c:v>
+                  <c:v>1.074838325001147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1083616169028727</c:v>
+                  <c:v>1.108361616902873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1646933143756975</c:v>
+                  <c:v>1.164693314375697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1991530217554158</c:v>
+                  <c:v>1.199153021755416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2446605207234478</c:v>
+                  <c:v>1.244660520723448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3288591784005259</c:v>
+                  <c:v>1.328859178400526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3991683101713832</c:v>
+                  <c:v>1.399168310171383</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.471945374489749</c:v>
+                  <c:v>1.47194537448975</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5208778608448379</c:v>
+                  <c:v>1.520877860844838</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.533334479964531</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5359575899341069</c:v>
+                  <c:v>1.535957589934107</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5492214374168691</c:v>
+                  <c:v>1.549221437416869</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5790693941200753</c:v>
+                  <c:v>1.579069394120075</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6211392927578774</c:v>
+                  <c:v>1.621139292757877</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.647152914736504</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6124657921692733</c:v>
+                  <c:v>1.612465792169273</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6111754498616397</c:v>
+                  <c:v>1.61117544986164</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6471685853628706</c:v>
+                  <c:v>1.64716858536287</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6530045559479583</c:v>
+                  <c:v>1.653004555947958</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.6576568209267837</c:v>
+                  <c:v>1.657656820926784</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.6862109954287636</c:v>
+                  <c:v>1.686210995428764</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7256165053738781</c:v>
+                  <c:v>1.725616505373878</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7478221651454693</c:v>
+                  <c:v>1.747822165145469</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7771935054808972</c:v>
+                  <c:v>1.777193505480897</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.8156828570991759</c:v>
+                  <c:v>1.815682857099176</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.796180953691388</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6968914828234647</c:v>
+                  <c:v>1.696891482823465</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.7726497882554388</c:v>
+                  <c:v>1.772649788255439</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7597635646470668</c:v>
+                  <c:v>1.759763564647067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10142,100 +10157,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10247,100 +10262,100 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0536237334260374</c:v>
+                  <c:v>1.053623733426037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1034365395701646</c:v>
+                  <c:v>1.103436539570165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1480866652527828</c:v>
+                  <c:v>1.148086665252783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1948727395166703</c:v>
+                  <c:v>1.19487273951667</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.248886384225137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3067800105968412</c:v>
+                  <c:v>1.306780010596841</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.372172687698554</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4538740418932343</c:v>
+                  <c:v>1.453874041893234</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.546189364240544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6472915377590815</c:v>
+                  <c:v>1.647291537759081</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7466279962131233</c:v>
+                  <c:v>1.746627996213123</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8342261208491757</c:v>
+                  <c:v>1.834226120849176</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9100507467712067</c:v>
+                  <c:v>1.910050746771207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9775145087081401</c:v>
+                  <c:v>1.97751450870814</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.041703015872669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1110696906290838</c:v>
+                  <c:v>2.111069690629084</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1753795440151533</c:v>
+                  <c:v>2.175379544015153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2196603471886669</c:v>
+                  <c:v>2.219660347188667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2602792639349554</c:v>
+                  <c:v>2.260279263934955</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2993558446972431</c:v>
+                  <c:v>2.299355844697243</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3313101675015142</c:v>
+                  <c:v>2.331310167501514</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3517249383612211</c:v>
+                  <c:v>2.351724938361221</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3712594936109208</c:v>
+                  <c:v>2.371259493610921</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3899870782672199</c:v>
+                  <c:v>2.38998707826722</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.408948245289908</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4294125749668209</c:v>
+                  <c:v>2.429412574966821</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4488860927026828</c:v>
+                  <c:v>2.448886092702683</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4586584719704803</c:v>
+                  <c:v>2.45865847197048</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.448949316634927</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.4396909278941075</c:v>
+                  <c:v>2.439690927894107</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.4319898156630644</c:v>
+                  <c:v>2.431989815663064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10372,100 +10387,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10477,34 +10492,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0029916611789609</c:v>
+                  <c:v>1.002991661178961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0087116399823868</c:v>
+                  <c:v>1.008711639982387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0222399525746209</c:v>
+                  <c:v>1.022239952574621</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0318805073557682</c:v>
+                  <c:v>1.031880507355768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0289887980410191</c:v>
+                  <c:v>1.02898879804102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0332201578139684</c:v>
+                  <c:v>1.033220157813968</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0399704143504676</c:v>
+                  <c:v>1.039970414350468</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0531399340041874</c:v>
+                  <c:v>1.053139934004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0553742492498805</c:v>
+                  <c:v>1.055374249249881</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.05871082438227</c:v>
@@ -10513,64 +10528,64 @@
                   <c:v>1.055927772259454</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0451106798522563</c:v>
+                  <c:v>1.045110679852256</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0200244734368389</c:v>
+                  <c:v>1.020024473436839</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0163279419921702</c:v>
+                  <c:v>1.01632794199217</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0207514565932923</c:v>
+                  <c:v>1.020751456593292</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0222632815744801</c:v>
+                  <c:v>1.02226328157448</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.013718004839403</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9899080498061561</c:v>
+                  <c:v>0.989908049806156</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96694984177537502</c:v>
+                  <c:v>0.966949841775375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96834554671369732</c:v>
+                  <c:v>0.968345546713697</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.95133849647292601</c:v>
+                  <c:v>0.951338496472926</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.93356130708838037</c:v>
+                  <c:v>0.93356130708838</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93562492315629375</c:v>
+                  <c:v>0.935624923156294</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.94466803254933895</c:v>
+                  <c:v>0.944668032549339</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.94586471575030406</c:v>
+                  <c:v>0.945864715750304</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95474194545049651</c:v>
+                  <c:v>0.954741945450496</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95413482579057574</c:v>
+                  <c:v>0.954134825790576</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94008039644943275</c:v>
+                  <c:v>0.940080396449433</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.90052714038643289</c:v>
+                  <c:v>0.900527140386433</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.90674539813648802</c:v>
+                  <c:v>0.906745398136488</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10602,100 +10617,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10707,100 +10722,100 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99983743613758813</c:v>
+                  <c:v>0.999837436137588</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97102937877489026</c:v>
+                  <c:v>0.97102937877489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95099134588082479</c:v>
+                  <c:v>0.950991345880825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0367137411472442</c:v>
+                  <c:v>1.036713741147244</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0396893105698912</c:v>
+                  <c:v>1.039689310569891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0414738103531078</c:v>
+                  <c:v>1.041473810353108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0733617299602667</c:v>
+                  <c:v>1.073361729960267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1351475419511365</c:v>
+                  <c:v>1.135147541951137</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.173720891832521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2370980586486031</c:v>
+                  <c:v>1.237098058648603</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2710023231063965</c:v>
+                  <c:v>1.271002323106396</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2745486155486876</c:v>
+                  <c:v>1.274548615548688</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.288122730885964</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3398026871261479</c:v>
+                  <c:v>1.339802687126148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3791564047784077</c:v>
+                  <c:v>1.379156404778408</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4012864386092285</c:v>
+                  <c:v>1.401286438609229</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4265399938676402</c:v>
+                  <c:v>1.42653999386764</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4035827541313151</c:v>
+                  <c:v>1.403582754131315</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4317382968893559</c:v>
+                  <c:v>1.431738296889356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4453778789289016</c:v>
+                  <c:v>1.445377878928902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4316435303174873</c:v>
+                  <c:v>1.431643530317487</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4227158649627512</c:v>
+                  <c:v>1.422715864962751</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4213160123608011</c:v>
+                  <c:v>1.421316012360801</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4540689618978362</c:v>
+                  <c:v>1.454068961897836</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4494184786398707</c:v>
+                  <c:v>1.449418478639871</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4602210289300455</c:v>
+                  <c:v>1.460221028930045</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4407170236331532</c:v>
+                  <c:v>1.440717023633153</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3926739939136374</c:v>
+                  <c:v>1.392673993913637</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3155464481509087</c:v>
+                  <c:v>1.315546448150909</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3815050648721896</c:v>
+                  <c:v>1.38150506487219</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3155630212902587</c:v>
+                  <c:v>1.315563021290259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10825,100 +10840,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10930,67 +10945,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96244166909540851</c:v>
+                  <c:v>0.962441669095408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91759880003594474</c:v>
+                  <c:v>0.917598800035945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91013923071693714</c:v>
+                  <c:v>0.910139230716937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98689500826397325</c:v>
+                  <c:v>0.986895008263973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99504886626246991</c:v>
+                  <c:v>0.99504886626247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98913467720185888</c:v>
+                  <c:v>0.989134677201859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0167756710007965</c:v>
+                  <c:v>1.016775671000796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0744431317010756</c:v>
+                  <c:v>1.074443131701076</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1008539570417144</c:v>
+                  <c:v>1.100853957041714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1522601422148309</c:v>
+                  <c:v>1.152260142214831</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1768770566443287</c:v>
+                  <c:v>1.176877056644329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1504677940647756</c:v>
+                  <c:v>1.150467794064776</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1599109354702988</c:v>
+                  <c:v>1.159910935470299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2008261939932141</c:v>
+                  <c:v>1.200826193993214</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2375056651109211</c:v>
+                  <c:v>1.237505665110921</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2440644365677369</c:v>
+                  <c:v>1.244064436567737</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2795893218718608</c:v>
+                  <c:v>1.279589321871861</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2462853863773369</c:v>
+                  <c:v>1.246285386377337</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2611902361123284</c:v>
+                  <c:v>1.261190236112328</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2731847084958923</c:v>
+                  <c:v>1.273184708495892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11019,100 +11034,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11124,100 +11139,100 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0000869014390059</c:v>
+                  <c:v>1.000086901439006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97300641431143586</c:v>
+                  <c:v>0.973006414311436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95474864393683501</c:v>
+                  <c:v>0.954748643936835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0393060325241101</c:v>
+                  <c:v>1.03930603252411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0439056291748303</c:v>
+                  <c:v>1.04390562917483</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0463965749719275</c:v>
+                  <c:v>1.046396574971927</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0787392734743844</c:v>
+                  <c:v>1.078739273474384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1391185569465907</c:v>
+                  <c:v>1.139118556946591</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.177413066518666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2401665249848233</c:v>
+                  <c:v>1.240166524984823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2747636557722588</c:v>
+                  <c:v>1.274763655772259</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2782902307505879</c:v>
+                  <c:v>1.278290230750588</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2933294669770325</c:v>
+                  <c:v>1.293329466977033</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.343381563513065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3835589095496614</c:v>
+                  <c:v>1.383558909549661</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4057887768355393</c:v>
+                  <c:v>1.405788776835539</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4318444937368253</c:v>
+                  <c:v>1.431844493736825</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4101377756299887</c:v>
+                  <c:v>1.410137775629989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4364013063762613</c:v>
+                  <c:v>1.436401306376261</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4497146406276049</c:v>
+                  <c:v>1.449714640627605</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4360334758929683</c:v>
+                  <c:v>1.436033475892968</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4262219526933959</c:v>
+                  <c:v>1.426221952693396</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4230929592871291</c:v>
+                  <c:v>1.423092959287129</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4564449671384423</c:v>
+                  <c:v>1.456444967138442</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4525284696783898</c:v>
+                  <c:v>1.45252846967839</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.464207696978238</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4436007374211801</c:v>
+                  <c:v>1.44360073742118</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3965554306327792</c:v>
+                  <c:v>1.39655543063278</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3224903625563731</c:v>
+                  <c:v>1.322490362556373</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.387256019204129</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3181876081262711</c:v>
+                  <c:v>1.318187608126271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11232,15 +11247,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78531584"/>
-        <c:axId val="211666048"/>
+        <c:axId val="-2145658776"/>
+        <c:axId val="-2145653160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78531584"/>
+        <c:axId val="-2145658776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2015"/>
-          <c:min val="1980"/>
+          <c:max val="2015.0"/>
+          <c:min val="1980.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11266,15 +11281,15 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211666048"/>
+        <c:crossAx val="-2145653160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211666048"/>
+        <c:axId val="-2145653160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11298,8 +11313,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6287426061404243E-2"/>
-              <c:y val="0.41273294315732156"/>
+              <c:x val="0.0162874260614042"/>
+              <c:y val="0.412732943157322"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -11308,10 +11323,10 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78531584"/>
+        <c:crossAx val="-2145658776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -11392,280 +11407,280 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1901</c:v>
+                  <c:v>1901.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1902</c:v>
+                  <c:v>1902.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1903</c:v>
+                  <c:v>1903.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1904</c:v>
+                  <c:v>1904.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1905</c:v>
+                  <c:v>1905.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1906</c:v>
+                  <c:v>1906.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1907</c:v>
+                  <c:v>1907.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1908</c:v>
+                  <c:v>1908.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1909</c:v>
+                  <c:v>1909.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1910</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1911</c:v>
+                  <c:v>1911.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1912</c:v>
+                  <c:v>1912.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1913</c:v>
+                  <c:v>1913.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1914</c:v>
+                  <c:v>1914.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1915</c:v>
+                  <c:v>1915.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1916</c:v>
+                  <c:v>1916.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1917</c:v>
+                  <c:v>1917.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1918</c:v>
+                  <c:v>1918.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1919</c:v>
+                  <c:v>1919.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1920</c:v>
+                  <c:v>1920.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1921</c:v>
+                  <c:v>1921.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1922</c:v>
+                  <c:v>1922.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1923</c:v>
+                  <c:v>1923.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1924</c:v>
+                  <c:v>1924.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1925</c:v>
+                  <c:v>1925.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1926</c:v>
+                  <c:v>1926.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1927</c:v>
+                  <c:v>1927.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1928</c:v>
+                  <c:v>1928.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1929</c:v>
+                  <c:v>1929.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1930</c:v>
+                  <c:v>1930.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1931</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1932</c:v>
+                  <c:v>1932.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1933</c:v>
+                  <c:v>1933.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1934</c:v>
+                  <c:v>1934.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1935</c:v>
+                  <c:v>1935.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1936</c:v>
+                  <c:v>1936.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1937</c:v>
+                  <c:v>1937.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1938</c:v>
+                  <c:v>1938.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1939</c:v>
+                  <c:v>1939.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1940</c:v>
+                  <c:v>1940.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1941</c:v>
+                  <c:v>1941.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1942</c:v>
+                  <c:v>1942.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1943</c:v>
+                  <c:v>1943.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1944</c:v>
+                  <c:v>1944.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1945</c:v>
+                  <c:v>1945.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1946</c:v>
+                  <c:v>1946.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1947</c:v>
+                  <c:v>1947.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1948</c:v>
+                  <c:v>1948.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1949</c:v>
+                  <c:v>1949.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1950</c:v>
+                  <c:v>1950.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1951</c:v>
+                  <c:v>1951.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1952</c:v>
+                  <c:v>1952.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1953</c:v>
+                  <c:v>1953.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1954</c:v>
+                  <c:v>1954.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1955</c:v>
+                  <c:v>1955.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1956</c:v>
+                  <c:v>1956.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1957</c:v>
+                  <c:v>1957.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1958</c:v>
+                  <c:v>1958.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1959</c:v>
+                  <c:v>1959.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1960</c:v>
+                  <c:v>1960.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1961</c:v>
+                  <c:v>1961.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1962</c:v>
+                  <c:v>1962.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1963</c:v>
+                  <c:v>1963.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1965</c:v>
+                  <c:v>1965.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1966</c:v>
+                  <c:v>1966.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1967</c:v>
+                  <c:v>1967.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1968</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1969</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1970</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1971</c:v>
+                  <c:v>1971.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1972</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1973</c:v>
+                  <c:v>1973.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1974</c:v>
+                  <c:v>1974.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1975</c:v>
+                  <c:v>1975.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1976</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1977</c:v>
+                  <c:v>1977.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1978</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1979</c:v>
+                  <c:v>1979.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11677,280 +11692,280 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="92"/>
                 <c:pt idx="0">
-                  <c:v>5.9409389180787898E-3</c:v>
+                  <c:v>0.00594093891807879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0789474548925667E-3</c:v>
+                  <c:v>0.00607894745489256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2127312405793915E-3</c:v>
+                  <c:v>0.00621273124057939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3191323800730068E-3</c:v>
+                  <c:v>0.006319132380073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4313229933331863E-3</c:v>
+                  <c:v>0.00643132299333318</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6359887145944338E-3</c:v>
+                  <c:v>0.00663598871459443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9226459021713496E-3</c:v>
+                  <c:v>0.00692264590217135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2645377989265687E-3</c:v>
+                  <c:v>0.00726453779892657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.581081188920074E-3</c:v>
+                  <c:v>0.00758108118892007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9228166134113313E-3</c:v>
+                  <c:v>0.00792281661341133</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2468706720749737E-3</c:v>
+                  <c:v>0.00824687067207497</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.6347654144347859E-3</c:v>
+                  <c:v>0.00863476541443478</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0849361178511542E-3</c:v>
+                  <c:v>0.00908493611785115</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5430869067295431E-3</c:v>
+                  <c:v>0.00954308690672954</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9966999999530591E-3</c:v>
+                  <c:v>0.00999669999995306</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0414168000201536E-2</c:v>
+                  <c:v>0.0104141680002015</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0844779670622754E-2</c:v>
+                  <c:v>0.0108447796706228</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.148647242512763E-2</c:v>
+                  <c:v>0.0114864724251276</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2339559208244085E-2</c:v>
+                  <c:v>0.0123395592082441</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3369459649636695E-2</c:v>
+                  <c:v>0.0133694596496367</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4517653122583971E-2</c:v>
+                  <c:v>0.014517653122584</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.550968727609797E-2</c:v>
+                  <c:v>0.015509687276098</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.6372475339580018E-2</c:v>
+                  <c:v>0.01637247533958</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.7038577767262843E-2</c:v>
+                  <c:v>0.0170385777672628</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7666500962539133E-2</c:v>
+                  <c:v>0.0176665009625391</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.838423923732915E-2</c:v>
+                  <c:v>0.0183842392373291</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.9341380075979801E-2</c:v>
+                  <c:v>0.0193413800759798</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0375348796235402E-2</c:v>
+                  <c:v>0.0203753487962354</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.1411977544978342E-2</c:v>
+                  <c:v>0.0214119775449783</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2494452667061914E-2</c:v>
+                  <c:v>0.0224944526670619</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3574424232922109E-2</c:v>
+                  <c:v>0.0235744242329221</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.4373215140444028E-2</c:v>
+                  <c:v>0.024373215140444</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.4791309029748351E-2</c:v>
+                  <c:v>0.0247913090297483</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.5096429944472688E-2</c:v>
+                  <c:v>0.0250964299444727</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.5598862384052096E-2</c:v>
+                  <c:v>0.0255988623840521</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.6496543762397493E-2</c:v>
+                  <c:v>0.0264965437623975</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.7760839655203977E-2</c:v>
+                  <c:v>0.027760839655204</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.9227297713048331E-2</c:v>
+                  <c:v>0.0292272977130483</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.0989644822043312E-2</c:v>
+                  <c:v>0.0309896448220433</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.3344552394659353E-2</c:v>
+                  <c:v>0.0333445523946593</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.6005989132375377E-2</c:v>
+                  <c:v>0.0360059891323754</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.8662105813116729E-2</c:v>
+                  <c:v>0.0386621058131167</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.1174737427805655E-2</c:v>
+                  <c:v>0.0411747374278056</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.3776401760688505E-2</c:v>
+                  <c:v>0.0437764017606885</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.6709787293169096E-2</c:v>
+                  <c:v>0.0467097872931691</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.2437468597972525E-2</c:v>
+                  <c:v>0.0424374685979725</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.7347738795842654E-2</c:v>
+                  <c:v>0.0373477387958426</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.8901038960185479E-2</c:v>
+                  <c:v>0.0389010389601855</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.0658691901261618E-2</c:v>
+                  <c:v>0.0406586919012616</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.2212930899188206E-2</c:v>
+                  <c:v>0.0422129308991882</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.3285235324114303E-2</c:v>
+                  <c:v>0.0432852353241143</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.4236899633526311E-2</c:v>
+                  <c:v>0.0442368996335263</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.5430157118494414E-2</c:v>
+                  <c:v>0.0454301571184944</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.6810868375688028E-2</c:v>
+                  <c:v>0.046810868375688</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.8292034826344733E-2</c:v>
+                  <c:v>0.0482920348263447</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9790882642829055E-2</c:v>
+                  <c:v>0.049790882642829</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.1787938147765833E-2</c:v>
+                  <c:v>0.0517879381477658</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.4405719123836689E-2</c:v>
+                  <c:v>0.0544057191238367</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7348336519890991E-2</c:v>
+                  <c:v>0.057348336519891</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.1402532879125643E-2</c:v>
+                  <c:v>0.0614025328791256</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.7562532966750119E-2</c:v>
+                  <c:v>0.0675625329667501</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.5955861677892769E-2</c:v>
+                  <c:v>0.0759558616778928</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.6084780740893041E-2</c:v>
+                  <c:v>0.086084780740893</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.7462035525775759E-2</c:v>
+                  <c:v>0.0974620355257757</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.11020998734295857</c:v>
+                  <c:v>0.110209987342959</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.12373388511712496</c:v>
+                  <c:v>0.123733885117125</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.13794813851988819</c:v>
+                  <c:v>0.137948138519888</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.15575217860244919</c:v>
+                  <c:v>0.155752178602449</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.177073558706594</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.20125321765651802</c:v>
+                  <c:v>0.201253217656518</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.22940774152784837</c:v>
+                  <c:v>0.229407741527848</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.25976821137650374</c:v>
+                  <c:v>0.259768211376504</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.29172923601321815</c:v>
+                  <c:v>0.291729236013218</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.32659814120338748</c:v>
+                  <c:v>0.326598141203387</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.36130290698866158</c:v>
+                  <c:v>0.361302906988662</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.39330821327607701</c:v>
+                  <c:v>0.393308213276077</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.42451801457351374</c:v>
+                  <c:v>0.424518014573514</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.4561074175833203</c:v>
+                  <c:v>0.45610741758332</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.4893091108009831</c:v>
+                  <c:v>0.489309110800983</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.52564071871466167</c:v>
+                  <c:v>0.525640718714662</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.5642588558216054</c:v>
+                  <c:v>0.564258855821605</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.60347690758857619</c:v>
+                  <c:v>0.603476907588576</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.64185877157693838</c:v>
+                  <c:v>0.641858771576938</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.67815204378594662</c:v>
+                  <c:v>0.678152043785947</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.71455500305199149</c:v>
+                  <c:v>0.714555003051991</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.75304326817984735</c:v>
+                  <c:v>0.753043268179847</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.79299939961592314</c:v>
+                  <c:v>0.792999399615923</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.83432043861053251</c:v>
+                  <c:v>0.834320438610532</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.88100785036995521</c:v>
+                  <c:v>0.881007850369955</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.93665126510172492</c:v>
+                  <c:v>0.936651265101725</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0683384789237338</c:v>
+                  <c:v>1.068338478923734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11984,157 +11999,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>1961</c:v>
+                  <c:v>1961.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1962</c:v>
+                  <c:v>1962.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1963</c:v>
+                  <c:v>1963.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1965</c:v>
+                  <c:v>1965.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1966</c:v>
+                  <c:v>1966.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1967</c:v>
+                  <c:v>1967.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1968</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1969</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1970</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1971</c:v>
+                  <c:v>1971.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1972</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1973</c:v>
+                  <c:v>1973.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1974</c:v>
+                  <c:v>1974.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1975</c:v>
+                  <c:v>1975.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1976</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1977</c:v>
+                  <c:v>1977.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1978</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1979</c:v>
+                  <c:v>1979.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12146,100 +12161,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="19">
-                  <c:v>0.60705708557233617</c:v>
+                  <c:v>0.607057085572336</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.63960975290345434</c:v>
+                  <c:v>0.639609752903454</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66984896982548803</c:v>
+                  <c:v>0.669848969825488</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.6969541449928166</c:v>
+                  <c:v>0.696954144992816</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.72535596288082316</c:v>
+                  <c:v>0.725355962880823</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.75814532861868456</c:v>
+                  <c:v>0.758145328618684</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.79329006471710506</c:v>
+                  <c:v>0.793290064717105</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.83298715269624368</c:v>
+                  <c:v>0.832987152696244</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.88258453866097941</c:v>
+                  <c:v>0.882584538660979</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.93862520919880799</c:v>
+                  <c:v>0.938625209198808</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0603029009601881</c:v>
+                  <c:v>1.060302900960188</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1134799632033523</c:v>
+                  <c:v>1.113479963203352</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1595098396301931</c:v>
+                  <c:v>1.159509839630193</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2004641943333738</c:v>
+                  <c:v>1.200464194333374</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2394302824199117</c:v>
+                  <c:v>1.239430282419912</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2815398138333849</c:v>
+                  <c:v>1.281539813833385</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3205795660035167</c:v>
+                  <c:v>1.320579566003517</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.347460541324832</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3721185425439393</c:v>
+                  <c:v>1.37211854254394</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3958402577756257</c:v>
+                  <c:v>1.395840257775626</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4152383558486241</c:v>
+                  <c:v>1.415238355848624</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4276312871493448</c:v>
+                  <c:v>1.427631287149345</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4394898773271794</c:v>
+                  <c:v>1.439489877327179</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4508585902884414</c:v>
+                  <c:v>1.450858590288441</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4623691010802848</c:v>
+                  <c:v>1.462369101080285</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4747921174121432</c:v>
+                  <c:v>1.474792117412143</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4866136543347166</c:v>
+                  <c:v>1.486613654334717</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4925460464121334</c:v>
+                  <c:v>1.492546046412133</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4866520348707633</c:v>
+                  <c:v>1.486652034870763</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.4810316643846655</c:v>
+                  <c:v>1.481031664384665</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4763566496380229</c:v>
+                  <c:v>1.476356649638023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12254,15 +12269,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236932480"/>
-        <c:axId val="236955520"/>
+        <c:axId val="-2146529048"/>
+        <c:axId val="-2146520648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236932480"/>
+        <c:axId val="-2146529048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2011"/>
-          <c:min val="1900"/>
+          <c:max val="2011.0"/>
+          <c:min val="1900.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12288,13 +12303,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236955520"/>
+        <c:crossAx val="-2146520648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236955520"/>
+        <c:axId val="-2146520648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12327,7 +12342,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236932480"/>
+        <c:crossAx val="-2146529048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12413,331 +12428,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1901</c:v>
+                  <c:v>1901.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1902</c:v>
+                  <c:v>1902.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1903</c:v>
+                  <c:v>1903.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1904</c:v>
+                  <c:v>1904.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1905</c:v>
+                  <c:v>1905.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1906</c:v>
+                  <c:v>1906.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1907</c:v>
+                  <c:v>1907.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1908</c:v>
+                  <c:v>1908.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1909</c:v>
+                  <c:v>1909.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1910</c:v>
+                  <c:v>1910.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1911</c:v>
+                  <c:v>1911.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1912</c:v>
+                  <c:v>1912.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1913</c:v>
+                  <c:v>1913.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1914</c:v>
+                  <c:v>1914.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1915</c:v>
+                  <c:v>1915.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1916</c:v>
+                  <c:v>1916.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1917</c:v>
+                  <c:v>1917.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1918</c:v>
+                  <c:v>1918.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1919</c:v>
+                  <c:v>1919.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1920</c:v>
+                  <c:v>1920.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1921</c:v>
+                  <c:v>1921.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1922</c:v>
+                  <c:v>1922.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1923</c:v>
+                  <c:v>1923.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1924</c:v>
+                  <c:v>1924.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1925</c:v>
+                  <c:v>1925.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1926</c:v>
+                  <c:v>1926.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1927</c:v>
+                  <c:v>1927.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1928</c:v>
+                  <c:v>1928.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1929</c:v>
+                  <c:v>1929.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1930</c:v>
+                  <c:v>1930.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1931</c:v>
+                  <c:v>1931.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1932</c:v>
+                  <c:v>1932.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1933</c:v>
+                  <c:v>1933.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1934</c:v>
+                  <c:v>1934.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1935</c:v>
+                  <c:v>1935.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1936</c:v>
+                  <c:v>1936.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1937</c:v>
+                  <c:v>1937.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1938</c:v>
+                  <c:v>1938.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1939</c:v>
+                  <c:v>1939.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1940</c:v>
+                  <c:v>1940.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1941</c:v>
+                  <c:v>1941.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1942</c:v>
+                  <c:v>1942.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1943</c:v>
+                  <c:v>1943.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1944</c:v>
+                  <c:v>1944.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1945</c:v>
+                  <c:v>1945.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1946</c:v>
+                  <c:v>1946.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1947</c:v>
+                  <c:v>1947.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1948</c:v>
+                  <c:v>1948.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1949</c:v>
+                  <c:v>1949.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1950</c:v>
+                  <c:v>1950.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1951</c:v>
+                  <c:v>1951.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1952</c:v>
+                  <c:v>1952.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1953</c:v>
+                  <c:v>1953.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1954</c:v>
+                  <c:v>1954.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1955</c:v>
+                  <c:v>1955.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1956</c:v>
+                  <c:v>1956.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1957</c:v>
+                  <c:v>1957.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1958</c:v>
+                  <c:v>1958.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1959</c:v>
+                  <c:v>1959.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1960</c:v>
+                  <c:v>1960.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1961</c:v>
+                  <c:v>1961.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1962</c:v>
+                  <c:v>1962.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1963</c:v>
+                  <c:v>1963.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1965</c:v>
+                  <c:v>1965.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1966</c:v>
+                  <c:v>1966.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1967</c:v>
+                  <c:v>1967.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1968</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1969</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1970</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1971</c:v>
+                  <c:v>1971.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1972</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1973</c:v>
+                  <c:v>1973.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1974</c:v>
+                  <c:v>1974.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1975</c:v>
+                  <c:v>1975.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1976</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1977</c:v>
+                  <c:v>1977.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1978</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1979</c:v>
+                  <c:v>1979.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12749,331 +12764,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>2.2411309379433413E-2</c:v>
+                  <c:v>0.0224113093794334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.321391825528089E-2</c:v>
+                  <c:v>0.0232139182552809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2010004941509669E-2</c:v>
+                  <c:v>0.0220100049415097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3553483548908665E-2</c:v>
+                  <c:v>0.0235534835489087</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3738700981796545E-2</c:v>
+                  <c:v>0.0237387009817965</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3337396543872808E-2</c:v>
+                  <c:v>0.0233373965438728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.639348418652282E-2</c:v>
+                  <c:v>0.0263934841865228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7226962634518279E-2</c:v>
+                  <c:v>0.0272269626345183</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7412180067406151E-2</c:v>
+                  <c:v>0.0274121800674061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7381310495258177E-2</c:v>
+                  <c:v>0.0273813104952582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7813484505329892E-2</c:v>
+                  <c:v>0.0278134845053299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9326093540580911E-2</c:v>
+                  <c:v>0.0293260935405809</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0375658993612224E-2</c:v>
+                  <c:v>0.0303756589936122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0869572147979904E-2</c:v>
+                  <c:v>0.0308695721479799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9943484983540509E-2</c:v>
+                  <c:v>0.0299434849835405</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2721746476858694E-2</c:v>
+                  <c:v>0.0327217464768587</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7784356309127409E-2</c:v>
+                  <c:v>0.0377843563091274</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.9050008767194576E-2</c:v>
+                  <c:v>0.0390500087671946</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.945131320511832E-2</c:v>
+                  <c:v>0.0394513132051183</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3495227156503689E-2</c:v>
+                  <c:v>0.0434952271565037</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0778704807481449E-2</c:v>
+                  <c:v>0.0407787048074814</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.525479276893854E-2</c:v>
+                  <c:v>0.0452547927689385</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5131314480346622E-2</c:v>
+                  <c:v>0.0451313144803466</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5162184052494607E-2</c:v>
+                  <c:v>0.0451621840524946</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.642783651056178E-2</c:v>
+                  <c:v>0.0464278365105618</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.8341749983736526E-2</c:v>
+                  <c:v>0.0483417499837365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8773923993808255E-2</c:v>
+                  <c:v>0.0487739239938082</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.9483924153211789E-2</c:v>
+                  <c:v>0.0494839241532118</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.3527838104597159E-2</c:v>
+                  <c:v>0.0535278381045971</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5194795000588069E-2</c:v>
+                  <c:v>0.0551947950005881</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.1181750621350684E-2</c:v>
+                  <c:v>0.0511817506213507</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.1613924631422399E-2</c:v>
+                  <c:v>0.0516139246314224</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.5935664732139581E-2</c:v>
+                  <c:v>0.0559356647321396</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.1430448574480011E-2</c:v>
+                  <c:v>0.06143044857448</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.1553926863071942E-2</c:v>
+                  <c:v>0.0615539268630719</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.325175333121083E-2</c:v>
+                  <c:v>0.0632517533312108</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.7851319581259825E-2</c:v>
+                  <c:v>0.0678513195812598</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.109262465679772E-2</c:v>
+                  <c:v>0.0710926246567977</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.584653876758661E-2</c:v>
+                  <c:v>0.0758465387675866</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.7793063188854839E-2</c:v>
+                  <c:v>0.0877930631888548</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.0355237677137171E-2</c:v>
+                  <c:v>0.0903552376771371</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.159002056305636E-2</c:v>
+                  <c:v>0.0915900205630563</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.1096107408688703E-2</c:v>
+                  <c:v>0.0910961074086887</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.2392629438903875E-2</c:v>
+                  <c:v>0.0923926294389039</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.8410454631814434E-2</c:v>
+                  <c:v>0.0884104546318144</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.4205227315907217E-2</c:v>
+                  <c:v>0.0442052273159072</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.8033054262256722E-2</c:v>
+                  <c:v>0.0480330542622567</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.1860881208606234E-2</c:v>
+                  <c:v>0.0518608812086062</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.957827424560122E-2</c:v>
+                  <c:v>0.0595782742456012</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.3560449052690621E-2</c:v>
+                  <c:v>0.0635604490526906</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.9347432073628923E-2</c:v>
+                  <c:v>0.0693474320736289</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.798925792483305E-2</c:v>
+                  <c:v>0.077989257924833</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.7027869339074165E-2</c:v>
+                  <c:v>0.0870278693390741</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.3440199762790305E-2</c:v>
+                  <c:v>0.0934401997627903</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.8722919169912535E-2</c:v>
+                  <c:v>0.0987229191699125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.10721180378889285</c:v>
+                  <c:v>0.107211803788893</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.11527331459839141</c:v>
+                  <c:v>0.115273314598391</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.12370145354485465</c:v>
+                  <c:v>0.123701453544855</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.13090778591501723</c:v>
+                  <c:v>0.130907785915017</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.14284711089704125</c:v>
+                  <c:v>0.142847110897041</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.16159641350656334</c:v>
+                  <c:v>0.161596413506563</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.18105053824543232</c:v>
+                  <c:v>0.181050538245432</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.19720457893124668</c:v>
+                  <c:v>0.197204578931247</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.21390834641232181</c:v>
+                  <c:v>0.213908346412322</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.23886792469087562</c:v>
+                  <c:v>0.238867924690876</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.252781268619518</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.27968384677787289</c:v>
+                  <c:v>0.279683846777873</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.31067835683386663</c:v>
+                  <c:v>0.310678356833867</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.35068089005765668</c:v>
+                  <c:v>0.350680890057657</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.39444017692931055</c:v>
+                  <c:v>0.39444017692931</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.43668039116766538</c:v>
+                  <c:v>0.436680391167665</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.45719950386725905</c:v>
+                  <c:v>0.457199503867259</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.49566573164285166</c:v>
+                  <c:v>0.495665731642852</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.53548042718424849</c:v>
+                  <c:v>0.535480427184248</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.5289207561931506</c:v>
+                  <c:v>0.528920756193151</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.54527254342992471</c:v>
+                  <c:v>0.545272543429925</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.56694496226659763</c:v>
+                  <c:v>0.566944962266598</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.59183560928555767</c:v>
+                  <c:v>0.591835609285558</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.62303734394070531</c:v>
+                  <c:v>0.623037343940705</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.65720656932136745</c:v>
+                  <c:v>0.657206569321367</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.67572322892976033</c:v>
+                  <c:v>0.67572322892976</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.69714706441152308</c:v>
+                  <c:v>0.697147064411523</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.71845888659644586</c:v>
+                  <c:v>0.718458886596446</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.73514326716076017</c:v>
+                  <c:v>0.73514326716076</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.76394059331720054</c:v>
+                  <c:v>0.7639405933172</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.79758421784345968</c:v>
+                  <c:v>0.79758421784346</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.82067748226851056</c:v>
+                  <c:v>0.820677482268511</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.85480879545639599</c:v>
+                  <c:v>0.854808795456396</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.90776437399861187</c:v>
+                  <c:v>0.907764373998612</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.95162102627444201</c:v>
+                  <c:v>0.951621026274442</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0335069551584555</c:v>
+                  <c:v>1.033506955158455</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.0435524027786649</c:v>
+                  <c:v>1.043552402778665</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0461361193018999</c:v>
+                  <c:v>1.0461361193019</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0576293072117475</c:v>
+                  <c:v>1.057629307211748</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.0788803916618581</c:v>
+                  <c:v>1.078880391661858</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.1159390072519346</c:v>
+                  <c:v>1.115939007251935</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.1357060578967568</c:v>
+                  <c:v>1.135706057896757</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.1022948508779904</c:v>
+                  <c:v>1.10229485087799</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.1006999538591382</c:v>
+                  <c:v>1.100699953859138</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.1322200647695349</c:v>
+                  <c:v>1.132220064769535</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.1343099743963452</c:v>
+                  <c:v>1.134309974396345</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.1372800500440945</c:v>
+                  <c:v>1.137280050044094</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.1572800241948722</c:v>
+                  <c:v>1.157280024194872</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.1849899597312197</c:v>
+                  <c:v>1.18498995973122</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>1.207504632396055</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.2316546991947537</c:v>
+                  <c:v>1.231654699194754</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.2599828619655835</c:v>
+                  <c:v>1.259982861965583</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.2511631073005527</c:v>
+                  <c:v>1.251163107300553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13107,160 +13122,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1960</c:v>
+                  <c:v>1960.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1961</c:v>
+                  <c:v>1961.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1962</c:v>
+                  <c:v>1962.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1963</c:v>
+                  <c:v>1963.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1964</c:v>
+                  <c:v>1964.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1965</c:v>
+                  <c:v>1965.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1966</c:v>
+                  <c:v>1966.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1967</c:v>
+                  <c:v>1967.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1968</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1969</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1970</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1971</c:v>
+                  <c:v>1971.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1972</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1973</c:v>
+                  <c:v>1973.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1974</c:v>
+                  <c:v>1974.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1975</c:v>
+                  <c:v>1975.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1976</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1977</c:v>
+                  <c:v>1977.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1978</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1979</c:v>
+                  <c:v>1979.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1981</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1982</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1983</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1984</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1985</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1986</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1987</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1988</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1989</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1990</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13272,100 +13287,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="20">
-                  <c:v>0.67937303743126387</c:v>
+                  <c:v>0.679373037431264</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.69930194677470747</c:v>
+                  <c:v>0.699301946774707</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.71863311087966442</c:v>
+                  <c:v>0.718633110879664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.73021617760356095</c:v>
+                  <c:v>0.730216177603561</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.75299099824753146</c:v>
+                  <c:v>0.752990998247531</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.79126123466330356</c:v>
+                  <c:v>0.791261234663303</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.81467223073485528</c:v>
+                  <c:v>0.814672230734855</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.84558879853466729</c:v>
+                  <c:v>0.845588798534667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90279109634837906</c:v>
+                  <c:v>0.902791096348379</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9505572247587013</c:v>
+                  <c:v>0.950557224758701</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0332434118841205</c:v>
+                  <c:v>1.03324341188412</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0417061030515906</c:v>
+                  <c:v>1.041706103051591</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0434881732391379</c:v>
+                  <c:v>1.043488173239138</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0524992735915271</c:v>
+                  <c:v>1.052499273591527</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0727771705981011</c:v>
+                  <c:v>1.072777170598101</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1.10135832542009</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1190312787982983</c:v>
+                  <c:v>1.119031278798298</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0954657829800483</c:v>
+                  <c:v>1.095465782980048</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0945891592071852</c:v>
+                  <c:v>1.094589159207185</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1190419249993313</c:v>
+                  <c:v>1.119041924999331</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1.123006726062082</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1261673494516817</c:v>
+                  <c:v>1.126167349451682</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1455662857144342</c:v>
+                  <c:v>1.145566285714434</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1723373266973744</c:v>
+                  <c:v>1.172337326697374</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1874232532245654</c:v>
+                  <c:v>1.187423253224565</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2073773499216724</c:v>
+                  <c:v>1.207377349921672</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2335259776393426</c:v>
+                  <c:v>1.233525977639343</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2202769102855024</c:v>
+                  <c:v>1.220276910285502</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1528223208770185</c:v>
+                  <c:v>1.152822320877019</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2042904709489841</c:v>
+                  <c:v>1.204290470948984</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1955359180751461</c:v>
+                  <c:v>1.195535918075146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13380,15 +13395,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236837888"/>
-        <c:axId val="236844544"/>
+        <c:axId val="-2146471080"/>
+        <c:axId val="-2146462840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236837888"/>
+        <c:axId val="-2146471080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2011"/>
-          <c:min val="1900"/>
+          <c:max val="2011.0"/>
+          <c:min val="1900.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13414,13 +13429,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236844544"/>
+        <c:crossAx val="-2146462840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236844544"/>
+        <c:axId val="-2146462840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13453,7 +13468,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236837888"/>
+        <c:crossAx val="-2146471080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14254,26 +14269,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="17" style="131" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" style="58" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" customWidth="1"/>
-    <col min="15" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" style="58" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="25.5" customWidth="1"/>
+    <col min="15" max="34" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="118" customFormat="1">
@@ -16139,1025 +16154,1269 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="9" width="8.83203125" style="39"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="39" t="str">
+        <f>'Japan Workbook'!A9</f>
+        <v>Year</v>
+      </c>
+      <c r="B1" s="39" t="str">
         <f>'Japan Workbook'!H7</f>
         <v>iYear</v>
       </c>
-      <c r="B1" s="39" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Japan Workbook'!I7</f>
         <v>iGDP</v>
       </c>
-      <c r="C1" s="39" t="str">
+      <c r="D1" s="39" t="str">
         <f>'Japan Workbook'!J7</f>
         <v>iLabor</v>
       </c>
-      <c r="D1" s="39" t="str">
+      <c r="E1" s="39" t="str">
         <f>'Japan Workbook'!K7</f>
         <v>iCapStk</v>
       </c>
-      <c r="E1" s="39" t="str">
+      <c r="F1" s="39" t="str">
         <f>'Japan Workbook'!L7</f>
         <v>iQ</v>
       </c>
-      <c r="F1" s="39" t="str">
+      <c r="G1" s="39" t="str">
         <f>'Japan Workbook'!M7</f>
         <v>iX</v>
       </c>
-      <c r="G1" s="39" t="str">
+      <c r="H1" s="39" t="str">
         <f>'Japan Workbook'!N7</f>
         <v>iU</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="140">
+      <c r="I1" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="39">
+        <f>'Japan Workbook'!A10</f>
+        <v>1980</v>
+      </c>
+      <c r="B2" s="140">
         <f>'Japan Workbook'!H10</f>
         <v>0</v>
       </c>
-      <c r="B2" s="141">
+      <c r="C2" s="141">
         <f>'Japan Workbook'!I10</f>
         <v>1</v>
       </c>
-      <c r="C2" s="141">
+      <c r="D2" s="141">
         <f>'Japan Workbook'!J10</f>
         <v>1</v>
       </c>
-      <c r="D2" s="141">
+      <c r="E2" s="141">
         <f>'Japan Workbook'!K10</f>
         <v>1</v>
       </c>
-      <c r="E2" s="141">
+      <c r="F2" s="141">
         <f>'Japan Workbook'!L10</f>
         <v>1</v>
       </c>
-      <c r="F2" s="141">
+      <c r="G2" s="141">
         <f>'Japan Workbook'!M10</f>
         <v>1</v>
       </c>
-      <c r="G2" s="141">
+      <c r="H2" s="141">
         <f>'Japan Workbook'!N10</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="140">
+      <c r="I2" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="39">
+        <f>'Japan Workbook'!A11</f>
+        <v>1981</v>
+      </c>
+      <c r="B3" s="140">
         <f>'Japan Workbook'!H11</f>
         <v>1</v>
       </c>
-      <c r="B3" s="141">
+      <c r="C3" s="141">
         <f>'Japan Workbook'!I11</f>
         <v>1.0293342659267073</v>
       </c>
-      <c r="C3" s="141">
+      <c r="D3" s="141">
         <f>'Japan Workbook'!J11</f>
         <v>1.0029916611789609</v>
       </c>
-      <c r="D3" s="141">
+      <c r="E3" s="141">
         <f>'Japan Workbook'!K11</f>
         <v>1.0536237334260374</v>
       </c>
-      <c r="E3" s="141">
+      <c r="F3" s="141">
         <f>'Japan Workbook'!L11</f>
         <v>1.0000869014390059</v>
       </c>
-      <c r="F3" s="141">
+      <c r="G3" s="141">
         <f>'Japan Workbook'!M11</f>
         <v>0.99983743613758813</v>
       </c>
-      <c r="G3" s="141">
+      <c r="H3" s="141">
         <f>'Japan Workbook'!N11</f>
         <v>0.96244166909540851</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="140">
+      <c r="I3" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="39">
+        <f>'Japan Workbook'!A12</f>
+        <v>1982</v>
+      </c>
+      <c r="B4" s="140">
         <f>'Japan Workbook'!H12</f>
         <v>2</v>
       </c>
-      <c r="B4" s="141">
+      <c r="C4" s="141">
         <f>'Japan Workbook'!I12</f>
         <v>1.0577886835145012</v>
       </c>
-      <c r="C4" s="141">
+      <c r="D4" s="141">
         <f>'Japan Workbook'!J12</f>
         <v>1.0087116399823868</v>
       </c>
-      <c r="D4" s="141">
+      <c r="E4" s="141">
         <f>'Japan Workbook'!K12</f>
         <v>1.1034365395701646</v>
       </c>
-      <c r="E4" s="141">
+      <c r="F4" s="141">
         <f>'Japan Workbook'!L12</f>
         <v>0.97300641431143586</v>
       </c>
-      <c r="F4" s="141">
+      <c r="G4" s="141">
         <f>'Japan Workbook'!M12</f>
         <v>0.97102937877489026</v>
       </c>
-      <c r="G4" s="141">
+      <c r="H4" s="141">
         <f>'Japan Workbook'!N12</f>
         <v>0.91759880003594474</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="140">
+      <c r="I4" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="39">
+        <f>'Japan Workbook'!A13</f>
+        <v>1983</v>
+      </c>
+      <c r="B5" s="140">
         <f>'Japan Workbook'!H13</f>
         <v>3</v>
       </c>
-      <c r="B5" s="141">
+      <c r="C5" s="141">
         <f>'Japan Workbook'!I13</f>
         <v>1.0748383250011466</v>
       </c>
-      <c r="C5" s="141">
+      <c r="D5" s="141">
         <f>'Japan Workbook'!J13</f>
         <v>1.0222399525746209</v>
       </c>
-      <c r="D5" s="141">
+      <c r="E5" s="141">
         <f>'Japan Workbook'!K13</f>
         <v>1.1480866652527828</v>
       </c>
-      <c r="E5" s="141">
+      <c r="F5" s="141">
         <f>'Japan Workbook'!L13</f>
         <v>0.95474864393683501</v>
       </c>
-      <c r="F5" s="141">
+      <c r="G5" s="141">
         <f>'Japan Workbook'!M13</f>
         <v>0.95099134588082479</v>
       </c>
-      <c r="G5" s="141">
+      <c r="H5" s="141">
         <f>'Japan Workbook'!N13</f>
         <v>0.91013923071693714</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="140">
+      <c r="I5" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="39">
+        <f>'Japan Workbook'!A14</f>
+        <v>1984</v>
+      </c>
+      <c r="B6" s="140">
         <f>'Japan Workbook'!H14</f>
         <v>4</v>
       </c>
-      <c r="B6" s="141">
+      <c r="C6" s="141">
         <f>'Japan Workbook'!I14</f>
         <v>1.1083616169028727</v>
       </c>
-      <c r="C6" s="141">
+      <c r="D6" s="141">
         <f>'Japan Workbook'!J14</f>
         <v>1.0318805073557682</v>
       </c>
-      <c r="D6" s="141">
+      <c r="E6" s="141">
         <f>'Japan Workbook'!K14</f>
         <v>1.1948727395166703</v>
       </c>
-      <c r="E6" s="141">
+      <c r="F6" s="141">
         <f>'Japan Workbook'!L14</f>
         <v>1.0393060325241101</v>
       </c>
-      <c r="F6" s="141">
+      <c r="G6" s="141">
         <f>'Japan Workbook'!M14</f>
         <v>1.0367137411472442</v>
       </c>
-      <c r="G6" s="141">
+      <c r="H6" s="141">
         <f>'Japan Workbook'!N14</f>
         <v>0.98689500826397325</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="140">
+      <c r="I6" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="39">
+        <f>'Japan Workbook'!A15</f>
+        <v>1985</v>
+      </c>
+      <c r="B7" s="140">
         <f>'Japan Workbook'!H15</f>
         <v>5</v>
       </c>
-      <c r="B7" s="141">
+      <c r="C7" s="141">
         <f>'Japan Workbook'!I15</f>
         <v>1.1646933143756975</v>
       </c>
-      <c r="C7" s="141">
+      <c r="D7" s="141">
         <f>'Japan Workbook'!J15</f>
         <v>1.0289887980410191</v>
       </c>
-      <c r="D7" s="141">
+      <c r="E7" s="141">
         <f>'Japan Workbook'!K15</f>
         <v>1.248886384225137</v>
       </c>
-      <c r="E7" s="141">
+      <c r="F7" s="141">
         <f>'Japan Workbook'!L15</f>
         <v>1.0439056291748303</v>
       </c>
-      <c r="F7" s="141">
+      <c r="G7" s="141">
         <f>'Japan Workbook'!M15</f>
         <v>1.0396893105698912</v>
       </c>
-      <c r="G7" s="141">
+      <c r="H7" s="141">
         <f>'Japan Workbook'!N15</f>
         <v>0.99504886626246991</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="140">
+      <c r="I7" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="39">
+        <f>'Japan Workbook'!A16</f>
+        <v>1986</v>
+      </c>
+      <c r="B8" s="140">
         <f>'Japan Workbook'!H16</f>
         <v>6</v>
       </c>
-      <c r="B8" s="141">
+      <c r="C8" s="141">
         <f>'Japan Workbook'!I16</f>
         <v>1.1991530217554158</v>
       </c>
-      <c r="C8" s="141">
+      <c r="D8" s="141">
         <f>'Japan Workbook'!J16</f>
         <v>1.0332201578139684</v>
       </c>
-      <c r="D8" s="141">
+      <c r="E8" s="141">
         <f>'Japan Workbook'!K16</f>
         <v>1.3067800105968412</v>
       </c>
-      <c r="E8" s="141">
+      <c r="F8" s="141">
         <f>'Japan Workbook'!L16</f>
         <v>1.0463965749719275</v>
       </c>
-      <c r="F8" s="141">
+      <c r="G8" s="141">
         <f>'Japan Workbook'!M16</f>
         <v>1.0414738103531078</v>
       </c>
-      <c r="G8" s="141">
+      <c r="H8" s="141">
         <f>'Japan Workbook'!N16</f>
         <v>0.98913467720185888</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="140">
+      <c r="I8" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="39">
+        <f>'Japan Workbook'!A17</f>
+        <v>1987</v>
+      </c>
+      <c r="B9" s="140">
         <f>'Japan Workbook'!H17</f>
         <v>7</v>
       </c>
-      <c r="B9" s="141">
+      <c r="C9" s="141">
         <f>'Japan Workbook'!I17</f>
         <v>1.2446605207234478</v>
       </c>
-      <c r="C9" s="141">
+      <c r="D9" s="141">
         <f>'Japan Workbook'!J17</f>
         <v>1.0399704143504676</v>
       </c>
-      <c r="D9" s="141">
+      <c r="E9" s="141">
         <f>'Japan Workbook'!K17</f>
         <v>1.372172687698554</v>
       </c>
-      <c r="E9" s="141">
+      <c r="F9" s="141">
         <f>'Japan Workbook'!L17</f>
         <v>1.0787392734743844</v>
       </c>
-      <c r="F9" s="141">
+      <c r="G9" s="141">
         <f>'Japan Workbook'!M17</f>
         <v>1.0733617299602667</v>
       </c>
-      <c r="G9" s="141">
+      <c r="H9" s="141">
         <f>'Japan Workbook'!N17</f>
         <v>1.0167756710007965</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="140">
+      <c r="I9" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="39">
+        <f>'Japan Workbook'!A18</f>
+        <v>1988</v>
+      </c>
+      <c r="B10" s="140">
         <f>'Japan Workbook'!H18</f>
         <v>8</v>
       </c>
-      <c r="B10" s="141">
+      <c r="C10" s="141">
         <f>'Japan Workbook'!I18</f>
         <v>1.3288591784005259</v>
       </c>
-      <c r="C10" s="141">
+      <c r="D10" s="141">
         <f>'Japan Workbook'!J18</f>
         <v>1.0531399340041874</v>
       </c>
-      <c r="D10" s="141">
+      <c r="E10" s="141">
         <f>'Japan Workbook'!K18</f>
         <v>1.4538740418932343</v>
       </c>
-      <c r="E10" s="141">
+      <c r="F10" s="141">
         <f>'Japan Workbook'!L18</f>
         <v>1.1391185569465907</v>
       </c>
-      <c r="F10" s="141">
+      <c r="G10" s="141">
         <f>'Japan Workbook'!M18</f>
         <v>1.1351475419511365</v>
       </c>
-      <c r="G10" s="141">
+      <c r="H10" s="141">
         <f>'Japan Workbook'!N18</f>
         <v>1.0744431317010756</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="140">
+      <c r="I10" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="39">
+        <f>'Japan Workbook'!A19</f>
+        <v>1989</v>
+      </c>
+      <c r="B11" s="140">
         <f>'Japan Workbook'!H19</f>
         <v>9</v>
       </c>
-      <c r="B11" s="141">
+      <c r="C11" s="141">
         <f>'Japan Workbook'!I19</f>
         <v>1.3991683101713832</v>
       </c>
-      <c r="C11" s="141">
+      <c r="D11" s="141">
         <f>'Japan Workbook'!J19</f>
         <v>1.0553742492498805</v>
       </c>
-      <c r="D11" s="141">
+      <c r="E11" s="141">
         <f>'Japan Workbook'!K19</f>
         <v>1.546189364240544</v>
       </c>
-      <c r="E11" s="141">
+      <c r="F11" s="141">
         <f>'Japan Workbook'!L19</f>
         <v>1.177413066518666</v>
       </c>
-      <c r="F11" s="141">
+      <c r="G11" s="141">
         <f>'Japan Workbook'!M19</f>
         <v>1.173720891832521</v>
       </c>
-      <c r="G11" s="141">
+      <c r="H11" s="141">
         <f>'Japan Workbook'!N19</f>
         <v>1.1008539570417144</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="140">
+      <c r="I11" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="39">
+        <f>'Japan Workbook'!A20</f>
+        <v>1990</v>
+      </c>
+      <c r="B12" s="140">
         <f>'Japan Workbook'!H20</f>
         <v>10</v>
       </c>
-      <c r="B12" s="141">
+      <c r="C12" s="141">
         <f>'Japan Workbook'!I20</f>
         <v>1.471945374489749</v>
       </c>
-      <c r="C12" s="141">
+      <c r="D12" s="141">
         <f>'Japan Workbook'!J20</f>
         <v>1.05871082438227</v>
       </c>
-      <c r="D12" s="141">
+      <c r="E12" s="141">
         <f>'Japan Workbook'!K20</f>
         <v>1.6472915377590815</v>
       </c>
-      <c r="E12" s="141">
+      <c r="F12" s="141">
         <f>'Japan Workbook'!L20</f>
         <v>1.2401665249848233</v>
       </c>
-      <c r="F12" s="141">
+      <c r="G12" s="141">
         <f>'Japan Workbook'!M20</f>
         <v>1.2370980586486031</v>
       </c>
-      <c r="G12" s="141">
+      <c r="H12" s="141">
         <f>'Japan Workbook'!N20</f>
         <v>1.1522601422148309</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="140">
+      <c r="I12" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="39">
+        <f>'Japan Workbook'!A21</f>
+        <v>1991</v>
+      </c>
+      <c r="B13" s="140">
         <f>'Japan Workbook'!H21</f>
         <v>11</v>
       </c>
-      <c r="B13" s="141">
+      <c r="C13" s="141">
         <f>'Japan Workbook'!I21</f>
         <v>1.5208778608448379</v>
       </c>
-      <c r="C13" s="141">
+      <c r="D13" s="141">
         <f>'Japan Workbook'!J21</f>
         <v>1.055927772259454</v>
       </c>
-      <c r="D13" s="141">
+      <c r="E13" s="141">
         <f>'Japan Workbook'!K21</f>
         <v>1.7466279962131233</v>
       </c>
-      <c r="E13" s="141">
+      <c r="F13" s="141">
         <f>'Japan Workbook'!L21</f>
         <v>1.2747636557722588</v>
       </c>
-      <c r="F13" s="141">
+      <c r="G13" s="141">
         <f>'Japan Workbook'!M21</f>
         <v>1.2710023231063965</v>
       </c>
-      <c r="G13" s="141">
+      <c r="H13" s="141">
         <f>'Japan Workbook'!N21</f>
         <v>1.1768770566443287</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="140">
+      <c r="I13" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="39">
+        <f>'Japan Workbook'!A22</f>
+        <v>1992</v>
+      </c>
+      <c r="B14" s="140">
         <f>'Japan Workbook'!H22</f>
         <v>12</v>
       </c>
-      <c r="B14" s="141">
+      <c r="C14" s="141">
         <f>'Japan Workbook'!I22</f>
         <v>1.533334479964531</v>
       </c>
-      <c r="C14" s="141">
+      <c r="D14" s="141">
         <f>'Japan Workbook'!J22</f>
         <v>1.0451106798522563</v>
       </c>
-      <c r="D14" s="141">
+      <c r="E14" s="141">
         <f>'Japan Workbook'!K22</f>
         <v>1.8342261208491757</v>
       </c>
-      <c r="E14" s="141">
+      <c r="F14" s="141">
         <f>'Japan Workbook'!L22</f>
         <v>1.2782902307505879</v>
       </c>
-      <c r="F14" s="141">
+      <c r="G14" s="141">
         <f>'Japan Workbook'!M22</f>
         <v>1.2745486155486876</v>
       </c>
-      <c r="G14" s="141">
+      <c r="H14" s="141">
         <f>'Japan Workbook'!N22</f>
         <v>1.1504677940647756</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="140">
+      <c r="I14" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="39">
+        <f>'Japan Workbook'!A23</f>
+        <v>1993</v>
+      </c>
+      <c r="B15" s="140">
         <f>'Japan Workbook'!H23</f>
         <v>13</v>
       </c>
-      <c r="B15" s="141">
+      <c r="C15" s="141">
         <f>'Japan Workbook'!I23</f>
         <v>1.5359575899341069</v>
       </c>
-      <c r="C15" s="141">
+      <c r="D15" s="141">
         <f>'Japan Workbook'!J23</f>
         <v>1.0200244734368389</v>
       </c>
-      <c r="D15" s="141">
+      <c r="E15" s="141">
         <f>'Japan Workbook'!K23</f>
         <v>1.9100507467712067</v>
       </c>
-      <c r="E15" s="141">
+      <c r="F15" s="141">
         <f>'Japan Workbook'!L23</f>
         <v>1.2933294669770325</v>
       </c>
-      <c r="F15" s="141">
+      <c r="G15" s="141">
         <f>'Japan Workbook'!M23</f>
         <v>1.288122730885964</v>
       </c>
-      <c r="G15" s="141">
+      <c r="H15" s="141">
         <f>'Japan Workbook'!N23</f>
         <v>1.1599109354702988</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="140">
+      <c r="I15" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="39">
+        <f>'Japan Workbook'!A24</f>
+        <v>1994</v>
+      </c>
+      <c r="B16" s="140">
         <f>'Japan Workbook'!H24</f>
         <v>14</v>
       </c>
-      <c r="B16" s="141">
+      <c r="C16" s="141">
         <f>'Japan Workbook'!I24</f>
         <v>1.5492214374168691</v>
       </c>
-      <c r="C16" s="141">
+      <c r="D16" s="141">
         <f>'Japan Workbook'!J24</f>
         <v>1.0163279419921702</v>
       </c>
-      <c r="D16" s="141">
+      <c r="E16" s="141">
         <f>'Japan Workbook'!K24</f>
         <v>1.9775145087081401</v>
       </c>
-      <c r="E16" s="141">
+      <c r="F16" s="141">
         <f>'Japan Workbook'!L24</f>
         <v>1.343381563513065</v>
       </c>
-      <c r="F16" s="141">
+      <c r="G16" s="141">
         <f>'Japan Workbook'!M24</f>
         <v>1.3398026871261479</v>
       </c>
-      <c r="G16" s="141">
+      <c r="H16" s="141">
         <f>'Japan Workbook'!N24</f>
         <v>1.2008261939932141</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="140">
+      <c r="I16" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="39">
+        <f>'Japan Workbook'!A25</f>
+        <v>1995</v>
+      </c>
+      <c r="B17" s="140">
         <f>'Japan Workbook'!H25</f>
         <v>15</v>
       </c>
-      <c r="B17" s="141">
+      <c r="C17" s="141">
         <f>'Japan Workbook'!I25</f>
         <v>1.5790693941200753</v>
       </c>
-      <c r="C17" s="141">
+      <c r="D17" s="141">
         <f>'Japan Workbook'!J25</f>
         <v>1.0207514565932923</v>
       </c>
-      <c r="D17" s="141">
+      <c r="E17" s="141">
         <f>'Japan Workbook'!K25</f>
         <v>2.041703015872669</v>
       </c>
-      <c r="E17" s="141">
+      <c r="F17" s="141">
         <f>'Japan Workbook'!L25</f>
         <v>1.3835589095496614</v>
       </c>
-      <c r="F17" s="141">
+      <c r="G17" s="141">
         <f>'Japan Workbook'!M25</f>
         <v>1.3791564047784077</v>
       </c>
-      <c r="G17" s="141">
+      <c r="H17" s="141">
         <f>'Japan Workbook'!N25</f>
         <v>1.2375056651109211</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="140">
+      <c r="I17" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="39">
+        <f>'Japan Workbook'!A26</f>
+        <v>1996</v>
+      </c>
+      <c r="B18" s="140">
         <f>'Japan Workbook'!H26</f>
         <v>16</v>
       </c>
-      <c r="B18" s="141">
+      <c r="C18" s="141">
         <f>'Japan Workbook'!I26</f>
         <v>1.6211392927578774</v>
       </c>
-      <c r="C18" s="141">
+      <c r="D18" s="141">
         <f>'Japan Workbook'!J26</f>
         <v>1.0222632815744801</v>
       </c>
-      <c r="D18" s="141">
+      <c r="E18" s="141">
         <f>'Japan Workbook'!K26</f>
         <v>2.1110696906290838</v>
       </c>
-      <c r="E18" s="141">
+      <c r="F18" s="141">
         <f>'Japan Workbook'!L26</f>
         <v>1.4057887768355393</v>
       </c>
-      <c r="F18" s="141">
+      <c r="G18" s="141">
         <f>'Japan Workbook'!M26</f>
         <v>1.4012864386092285</v>
       </c>
-      <c r="G18" s="141">
+      <c r="H18" s="141">
         <f>'Japan Workbook'!N26</f>
         <v>1.2440644365677369</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="140">
+      <c r="I18" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="39">
+        <f>'Japan Workbook'!A27</f>
+        <v>1997</v>
+      </c>
+      <c r="B19" s="140">
         <f>'Japan Workbook'!H27</f>
         <v>17</v>
       </c>
-      <c r="B19" s="141">
+      <c r="C19" s="141">
         <f>'Japan Workbook'!I27</f>
         <v>1.647152914736504</v>
       </c>
-      <c r="C19" s="141">
+      <c r="D19" s="141">
         <f>'Japan Workbook'!J27</f>
         <v>1.013718004839403</v>
       </c>
-      <c r="D19" s="141">
+      <c r="E19" s="141">
         <f>'Japan Workbook'!K27</f>
         <v>2.1753795440151533</v>
       </c>
-      <c r="E19" s="141">
+      <c r="F19" s="141">
         <f>'Japan Workbook'!L27</f>
         <v>1.4318444937368253</v>
       </c>
-      <c r="F19" s="141">
+      <c r="G19" s="141">
         <f>'Japan Workbook'!M27</f>
         <v>1.4265399938676402</v>
       </c>
-      <c r="G19" s="141">
+      <c r="H19" s="141">
         <f>'Japan Workbook'!N27</f>
         <v>1.2795893218718608</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="140">
+      <c r="I19" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <f>'Japan Workbook'!A28</f>
+        <v>1998</v>
+      </c>
+      <c r="B20" s="140">
         <f>'Japan Workbook'!H28</f>
         <v>18</v>
       </c>
-      <c r="B20" s="141">
+      <c r="C20" s="141">
         <f>'Japan Workbook'!I28</f>
         <v>1.6124657921692733</v>
       </c>
-      <c r="C20" s="141">
+      <c r="D20" s="141">
         <f>'Japan Workbook'!J28</f>
         <v>0.9899080498061561</v>
       </c>
-      <c r="D20" s="141">
+      <c r="E20" s="141">
         <f>'Japan Workbook'!K28</f>
         <v>2.2196603471886669</v>
       </c>
-      <c r="E20" s="141">
+      <c r="F20" s="141">
         <f>'Japan Workbook'!L28</f>
         <v>1.4101377756299887</v>
       </c>
-      <c r="F20" s="141">
+      <c r="G20" s="141">
         <f>'Japan Workbook'!M28</f>
         <v>1.4035827541313151</v>
       </c>
-      <c r="G20" s="141">
+      <c r="H20" s="141">
         <f>'Japan Workbook'!N28</f>
         <v>1.2462853863773369</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="140">
+      <c r="I20" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <f>'Japan Workbook'!A29</f>
+        <v>1999</v>
+      </c>
+      <c r="B21" s="140">
         <f>'Japan Workbook'!H29</f>
         <v>19</v>
       </c>
-      <c r="B21" s="141">
+      <c r="C21" s="141">
         <f>'Japan Workbook'!I29</f>
         <v>1.6111754498616397</v>
       </c>
-      <c r="C21" s="141">
+      <c r="D21" s="141">
         <f>'Japan Workbook'!J29</f>
         <v>0.96694984177537502</v>
       </c>
-      <c r="D21" s="141">
+      <c r="E21" s="141">
         <f>'Japan Workbook'!K29</f>
         <v>2.2602792639349554</v>
       </c>
-      <c r="E21" s="141">
+      <c r="F21" s="141">
         <f>'Japan Workbook'!L29</f>
         <v>1.4364013063762613</v>
       </c>
-      <c r="F21" s="141">
+      <c r="G21" s="141">
         <f>'Japan Workbook'!M29</f>
         <v>1.4317382968893559</v>
       </c>
-      <c r="G21" s="141">
+      <c r="H21" s="141">
         <f>'Japan Workbook'!N29</f>
         <v>1.2611902361123284</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="140">
+      <c r="I21" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="39">
+        <f>'Japan Workbook'!A30</f>
+        <v>2000</v>
+      </c>
+      <c r="B22" s="140">
         <f>'Japan Workbook'!H30</f>
         <v>20</v>
       </c>
-      <c r="B22" s="141">
+      <c r="C22" s="141">
         <f>'Japan Workbook'!I30</f>
         <v>1.6471685853628706</v>
       </c>
-      <c r="C22" s="141">
+      <c r="D22" s="141">
         <f>'Japan Workbook'!J30</f>
         <v>0.96834554671369732</v>
       </c>
-      <c r="D22" s="141">
+      <c r="E22" s="141">
         <f>'Japan Workbook'!K30</f>
         <v>2.2993558446972431</v>
       </c>
-      <c r="E22" s="141">
+      <c r="F22" s="141">
         <f>'Japan Workbook'!L30</f>
         <v>1.4497146406276049</v>
       </c>
-      <c r="F22" s="141">
+      <c r="G22" s="141">
         <f>'Japan Workbook'!M30</f>
         <v>1.4453778789289016</v>
       </c>
-      <c r="G22" s="141">
+      <c r="H22" s="141">
         <f>'Japan Workbook'!N30</f>
         <v>1.2731847084958923</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="140">
+      <c r="I22" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="39">
+        <f>'Japan Workbook'!A31</f>
+        <v>2001</v>
+      </c>
+      <c r="B23" s="140">
         <f>'Japan Workbook'!H31</f>
         <v>21</v>
       </c>
-      <c r="B23" s="141">
+      <c r="C23" s="141">
         <f>'Japan Workbook'!I31</f>
         <v>1.6530045559479583</v>
       </c>
-      <c r="C23" s="141">
+      <c r="D23" s="141">
         <f>'Japan Workbook'!J31</f>
         <v>0.95133849647292601</v>
       </c>
-      <c r="D23" s="141">
+      <c r="E23" s="141">
         <f>'Japan Workbook'!K31</f>
         <v>2.3313101675015142</v>
       </c>
-      <c r="E23" s="141">
+      <c r="F23" s="141">
         <f>'Japan Workbook'!L31</f>
         <v>1.4360334758929683</v>
       </c>
-      <c r="F23" s="141">
+      <c r="G23" s="141">
         <f>'Japan Workbook'!M31</f>
         <v>1.4316435303174873</v>
       </c>
-      <c r="G23" s="141" t="str">
+      <c r="H23" s="141" t="str">
         <f>'Japan Workbook'!N31</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="140">
+      <c r="I23" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="39">
+        <f>'Japan Workbook'!A32</f>
+        <v>2002</v>
+      </c>
+      <c r="B24" s="140">
         <f>'Japan Workbook'!H32</f>
         <v>22</v>
       </c>
-      <c r="B24" s="141">
+      <c r="C24" s="141">
         <f>'Japan Workbook'!I32</f>
         <v>1.6576568209267837</v>
       </c>
-      <c r="C24" s="141">
+      <c r="D24" s="141">
         <f>'Japan Workbook'!J32</f>
         <v>0.93356130708838037</v>
       </c>
-      <c r="D24" s="141">
+      <c r="E24" s="141">
         <f>'Japan Workbook'!K32</f>
         <v>2.3517249383612211</v>
       </c>
-      <c r="E24" s="141">
+      <c r="F24" s="141">
         <f>'Japan Workbook'!L32</f>
         <v>1.4262219526933959</v>
       </c>
-      <c r="F24" s="141">
+      <c r="G24" s="141">
         <f>'Japan Workbook'!M32</f>
         <v>1.4227158649627512</v>
       </c>
-      <c r="G24" s="141" t="str">
+      <c r="H24" s="141" t="str">
         <f>'Japan Workbook'!N32</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="140">
+      <c r="I24" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="39">
+        <f>'Japan Workbook'!A33</f>
+        <v>2003</v>
+      </c>
+      <c r="B25" s="140">
         <f>'Japan Workbook'!H33</f>
         <v>23</v>
       </c>
-      <c r="B25" s="141">
+      <c r="C25" s="141">
         <f>'Japan Workbook'!I33</f>
         <v>1.6862109954287636</v>
       </c>
-      <c r="C25" s="141">
+      <c r="D25" s="141">
         <f>'Japan Workbook'!J33</f>
         <v>0.93562492315629375</v>
       </c>
-      <c r="D25" s="141">
+      <c r="E25" s="141">
         <f>'Japan Workbook'!K33</f>
         <v>2.3712594936109208</v>
       </c>
-      <c r="E25" s="141">
+      <c r="F25" s="141">
         <f>'Japan Workbook'!L33</f>
         <v>1.4230929592871291</v>
       </c>
-      <c r="F25" s="141">
+      <c r="G25" s="141">
         <f>'Japan Workbook'!M33</f>
         <v>1.4213160123608011</v>
       </c>
-      <c r="G25" s="141" t="str">
+      <c r="H25" s="141" t="str">
         <f>'Japan Workbook'!N33</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="140">
+      <c r="I25" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="39">
+        <f>'Japan Workbook'!A34</f>
+        <v>2004</v>
+      </c>
+      <c r="B26" s="140">
         <f>'Japan Workbook'!H34</f>
         <v>24</v>
       </c>
-      <c r="B26" s="141">
+      <c r="C26" s="141">
         <f>'Japan Workbook'!I34</f>
         <v>1.7256165053738781</v>
       </c>
-      <c r="C26" s="141">
+      <c r="D26" s="141">
         <f>'Japan Workbook'!J34</f>
         <v>0.94466803254933895</v>
       </c>
-      <c r="D26" s="141">
+      <c r="E26" s="141">
         <f>'Japan Workbook'!K34</f>
         <v>2.3899870782672199</v>
       </c>
-      <c r="E26" s="141">
+      <c r="F26" s="141">
         <f>'Japan Workbook'!L34</f>
         <v>1.4564449671384423</v>
       </c>
-      <c r="F26" s="141">
+      <c r="G26" s="141">
         <f>'Japan Workbook'!M34</f>
         <v>1.4540689618978362</v>
       </c>
-      <c r="G26" s="141" t="str">
+      <c r="H26" s="141" t="str">
         <f>'Japan Workbook'!N34</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="140">
+      <c r="I26" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="39">
+        <f>'Japan Workbook'!A35</f>
+        <v>2005</v>
+      </c>
+      <c r="B27" s="140">
         <f>'Japan Workbook'!H35</f>
         <v>25</v>
       </c>
-      <c r="B27" s="141">
+      <c r="C27" s="141">
         <f>'Japan Workbook'!I35</f>
         <v>1.7478221651454693</v>
       </c>
-      <c r="C27" s="141">
+      <c r="D27" s="141">
         <f>'Japan Workbook'!J35</f>
         <v>0.94586471575030406</v>
       </c>
-      <c r="D27" s="141">
+      <c r="E27" s="141">
         <f>'Japan Workbook'!K35</f>
         <v>2.408948245289908</v>
       </c>
-      <c r="E27" s="141">
+      <c r="F27" s="141">
         <f>'Japan Workbook'!L35</f>
         <v>1.4525284696783898</v>
       </c>
-      <c r="F27" s="141">
+      <c r="G27" s="141">
         <f>'Japan Workbook'!M35</f>
         <v>1.4494184786398707</v>
       </c>
-      <c r="G27" s="141" t="str">
+      <c r="H27" s="141" t="str">
         <f>'Japan Workbook'!N35</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="140">
+      <c r="I27" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="39">
+        <f>'Japan Workbook'!A36</f>
+        <v>2006</v>
+      </c>
+      <c r="B28" s="140">
         <f>'Japan Workbook'!H36</f>
         <v>26</v>
       </c>
-      <c r="B28" s="141">
+      <c r="C28" s="141">
         <f>'Japan Workbook'!I36</f>
         <v>1.7771935054808972</v>
       </c>
-      <c r="C28" s="141">
+      <c r="D28" s="141">
         <f>'Japan Workbook'!J36</f>
         <v>0.95474194545049651</v>
       </c>
-      <c r="D28" s="141">
+      <c r="E28" s="141">
         <f>'Japan Workbook'!K36</f>
         <v>2.4294125749668209</v>
       </c>
-      <c r="E28" s="141">
+      <c r="F28" s="141">
         <f>'Japan Workbook'!L36</f>
         <v>1.464207696978238</v>
       </c>
-      <c r="F28" s="141">
+      <c r="G28" s="141">
         <f>'Japan Workbook'!M36</f>
         <v>1.4602210289300455</v>
       </c>
-      <c r="G28" s="141" t="str">
+      <c r="H28" s="141" t="str">
         <f>'Japan Workbook'!N36</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="140">
+      <c r="I28" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="39">
+        <f>'Japan Workbook'!A37</f>
+        <v>2007</v>
+      </c>
+      <c r="B29" s="140">
         <f>'Japan Workbook'!H37</f>
         <v>27</v>
       </c>
-      <c r="B29" s="141">
+      <c r="C29" s="141">
         <f>'Japan Workbook'!I37</f>
         <v>1.8156828570991759</v>
       </c>
-      <c r="C29" s="141">
+      <c r="D29" s="141">
         <f>'Japan Workbook'!J37</f>
         <v>0.95413482579057574</v>
       </c>
-      <c r="D29" s="141">
+      <c r="E29" s="141">
         <f>'Japan Workbook'!K37</f>
         <v>2.4488860927026828</v>
       </c>
-      <c r="E29" s="141">
+      <c r="F29" s="141">
         <f>'Japan Workbook'!L37</f>
         <v>1.4436007374211801</v>
       </c>
-      <c r="F29" s="141">
+      <c r="G29" s="141">
         <f>'Japan Workbook'!M37</f>
         <v>1.4407170236331532</v>
       </c>
-      <c r="G29" s="141" t="str">
+      <c r="H29" s="141" t="str">
         <f>'Japan Workbook'!N37</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="140">
+      <c r="I29" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="39">
+        <f>'Japan Workbook'!A38</f>
+        <v>2008</v>
+      </c>
+      <c r="B30" s="140">
         <f>'Japan Workbook'!H38</f>
         <v>28</v>
       </c>
-      <c r="B30" s="141">
+      <c r="C30" s="141">
         <f>'Japan Workbook'!I38</f>
         <v>1.796180953691388</v>
       </c>
-      <c r="C30" s="141">
+      <c r="D30" s="141">
         <f>'Japan Workbook'!J38</f>
         <v>0.94008039644943275</v>
       </c>
-      <c r="D30" s="141">
+      <c r="E30" s="141">
         <f>'Japan Workbook'!K38</f>
         <v>2.4586584719704803</v>
       </c>
-      <c r="E30" s="141">
+      <c r="F30" s="141">
         <f>'Japan Workbook'!L38</f>
         <v>1.3965554306327792</v>
       </c>
-      <c r="F30" s="141">
+      <c r="G30" s="141">
         <f>'Japan Workbook'!M38</f>
         <v>1.3926739939136374</v>
       </c>
-      <c r="G30" s="141" t="str">
+      <c r="H30" s="141" t="str">
         <f>'Japan Workbook'!N38</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="140">
+      <c r="I30" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="39">
+        <f>'Japan Workbook'!A39</f>
+        <v>2009</v>
+      </c>
+      <c r="B31" s="140">
         <f>'Japan Workbook'!H39</f>
         <v>29</v>
       </c>
-      <c r="B31" s="141">
+      <c r="C31" s="141">
         <f>'Japan Workbook'!I39</f>
         <v>1.6968914828234647</v>
       </c>
-      <c r="C31" s="141">
+      <c r="D31" s="141">
         <f>'Japan Workbook'!J39</f>
         <v>0.90052714038643289</v>
       </c>
-      <c r="D31" s="141">
+      <c r="E31" s="141">
         <f>'Japan Workbook'!K39</f>
         <v>2.448949316634927</v>
       </c>
-      <c r="E31" s="141">
+      <c r="F31" s="141">
         <f>'Japan Workbook'!L39</f>
         <v>1.3224903625563731</v>
       </c>
-      <c r="F31" s="141">
+      <c r="G31" s="141">
         <f>'Japan Workbook'!M39</f>
         <v>1.3155464481509087</v>
       </c>
-      <c r="G31" s="141" t="str">
+      <c r="H31" s="141" t="str">
         <f>'Japan Workbook'!N39</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="140">
+      <c r="I31" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="39">
+        <f>'Japan Workbook'!A40</f>
+        <v>2010</v>
+      </c>
+      <c r="B32" s="140">
         <f>'Japan Workbook'!H40</f>
         <v>30</v>
       </c>
-      <c r="B32" s="141">
+      <c r="C32" s="141">
         <f>'Japan Workbook'!I40</f>
         <v>1.7726497882554388</v>
       </c>
-      <c r="C32" s="141">
+      <c r="D32" s="141">
         <f>'Japan Workbook'!J40</f>
         <v>0.90674539813648802</v>
       </c>
-      <c r="D32" s="141">
+      <c r="E32" s="141">
         <f>'Japan Workbook'!K40</f>
         <v>2.4396909278941075</v>
       </c>
-      <c r="E32" s="141">
+      <c r="F32" s="141">
         <f>'Japan Workbook'!L40</f>
         <v>1.387256019204129</v>
       </c>
-      <c r="F32" s="141">
+      <c r="G32" s="141">
         <f>'Japan Workbook'!M40</f>
         <v>1.3815050648721896</v>
       </c>
-      <c r="G32" s="141" t="str">
+      <c r="H32" s="141" t="str">
         <f>'Japan Workbook'!N40</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="140">
+      <c r="I32" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="39">
+        <f>'Japan Workbook'!A41</f>
+        <v>2011</v>
+      </c>
+      <c r="B33" s="140">
         <f>'Japan Workbook'!H41</f>
         <v>31</v>
       </c>
-      <c r="B33" s="141">
+      <c r="C33" s="141">
         <f>'Japan Workbook'!I41</f>
         <v>1.7597635646470668</v>
       </c>
-      <c r="C33" s="141" t="str">
+      <c r="D33" s="141" t="str">
         <f>'Japan Workbook'!J41</f>
         <v>NA</v>
       </c>
-      <c r="D33" s="141">
+      <c r="E33" s="141">
         <f>'Japan Workbook'!K41</f>
         <v>2.4319898156630644</v>
       </c>
-      <c r="E33" s="141">
+      <c r="F33" s="141">
         <f>'Japan Workbook'!L41</f>
         <v>1.3181876081262711</v>
       </c>
-      <c r="F33" s="141">
+      <c r="G33" s="141">
         <f>'Japan Workbook'!M41</f>
         <v>1.3155630212902587</v>
       </c>
-      <c r="G33" s="141" t="str">
+      <c r="H33" s="141" t="str">
         <f>'Japan Workbook'!N41</f>
         <v>NA</v>
       </c>
+      <c r="I33" s="39" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17165,14 +17424,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17736,6 +17995,11 @@
     <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17747,42 +18011,41 @@
       <selection activeCell="X30" sqref="X30:X61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="12" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="28.83203125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="12" customWidth="1"/>
     <col min="16" max="16" width="15" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="15.1640625" style="12" customWidth="1"/>
     <col min="24" max="24" width="18" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" style="12" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="12" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="18.140625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="20.140625" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" style="12" customWidth="1"/>
-    <col min="31" max="31" width="20.140625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="20.85546875" style="12" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" style="12" customWidth="1"/>
-    <col min="34" max="16384" width="8.85546875" style="12"/>
+    <col min="25" max="25" width="15.5" style="12" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" style="12" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="18.1640625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="20.1640625" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.5" style="12" customWidth="1"/>
+    <col min="31" max="31" width="20.1640625" style="12" customWidth="1"/>
+    <col min="32" max="32" width="20.83203125" style="12" customWidth="1"/>
+    <col min="33" max="33" width="15.5" style="12" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -17853,7 +18116,7 @@
     <row r="14" spans="1:7" s="58" customFormat="1">
       <c r="A14" s="69"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
@@ -17866,7 +18129,7 @@
       <c r="F15" s="58"/>
       <c r="G15" s="58"/>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
@@ -17889,7 +18152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="18">
+    <row r="17" spans="1:33" ht="16">
       <c r="A17" s="21" t="s">
         <v>19</v>
       </c>
@@ -17936,7 +18199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="18">
+    <row r="19" spans="1:33" ht="16">
       <c r="A19" s="21" t="s">
         <v>23</v>
       </c>
@@ -17957,7 +18220,7 @@
       </c>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" thickBot="1">
+    <row r="20" spans="1:33" ht="18" thickBot="1">
       <c r="A20" s="64" t="s">
         <v>42</v>
       </c>
@@ -17978,7 +18241,7 @@
       </c>
       <c r="G20" s="33"/>
     </row>
-    <row r="21" spans="1:33" ht="18.75">
+    <row r="21" spans="1:33" ht="17">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="36">
@@ -17995,7 +18258,7 @@
       </c>
       <c r="G21" s="33"/>
     </row>
-    <row r="22" spans="1:33" ht="18">
+    <row r="22" spans="1:33" ht="16">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
       <c r="C22" s="35">
@@ -18013,7 +18276,7 @@
       </c>
       <c r="G22" s="33"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" thickBot="1">
+    <row r="23" spans="1:33" ht="15" thickBot="1">
       <c r="A23" s="27"/>
       <c r="B23" s="28"/>
       <c r="C23" s="32">
@@ -18032,7 +18295,7 @@
       </c>
       <c r="G23" s="76"/>
     </row>
-    <row r="24" spans="1:33" ht="18" thickBot="1">
+    <row r="24" spans="1:33" ht="17" thickBot="1">
       <c r="A24" s="37"/>
       <c r="C24" s="57">
         <f>1000/6</f>
@@ -18050,7 +18313,7 @@
       <c r="A26" s="37"/>
       <c r="C26" s="38"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" thickBot="1">
+    <row r="27" spans="1:33" ht="15" thickBot="1">
       <c r="E27" s="39" t="s">
         <v>46</v>
       </c>
@@ -18073,140 +18336,140 @@
       <c r="AG27" s="58"/>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="144" t="s">
+      <c r="D28" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="144" t="s">
+      <c r="E28" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="144" t="s">
+      <c r="F28" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="144" t="s">
+      <c r="G28" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="144" t="s">
+      <c r="H28" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="144" t="s">
+      <c r="I28" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="144" t="s">
+      <c r="J28" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="144" t="s">
+      <c r="K28" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="148" t="s">
+      <c r="L28" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="150" t="s">
+      <c r="M28" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="N28" s="144" t="s">
+      <c r="N28" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="144" t="s">
+      <c r="O28" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="P28" s="148" t="s">
+      <c r="P28" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="150" t="s">
+      <c r="Q28" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="R28" s="144" t="s">
+      <c r="R28" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="S28" s="144" t="s">
+      <c r="S28" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="T28" s="144" t="s">
+      <c r="T28" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="U28" s="144" t="s">
+      <c r="U28" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="V28" s="144" t="s">
+      <c r="V28" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="W28" s="144" t="s">
+      <c r="W28" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="X28" s="146" t="s">
+      <c r="X28" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="Y28" s="148" t="s">
+      <c r="Y28" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="Z28" s="150" t="s">
+      <c r="Z28" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="AA28" s="144" t="s">
+      <c r="AA28" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="AB28" s="144" t="s">
+      <c r="AB28" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="AC28" s="144" t="s">
+      <c r="AC28" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="AD28" s="144" t="s">
+      <c r="AD28" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="AE28" s="144" t="s">
+      <c r="AE28" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="AF28" s="144" t="s">
+      <c r="AF28" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="AG28" s="146" t="s">
+      <c r="AG28" s="150" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="149"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="149"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="145"/>
-      <c r="S29" s="145"/>
-      <c r="T29" s="145"/>
-      <c r="U29" s="145"/>
-      <c r="V29" s="145"/>
-      <c r="W29" s="145"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="149"/>
-      <c r="Z29" s="151"/>
-      <c r="AA29" s="145"/>
-      <c r="AB29" s="145"/>
-      <c r="AC29" s="145"/>
-      <c r="AD29" s="145"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="145"/>
-      <c r="AG29" s="147"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="149"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="147"/>
+      <c r="AF29" s="147"/>
+      <c r="AG29" s="151"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="40">
@@ -21835,7 +22098,7 @@
         <v>23029022.923974004</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="15.75" thickBot="1">
+    <row r="61" spans="1:33" ht="15" thickBot="1">
       <c r="A61" s="53">
         <v>2011</v>
       </c>
@@ -21972,11 +22235,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="O28:O29"/>
     <mergeCell ref="E28:E29"/>
@@ -21987,26 +22263,18 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L28:L29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="M28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -22018,28 +22286,28 @@
       <selection activeCell="Z5" sqref="Z5:Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -22065,7 +22333,7 @@
     <row r="2" spans="1:27" s="58" customFormat="1">
       <c r="A2" s="108"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1">
+    <row r="3" spans="1:27" ht="15" thickBot="1">
       <c r="A3" s="58" t="s">
         <v>92</v>
       </c>
@@ -24023,7 +24291,7 @@
         <v>0.18207437091430936</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1">
+    <row r="25" spans="1:27" ht="15" thickBot="1">
       <c r="A25" s="83">
         <v>1920</v>
       </c>
@@ -28934,7 +29202,7 @@
       <c r="Z104" s="58"/>
       <c r="AA104" s="58"/>
     </row>
-    <row r="105" spans="1:27" ht="15.75" thickBot="1">
+    <row r="105" spans="1:27" ht="15" thickBot="1">
       <c r="A105" s="92">
         <v>2000</v>
       </c>
@@ -28997,6 +29265,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -29008,12 +29281,12 @@
       <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -31085,6 +31358,11 @@
     <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -31096,11 +31374,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58">
@@ -32975,5 +33253,10 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/Excel Workbooks/JapanDataWorkbook.xlsx
+++ b/data/Excel Workbooks/JapanDataWorkbook.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
   <si>
     <t>GDP [Millions of 1990$]</t>
   </si>
@@ -2228,7 +2228,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3607">
+  <cellStyleXfs count="3609">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -5845,6 +5845,8 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6185,28 +6187,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6222,7 +6224,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3607">
+  <cellStyles count="3609">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="42"/>
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="54"/>
@@ -8286,6 +8288,7 @@
     <cellStyle name="Followed Hyperlink" xfId="3603" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3604" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3608" builtinId="9" hidden="1"/>
     <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="44"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="331"/>
@@ -8897,6 +8900,7 @@
     <cellStyle name="Hyperlink" xfId="3115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3607" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="898" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="1133" hidden="1"/>
     <cellStyle name="Hyperlink 10" xfId="1337" hidden="1"/>
@@ -10585,7 +10589,7 @@
                   <c:v>0.906745398136488</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0.878955416963687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11247,11 +11251,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145658776"/>
-        <c:axId val="-2145653160"/>
+        <c:axId val="-2142568216"/>
+        <c:axId val="-2144736760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145658776"/>
+        <c:axId val="-2142568216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2015.0"/>
@@ -11275,18 +11279,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145653160"/>
+        <c:crossAx val="-2144736760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145653160"/>
+        <c:axId val="-2144736760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -11323,7 +11328,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145658776"/>
+        <c:crossAx val="-2142568216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -12269,11 +12274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146529048"/>
-        <c:axId val="-2146520648"/>
+        <c:axId val="-2144544232"/>
+        <c:axId val="-2144536216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146529048"/>
+        <c:axId val="-2144544232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -12303,13 +12308,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146520648"/>
+        <c:crossAx val="-2144536216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146520648"/>
+        <c:axId val="-2144536216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12342,7 +12347,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146529048"/>
+        <c:crossAx val="-2144544232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13395,11 +13400,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146471080"/>
-        <c:axId val="-2146462840"/>
+        <c:axId val="-2144486888"/>
+        <c:axId val="-2144478808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146471080"/>
+        <c:axId val="-2144486888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2011.0"/>
@@ -13429,13 +13434,13 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146462840"/>
+        <c:crossAx val="-2144478808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146462840"/>
+        <c:axId val="-2144478808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13468,7 +13473,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146471080"/>
+        <c:crossAx val="-2144486888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13488,7 +13493,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13521,7 +13526,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8578725" cy="5827059"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14270,7 +14275,7 @@
   <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14564,7 +14569,7 @@
         <v>1.0293342659267073</v>
       </c>
       <c r="J11" s="25">
-        <f t="shared" ref="J11:J40" si="2">C11/$C$10</f>
+        <f t="shared" ref="J11:J41" si="2">C11/$C$10</f>
         <v>1.0029916611789609</v>
       </c>
       <c r="K11" s="125">
@@ -16061,8 +16066,9 @@
         <f t="shared" si="1"/>
         <v>1.7597635646470668</v>
       </c>
-      <c r="J41" s="25" t="s">
-        <v>129</v>
+      <c r="J41" s="125">
+        <f t="shared" si="2"/>
+        <v>0.8789554169636874</v>
       </c>
       <c r="K41" s="125">
         <f t="shared" si="3"/>
@@ -16154,18 +16160,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L8:L9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L8:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17386,9 +17392,9 @@
         <f>'Japan Workbook'!I41</f>
         <v>1.7597635646470668</v>
       </c>
-      <c r="D33" s="141" t="str">
+      <c r="D33" s="141">
         <f>'Japan Workbook'!J41</f>
-        <v>NA</v>
+        <v>0.8789554169636874</v>
       </c>
       <c r="E33" s="141">
         <f>'Japan Workbook'!K41</f>
@@ -18336,140 +18342,140 @@
       <c r="AG27" s="58"/>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1">
-      <c r="A28" s="144" t="s">
+      <c r="A28" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="146" t="s">
+      <c r="B28" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="146" t="s">
+      <c r="D28" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="146" t="s">
+      <c r="E28" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="146" t="s">
+      <c r="F28" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="146" t="s">
+      <c r="G28" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="146" t="s">
+      <c r="H28" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="146" t="s">
+      <c r="I28" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="146" t="s">
+      <c r="J28" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="146" t="s">
+      <c r="K28" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="144" t="s">
+      <c r="L28" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="148" t="s">
+      <c r="M28" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="N28" s="146" t="s">
+      <c r="N28" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="146" t="s">
+      <c r="O28" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="P28" s="144" t="s">
+      <c r="P28" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="148" t="s">
+      <c r="Q28" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="R28" s="146" t="s">
+      <c r="R28" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="S28" s="146" t="s">
+      <c r="S28" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="T28" s="146" t="s">
+      <c r="T28" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="U28" s="146" t="s">
+      <c r="U28" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="V28" s="146" t="s">
+      <c r="V28" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="W28" s="146" t="s">
+      <c r="W28" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="X28" s="150" t="s">
+      <c r="X28" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="Y28" s="144" t="s">
+      <c r="Y28" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="Z28" s="148" t="s">
+      <c r="Z28" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="AA28" s="146" t="s">
+      <c r="AA28" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="AB28" s="146" t="s">
+      <c r="AB28" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="AC28" s="146" t="s">
+      <c r="AC28" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="AD28" s="146" t="s">
+      <c r="AD28" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="AE28" s="146" t="s">
+      <c r="AE28" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="AF28" s="146" t="s">
+      <c r="AF28" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="AG28" s="150" t="s">
+      <c r="AG28" s="146" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="145"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="145"/>
-      <c r="Q29" s="149"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="145"/>
-      <c r="Z29" s="149"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="147"/>
-      <c r="AD29" s="147"/>
-      <c r="AE29" s="147"/>
-      <c r="AF29" s="147"/>
-      <c r="AG29" s="151"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="147"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="40">
@@ -22235,24 +22241,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="O28:O29"/>
     <mergeCell ref="E28:E29"/>
@@ -22263,11 +22256,24 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
